--- a/PYPL(已自動修復).xlsx
+++ b/PYPL(已自動修復).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11595" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11595" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INCOME成長性" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="162">
   <si>
     <t>ASSETS</t>
   </si>
@@ -506,10 +506,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Net change in cash, cash equivalents, and restricted cash (當年度現金淨變化)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="18"/>
@@ -669,15 +665,67 @@
   <si>
     <t>Loans and interest receivable, net of allowances</t>
   </si>
+  <si>
+    <t>應收帳款週轉率  (銷售額/ 應收帳款平均)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存貨資產週轉率  (銷貨成本/ 存貨資產平均)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>應付帳款週轉率  (購貨額/ 應付帳款平均)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>應收帳款迴轉天數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存貨資產迴轉天數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>應付帳款迴轉天數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Net change in cash, cash equivalents, and restricted cash (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>當年度總現金淨變化</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0.0%"/>
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.0%"/>
+    <numFmt numFmtId="183" formatCode="0.0"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -817,6 +865,14 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="細明體"/>
+      <family val="3"/>
       <charset val="136"/>
     </font>
   </fonts>
@@ -1036,7 +1092,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1118,13 +1174,13 @@
     <xf numFmtId="3" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
@@ -1184,10 +1240,10 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="6" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="6" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1259,13 +1315,10 @@
     <xf numFmtId="3" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1283,7 +1336,7 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1337,15 +1390,376 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="70">
+  <dxfs count="90">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1583,146 +1997,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2048,6 +2322,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF99CC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3170,8 +3449,8 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>281802</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>169180</xdr:rowOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3186,10 +3465,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8379527" y="10243323"/>
-          <a:ext cx="3808525" cy="5533250"/>
+          <a:off x="8379527" y="10447430"/>
+          <a:ext cx="3808525" cy="7066200"/>
           <a:chOff x="7782165" y="8047207"/>
-          <a:chExt cx="2259623" cy="3472513"/>
+          <a:chExt cx="2259623" cy="3167113"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
@@ -3246,7 +3525,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="7782165" y="10660028"/>
-            <a:ext cx="2259623" cy="859692"/>
+            <a:ext cx="2259623" cy="554292"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3411,16 +3690,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>588818</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>177091</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
+      <xdr:rowOff>114298</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>256046</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>157556</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>30910</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>259769</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3435,10 +3714,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="17951532" y="10673444"/>
-          <a:ext cx="3871835" cy="4234255"/>
-          <a:chOff x="7856601" y="8090895"/>
-          <a:chExt cx="2259623" cy="2322104"/>
+          <a:off x="19227091" y="10877548"/>
+          <a:ext cx="5745712" cy="2826078"/>
+          <a:chOff x="8595795" y="8090895"/>
+          <a:chExt cx="3352405" cy="1013483"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
@@ -3453,9 +3732,9 @@
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm flipH="1">
-            <a:off x="8122699" y="8090895"/>
-            <a:ext cx="473096" cy="1904964"/>
+          <a:xfrm>
+            <a:off x="8595795" y="8090895"/>
+            <a:ext cx="1092782" cy="783993"/>
           </a:xfrm>
           <a:prstGeom prst="line">
             <a:avLst/>
@@ -3494,8 +3773,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="7856601" y="10003760"/>
-            <a:ext cx="2259623" cy="409239"/>
+            <a:off x="9688577" y="8912125"/>
+            <a:ext cx="2259623" cy="192253"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4188,6 +4467,210 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>771184</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>320386</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>81642</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="橢圓 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1F9EB42-57DB-8C4F-9246-9B78CB2AB58D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12677434" y="14948065"/>
+          <a:ext cx="1405959" cy="441613"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00">
+            <a:alpha val="37196"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>365453</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>307515</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>81643</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>312965</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="23" name="群組 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4D3F69C-B234-964B-BA08-DDE9402EA16A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="13101739" y="15479479"/>
+          <a:ext cx="3498975" cy="1624700"/>
+          <a:chOff x="8386539" y="8090895"/>
+          <a:chExt cx="2259623" cy="618221"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="24" name="直線接點 23">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4243B3C7-1D18-0BD6-8C40-8AFC4C43A02C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8595795" y="8090895"/>
+            <a:ext cx="395259" cy="411853"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="15875">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="25" name="文字方塊 24">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{027F9084-D9E7-FB63-ECBF-4A6663DDA147}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8386539" y="8516863"/>
+            <a:ext cx="2259623" cy="192253"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+          <a:ln w="22225" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0"/>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>收到帳款的周期變長了</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5623,6 +6106,232 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171378</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>20565</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>121227</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>17318</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="橢圓 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DB36C6C-9878-7A49-917C-BDCAF0D383A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12155560" y="3830565"/>
+          <a:ext cx="5768758" cy="291162"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00">
+            <a:alpha val="37196"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>484911</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>125201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>17317</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>17308</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="25" name="群組 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4D3F69C-B234-964B-BA08-DDE9402EA16A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="17456729" y="3051974"/>
+          <a:ext cx="5784270" cy="775334"/>
+          <a:chOff x="7928898" y="8651279"/>
+          <a:chExt cx="3374902" cy="278049"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="26" name="直線接點 25">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4243B3C7-1D18-0BD6-8C40-8AFC4C43A02C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="7928898" y="8749227"/>
+            <a:ext cx="788151" cy="180101"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="15875">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="27" name="文字方塊 26">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{027F9084-D9E7-FB63-ECBF-4A6663DDA147}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8708440" y="8651279"/>
+            <a:ext cx="2595360" cy="192253"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+          <a:ln w="22225" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0"/>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>應收帳款持續增加</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1800">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> 導致營業現金流減少</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5929,7 +6638,7 @@
       <pane xSplit="8" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A40" sqref="A40:XFD40"/>
+      <selection pane="bottomRight" activeCell="J2" sqref="J2:O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
@@ -5994,13 +6703,13 @@
       <c r="P1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="80" t="s">
-        <v>129</v>
+      <c r="Q1" s="79" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="47.1" customHeight="1">
       <c r="A2" s="45" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B2" s="26">
         <v>9248</v>
@@ -6047,7 +6756,7 @@
         <f t="shared" si="0"/>
         <v>0.18257667567819522</v>
       </c>
-      <c r="Q2" s="81" t="s">
+      <c r="Q2" s="80" t="s">
         <v>61</v>
       </c>
     </row>
@@ -6068,11 +6777,11 @@
       <c r="M3" s="30"/>
       <c r="N3" s="30"/>
       <c r="O3" s="30"/>
-      <c r="Q3" s="77"/>
+      <c r="Q3" s="76"/>
     </row>
     <row r="4" spans="1:25" ht="36" customHeight="1">
       <c r="A4" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B4" s="2">
         <v>2610</v>
@@ -6310,7 +7019,7 @@
     </row>
     <row r="11" spans="1:25" ht="23.25">
       <c r="A11" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B11" s="2">
         <v>48</v>
@@ -6390,7 +7099,7 @@
         <f t="shared" ref="O12:O17" si="7">(H12-G12)/G12</f>
         <v>0.16206991467107074</v>
       </c>
-      <c r="Q12" s="78"/>
+      <c r="Q12" s="77"/>
       <c r="R12" s="33"/>
       <c r="S12" s="33"/>
       <c r="T12" s="33"/>
@@ -6449,7 +7158,7 @@
         <f t="shared" si="7"/>
         <v>0.29583460018242624</v>
       </c>
-      <c r="Q13" s="81" t="s">
+      <c r="Q13" s="80" t="s">
         <v>63</v>
       </c>
       <c r="R13" s="33"/>
@@ -6666,7 +7375,7 @@
         <f t="shared" si="7"/>
         <v>-7.8534031413612562E-3</v>
       </c>
-      <c r="Q17" s="81" t="s">
+      <c r="Q17" s="80" t="s">
         <v>64</v>
       </c>
       <c r="R17" s="33"/>
@@ -6697,7 +7406,7 @@
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
       <c r="P18" s="9"/>
-      <c r="Q18" s="77"/>
+      <c r="Q18" s="76"/>
       <c r="R18" s="9"/>
       <c r="S18" s="9"/>
       <c r="T18" s="9"/>
@@ -6711,31 +7420,31 @@
       <c r="A19" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="82">
+      <c r="B19" s="81">
         <f t="shared" ref="B19:C19" si="13">B13/B2</f>
         <v>0.15798010380622837</v>
       </c>
-      <c r="C19" s="82">
+      <c r="C19" s="81">
         <f t="shared" si="13"/>
         <v>0.14628297362110312</v>
       </c>
-      <c r="D19" s="82">
+      <c r="D19" s="81">
         <f>D13/D2</f>
         <v>0.16244081258591722</v>
       </c>
-      <c r="E19" s="82">
+      <c r="E19" s="81">
         <f>E13/E2</f>
         <v>0.1419972817293379</v>
       </c>
-      <c r="F19" s="82">
+      <c r="F19" s="81">
         <f t="shared" ref="F19:H19" si="14">F13/F2</f>
         <v>0.15299347287868556</v>
       </c>
-      <c r="G19" s="82">
+      <c r="G19" s="81">
         <f t="shared" si="14"/>
         <v>0.15330474503589075</v>
       </c>
-      <c r="H19" s="82">
+      <c r="H19" s="81">
         <f t="shared" si="14"/>
         <v>0.16798707185369122</v>
       </c>
@@ -6765,7 +7474,7 @@
         <v>9.5772161614196133E-2</v>
       </c>
       <c r="P19" s="8"/>
-      <c r="Q19" s="79"/>
+      <c r="Q19" s="78"/>
       <c r="R19" s="33"/>
       <c r="S19" s="33"/>
       <c r="T19" s="33"/>
@@ -6833,7 +7542,7 @@
         <v>-0.31566435829700856</v>
       </c>
       <c r="P20" s="8"/>
-      <c r="Q20" s="79"/>
+      <c r="Q20" s="78"/>
       <c r="R20" s="33"/>
       <c r="S20" s="33"/>
       <c r="T20" s="33"/>
@@ -6901,7 +7610,7 @@
         <v>-0.16102979429249006</v>
       </c>
       <c r="P21" s="8"/>
-      <c r="Q21" s="79"/>
+      <c r="Q21" s="78"/>
       <c r="R21" s="33"/>
       <c r="S21" s="33"/>
       <c r="T21" s="33"/>
@@ -6966,7 +7675,7 @@
         <v>#REF!</v>
       </c>
       <c r="P22" s="8"/>
-      <c r="Q22" s="79"/>
+      <c r="Q22" s="78"/>
       <c r="R22" s="33"/>
       <c r="S22" s="33"/>
       <c r="T22" s="33"/>
@@ -7031,7 +7740,7 @@
         <v>#REF!</v>
       </c>
       <c r="P23" s="8"/>
-      <c r="Q23" s="79"/>
+      <c r="Q23" s="78"/>
       <c r="R23" s="33"/>
       <c r="S23" s="33"/>
       <c r="T23" s="33"/>
@@ -7102,7 +7811,7 @@
       <c r="N25" s="8"/>
       <c r="O25" s="8"/>
       <c r="P25" s="8"/>
-      <c r="Q25" s="79"/>
+      <c r="Q25" s="78"/>
       <c r="R25" s="33"/>
       <c r="S25" s="33"/>
       <c r="T25" s="33"/>
@@ -7216,7 +7925,7 @@
       <c r="N26" s="8"/>
       <c r="O26" s="8"/>
       <c r="P26" s="8"/>
-      <c r="Q26" s="79"/>
+      <c r="Q26" s="78"/>
       <c r="R26" s="33"/>
       <c r="S26" s="33"/>
       <c r="T26" s="33"/>
@@ -7316,7 +8025,7 @@
       <c r="N27" s="8"/>
       <c r="O27" s="8"/>
       <c r="P27" s="8"/>
-      <c r="Q27" s="79"/>
+      <c r="Q27" s="78"/>
       <c r="R27" s="33"/>
       <c r="S27" s="33"/>
       <c r="T27" s="33"/>
@@ -7359,7 +8068,7 @@
       <c r="N28" s="8"/>
       <c r="O28" s="8"/>
       <c r="P28" s="8"/>
-      <c r="Q28" s="79"/>
+      <c r="Q28" s="78"/>
       <c r="R28" s="33"/>
       <c r="S28" s="33"/>
       <c r="T28" s="33"/>
@@ -7402,7 +8111,7 @@
       <c r="N29" s="8"/>
       <c r="O29" s="8"/>
       <c r="P29" s="8"/>
-      <c r="Q29" s="79"/>
+      <c r="Q29" s="78"/>
       <c r="R29" s="33"/>
       <c r="S29" s="33"/>
       <c r="T29" s="33"/>
@@ -7445,7 +8154,7 @@
       <c r="N30" s="8"/>
       <c r="O30" s="8"/>
       <c r="P30" s="8"/>
-      <c r="Q30" s="79"/>
+      <c r="Q30" s="78"/>
       <c r="R30" s="33"/>
       <c r="S30" s="33"/>
       <c r="T30" s="33"/>
@@ -7474,7 +8183,7 @@
       <c r="N31" s="9"/>
       <c r="O31" s="9"/>
       <c r="P31" s="9"/>
-      <c r="Q31" s="77"/>
+      <c r="Q31" s="76"/>
       <c r="R31" s="9"/>
       <c r="S31" s="9"/>
       <c r="T31" s="9"/>
@@ -7517,7 +8226,7 @@
       <c r="N32" s="8"/>
       <c r="O32" s="8"/>
       <c r="P32" s="8"/>
-      <c r="Q32" s="79"/>
+      <c r="Q32" s="78"/>
       <c r="R32" s="8"/>
       <c r="S32" s="8"/>
       <c r="T32" s="8"/>
@@ -7715,25 +8424,25 @@
       <c r="A39" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="B39" s="83">
+      <c r="B39" s="82">
         <v>1109</v>
       </c>
-      <c r="C39" s="83">
+      <c r="C39" s="82">
         <v>1469</v>
       </c>
-      <c r="D39" s="84">
+      <c r="D39" s="83">
         <v>1594</v>
       </c>
-      <c r="E39" s="84">
+      <c r="E39" s="83">
         <v>2277</v>
       </c>
-      <c r="F39" s="84">
+      <c r="F39" s="83">
         <v>2208</v>
       </c>
-      <c r="G39" s="84">
+      <c r="G39" s="83">
         <v>3891</v>
       </c>
-      <c r="H39" s="84">
+      <c r="H39" s="83">
         <v>4517</v>
       </c>
       <c r="J39" s="28">
@@ -8141,66 +8850,66 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J2:O2">
-    <cfRule type="top10" dxfId="69" priority="37" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="68" priority="38" rank="1"/>
+    <cfRule type="top10" dxfId="89" priority="37" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="88" priority="38" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:O12">
-    <cfRule type="top10" dxfId="67" priority="5" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="66" priority="6" rank="1"/>
-    <cfRule type="top10" dxfId="65" priority="35" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="64" priority="36" rank="1"/>
+    <cfRule type="top10" dxfId="87" priority="5" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="86" priority="6" rank="1"/>
+    <cfRule type="top10" dxfId="85" priority="35" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="84" priority="36" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14:O14">
-    <cfRule type="top10" dxfId="63" priority="33" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="62" priority="34" rank="1"/>
+    <cfRule type="top10" dxfId="83" priority="33" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="82" priority="34" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15:O15">
-    <cfRule type="top10" dxfId="61" priority="31" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="60" priority="32" rank="1"/>
+    <cfRule type="top10" dxfId="81" priority="31" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="80" priority="32" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17:O17">
-    <cfRule type="top10" dxfId="59" priority="29" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="58" priority="30" rank="1"/>
+    <cfRule type="top10" dxfId="79" priority="29" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="78" priority="30" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J38:O38">
-    <cfRule type="top10" dxfId="57" priority="27" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="56" priority="28" rank="1"/>
+    <cfRule type="top10" dxfId="77" priority="27" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="76" priority="28" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J39:O39">
-    <cfRule type="top10" dxfId="55" priority="25" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="54" priority="26" rank="1"/>
+    <cfRule type="top10" dxfId="75" priority="25" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="74" priority="26" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22:J23">
-    <cfRule type="top10" dxfId="53" priority="17" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="52" priority="18" rank="1"/>
+    <cfRule type="top10" dxfId="73" priority="17" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="72" priority="18" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20:O20">
-    <cfRule type="top10" dxfId="51" priority="15" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="50" priority="16" rank="1"/>
+    <cfRule type="top10" dxfId="71" priority="15" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="70" priority="16" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21:O21">
-    <cfRule type="top10" dxfId="49" priority="13" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="48" priority="14" rank="1"/>
+    <cfRule type="top10" dxfId="69" priority="13" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="68" priority="14" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22:O22">
-    <cfRule type="top10" dxfId="47" priority="11" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="46" priority="12" rank="1"/>
+    <cfRule type="top10" dxfId="67" priority="11" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="66" priority="12" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23:O23">
-    <cfRule type="top10" dxfId="45" priority="9" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="44" priority="10" rank="1"/>
+    <cfRule type="top10" dxfId="65" priority="9" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="64" priority="10" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13:O13">
-    <cfRule type="top10" dxfId="43" priority="7" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="42" priority="8" rank="1"/>
+    <cfRule type="top10" dxfId="63" priority="7" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="62" priority="8" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:O4">
-    <cfRule type="top10" dxfId="41" priority="3" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="40" priority="4" rank="1"/>
+    <cfRule type="top10" dxfId="61" priority="3" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="60" priority="4" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19:O19">
-    <cfRule type="top10" dxfId="39" priority="1" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="38" priority="2" rank="1"/>
+    <cfRule type="top10" dxfId="59" priority="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="58" priority="2" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8208,83 +8917,19 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" high="1" low="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
           <x14:colorMarkers rgb="FF0070C0"/>
           <x14:colorFirst rgb="FFFFC000"/>
           <x14:colorLast rgb="FFFFC000"/>
-          <x14:colorHigh rgb="FF00B050"/>
-          <x14:colorLow rgb="FFFF0000"/>
+          <x14:colorHigh rgb="FFFF0000"/>
+          <x14:colorLow rgb="FF92D050"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>INCOME成長性!B2:H2</xm:f>
-              <xm:sqref>I2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B12:H12</xm:f>
-              <xm:sqref>I12</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B13:H13</xm:f>
-              <xm:sqref>I13</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B15:H15</xm:f>
-              <xm:sqref>I15</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B17:H17</xm:f>
-              <xm:sqref>I17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B18:H18</xm:f>
-              <xm:sqref>I18</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B19:H19</xm:f>
-              <xm:sqref>I19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B20:H20</xm:f>
-              <xm:sqref>I20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B21:H21</xm:f>
-              <xm:sqref>I21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B22:H22</xm:f>
-              <xm:sqref>I22</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B23:H23</xm:f>
-              <xm:sqref>I23</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B24:H24</xm:f>
-              <xm:sqref>I24</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B38:H38</xm:f>
-              <xm:sqref>I38</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B39:H39</xm:f>
-              <xm:sqref>I39</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B14:H14</xm:f>
-              <xm:sqref>I14</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B3:H3</xm:f>
-              <xm:sqref>I3</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B4:H4</xm:f>
-              <xm:sqref>I4</xm:sqref>
+              <xm:f>INCOME成長性!J12:O12</xm:f>
+              <xm:sqref>P12</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -8404,19 +9049,83 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" high="1" low="1">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
           <x14:colorMarkers rgb="FF0070C0"/>
           <x14:colorFirst rgb="FFFFC000"/>
           <x14:colorLast rgb="FFFFC000"/>
-          <x14:colorHigh rgb="FFFF0000"/>
-          <x14:colorLow rgb="FF92D050"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>INCOME成長性!J12:O12</xm:f>
-              <xm:sqref>P12</xm:sqref>
+              <xm:f>INCOME成長性!B2:H2</xm:f>
+              <xm:sqref>I2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B12:H12</xm:f>
+              <xm:sqref>I12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B13:H13</xm:f>
+              <xm:sqref>I13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B15:H15</xm:f>
+              <xm:sqref>I15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B17:H17</xm:f>
+              <xm:sqref>I17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B18:H18</xm:f>
+              <xm:sqref>I18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B19:H19</xm:f>
+              <xm:sqref>I19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B20:H20</xm:f>
+              <xm:sqref>I20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B21:H21</xm:f>
+              <xm:sqref>I21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B22:H22</xm:f>
+              <xm:sqref>I22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B23:H23</xm:f>
+              <xm:sqref>I23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B24:H24</xm:f>
+              <xm:sqref>I24</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B38:H38</xm:f>
+              <xm:sqref>I38</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B39:H39</xm:f>
+              <xm:sqref>I39</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B14:H14</xm:f>
+              <xm:sqref>I14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B3:H3</xm:f>
+              <xm:sqref>I3</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B4:H4</xm:f>
+              <xm:sqref>I4</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -8428,17 +9137,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P359"/>
+  <dimension ref="A1:P365"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="8" ySplit="1" topLeftCell="I20" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="J6" sqref="J6:O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="25.5"/>
   <cols>
     <col min="1" max="1" width="90.875" style="4" customWidth="1"/>
     <col min="2" max="6" width="10.875" style="13" customWidth="1"/>
-    <col min="7" max="8" width="10.875" style="79" customWidth="1"/>
+    <col min="7" max="8" width="10.875" style="78" customWidth="1"/>
     <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="21.875" customWidth="1"/>
   </cols>
@@ -8491,60 +9203,60 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" ht="22.5">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="16"/>
-      <c r="H2" s="93"/>
+      <c r="H2" s="92"/>
     </row>
     <row r="3" spans="1:16" ht="23.25">
       <c r="A3" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="89"/>
+        <v>138</v>
+      </c>
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="88"/>
     </row>
     <row r="4" spans="1:16" ht="23.25">
       <c r="A4" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="B4" s="90">
+      <c r="B4" s="89">
         <v>1393</v>
       </c>
-      <c r="C4" s="91">
+      <c r="C4" s="90">
         <v>1590</v>
       </c>
-      <c r="D4" s="91">
+      <c r="D4" s="90">
         <v>2883</v>
       </c>
-      <c r="E4" s="91">
+      <c r="E4" s="90">
         <v>7575</v>
       </c>
-      <c r="F4" s="91">
+      <c r="F4" s="90">
         <v>7349</v>
       </c>
-      <c r="G4" s="91">
+      <c r="G4" s="90">
         <v>4794</v>
       </c>
-      <c r="H4" s="91">
+      <c r="H4" s="90">
         <v>5197</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="23.25">
       <c r="A5" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="B5" s="86">
+        <v>139</v>
+      </c>
+      <c r="B5" s="85">
         <v>2018</v>
       </c>
       <c r="C5" s="2">
@@ -8559,18 +9271,18 @@
       <c r="F5" s="2">
         <v>3412</v>
       </c>
-      <c r="G5" s="91">
+      <c r="G5" s="90">
         <v>8289</v>
       </c>
-      <c r="H5" s="91">
+      <c r="H5" s="90">
         <v>4303</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="16.5" customHeight="1">
+    <row r="6" spans="1:16" ht="23.25" customHeight="1">
       <c r="A6" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="B6" s="86">
+        <v>140</v>
+      </c>
+      <c r="B6" s="85">
         <v>137</v>
       </c>
       <c r="C6" s="2">
@@ -8585,18 +9297,44 @@
       <c r="F6" s="2">
         <v>435</v>
       </c>
-      <c r="G6" s="91">
+      <c r="G6" s="90">
         <v>577</v>
       </c>
-      <c r="H6" s="91">
+      <c r="H6" s="90">
         <v>800</v>
       </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="29">
+        <f>(C6-B6)/B6</f>
+        <v>0.56204379562043794</v>
+      </c>
+      <c r="K6" s="29">
+        <f t="shared" ref="K6:O6" si="0">(D6-C6)/C6</f>
+        <v>0.32242990654205606</v>
+      </c>
+      <c r="L6" s="29">
+        <f t="shared" si="0"/>
+        <v>0.10600706713780919</v>
+      </c>
+      <c r="M6" s="29">
+        <f t="shared" si="0"/>
+        <v>0.38977635782747605</v>
+      </c>
+      <c r="N6" s="29">
+        <f t="shared" si="0"/>
+        <v>0.32643678160919543</v>
+      </c>
+      <c r="O6" s="29">
+        <f t="shared" si="0"/>
+        <v>0.38648180242634317</v>
+      </c>
+      <c r="P6" s="8"/>
     </row>
     <row r="7" spans="1:16" ht="23.25">
       <c r="A7" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="B7" s="86">
+        <v>154</v>
+      </c>
+      <c r="B7" s="85">
         <v>4184</v>
       </c>
       <c r="C7" s="2">
@@ -8611,18 +9349,20 @@
       <c r="F7" s="2">
         <v>3972</v>
       </c>
-      <c r="G7" s="91">
+      <c r="G7" s="90">
         <v>2769</v>
       </c>
-      <c r="H7" s="91">
+      <c r="H7" s="90">
         <v>4846</v>
       </c>
+      <c r="I7" s="8"/>
+      <c r="P7" s="8"/>
     </row>
     <row r="8" spans="1:16" ht="16.5" customHeight="1">
       <c r="A8" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="B8" s="86" t="s">
+        <v>150</v>
+      </c>
+      <c r="B8" s="85" t="s">
         <v>55</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -8637,18 +9377,20 @@
       <c r="F8" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="91" t="s">
+      <c r="G8" s="90" t="s">
         <v>55</v>
       </c>
-      <c r="H8" s="91" t="s">
+      <c r="H8" s="90" t="s">
         <v>55</v>
       </c>
+      <c r="I8" s="8"/>
+      <c r="P8" s="8"/>
     </row>
     <row r="9" spans="1:16" ht="23.25">
       <c r="A9" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="B9" s="86">
+      <c r="B9" s="85">
         <v>12261</v>
       </c>
       <c r="C9" s="2">
@@ -8663,18 +9405,20 @@
       <c r="F9" s="2">
         <v>22527</v>
       </c>
-      <c r="G9" s="91">
+      <c r="G9" s="90">
         <v>33418</v>
       </c>
-      <c r="H9" s="91">
+      <c r="H9" s="90">
         <v>36141</v>
       </c>
+      <c r="I9" s="8"/>
+      <c r="P9" s="8"/>
     </row>
     <row r="10" spans="1:16" ht="23.25">
       <c r="A10" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="B10" s="86">
+        <v>141</v>
+      </c>
+      <c r="B10" s="85">
         <v>655</v>
       </c>
       <c r="C10" s="2">
@@ -8689,15 +9433,17 @@
       <c r="F10" s="2">
         <v>800</v>
       </c>
-      <c r="G10" s="91">
+      <c r="G10" s="90">
         <v>1148</v>
       </c>
-      <c r="H10" s="91">
+      <c r="H10" s="90">
         <v>1287</v>
       </c>
+      <c r="I10" s="8"/>
+      <c r="P10" s="8"/>
     </row>
     <row r="11" spans="1:16" ht="33" customHeight="1">
-      <c r="A11" s="95" t="s">
+      <c r="A11" s="94" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="44">
@@ -8705,27 +9451,27 @@
         <v>20648</v>
       </c>
       <c r="C11" s="44">
-        <f t="shared" ref="C11:H11" si="0">SUM(C4:C10)</f>
+        <f t="shared" ref="C11:H11" si="1">SUM(C4:C10)</f>
         <v>25733</v>
       </c>
       <c r="D11" s="44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32645</v>
       </c>
       <c r="E11" s="44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32963</v>
       </c>
       <c r="F11" s="44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38495</v>
       </c>
-      <c r="G11" s="96">
-        <f t="shared" si="0"/>
+      <c r="G11" s="95">
+        <f t="shared" si="1"/>
         <v>50995</v>
       </c>
-      <c r="H11" s="96">
-        <f t="shared" si="0"/>
+      <c r="H11" s="95">
+        <f t="shared" si="1"/>
         <v>52574</v>
       </c>
       <c r="I11" s="8"/>
@@ -8734,32 +9480,32 @@
         <v>0.24627082526152655</v>
       </c>
       <c r="K11" s="29">
-        <f t="shared" ref="K11:O11" si="1">(D11-C11)/C11</f>
+        <f t="shared" ref="K11:O11" si="2">(D11-C11)/C11</f>
         <v>0.26860451560253373</v>
       </c>
       <c r="L11" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.7411548476030018E-3</v>
       </c>
       <c r="M11" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.16782453053423535</v>
       </c>
       <c r="N11" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.32471749577867254</v>
       </c>
       <c r="O11" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.0963819982351211E-2</v>
       </c>
       <c r="P11" s="8"/>
     </row>
     <row r="12" spans="1:16" ht="23.25">
-      <c r="A12" s="87" t="s">
+      <c r="A12" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="86">
+      <c r="B12" s="85">
         <v>2348</v>
       </c>
       <c r="C12" s="2">
@@ -8774,10 +9520,10 @@
       <c r="F12" s="2">
         <v>2863</v>
       </c>
-      <c r="G12" s="91">
+      <c r="G12" s="90">
         <v>6089</v>
       </c>
-      <c r="H12" s="91">
+      <c r="H12" s="90">
         <v>6797</v>
       </c>
       <c r="I12" s="8"/>
@@ -8790,10 +9536,10 @@
       <c r="P12" s="8"/>
     </row>
     <row r="13" spans="1:16" ht="23.25">
-      <c r="A13" s="87" t="s">
+      <c r="A13" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="86">
+      <c r="B13" s="85">
         <v>1344</v>
       </c>
       <c r="C13" s="2">
@@ -8808,10 +9554,10 @@
       <c r="F13" s="2">
         <v>1693</v>
       </c>
-      <c r="G13" s="91">
+      <c r="G13" s="90">
         <v>1807</v>
       </c>
-      <c r="H13" s="91">
+      <c r="H13" s="90">
         <v>1909</v>
       </c>
       <c r="I13" s="8"/>
@@ -8824,10 +9570,10 @@
       <c r="P13" s="8"/>
     </row>
     <row r="14" spans="1:16" ht="21" customHeight="1">
-      <c r="A14" s="87" t="s">
+      <c r="A14" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="86">
+      <c r="B14" s="85">
         <v>4069</v>
       </c>
       <c r="C14" s="2">
@@ -8842,10 +9588,10 @@
       <c r="F14" s="2">
         <v>6212</v>
       </c>
-      <c r="G14" s="91">
+      <c r="G14" s="90">
         <v>9135</v>
       </c>
-      <c r="H14" s="91">
+      <c r="H14" s="90">
         <v>11454</v>
       </c>
       <c r="I14" s="8"/>
@@ -8858,10 +9604,10 @@
       <c r="P14" s="8"/>
     </row>
     <row r="15" spans="1:16" ht="17.25" customHeight="1">
-      <c r="A15" s="87" t="s">
+      <c r="A15" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="86">
+      <c r="B15" s="85">
         <v>358</v>
       </c>
       <c r="C15" s="2">
@@ -8876,10 +9622,10 @@
       <c r="F15" s="2">
         <v>778</v>
       </c>
-      <c r="G15" s="91">
+      <c r="G15" s="90">
         <v>1048</v>
       </c>
-      <c r="H15" s="91">
+      <c r="H15" s="90">
         <v>1332</v>
       </c>
       <c r="I15" s="8"/>
@@ -8892,10 +9638,10 @@
       <c r="P15" s="8"/>
     </row>
     <row r="16" spans="1:16" ht="23.25">
-      <c r="A16" s="87" t="s">
+      <c r="A16" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="86">
+      <c r="B16" s="85">
         <v>114</v>
       </c>
       <c r="C16" s="2">
@@ -8910,10 +9656,10 @@
       <c r="F16" s="2">
         <v>1292</v>
       </c>
-      <c r="G16" s="91">
+      <c r="G16" s="90">
         <v>1305</v>
       </c>
-      <c r="H16" s="91">
+      <c r="H16" s="90">
         <v>1737</v>
       </c>
       <c r="I16" s="8"/>
@@ -8926,7 +9672,7 @@
       <c r="P16" s="8"/>
     </row>
     <row r="17" spans="1:16" ht="30.75" customHeight="1">
-      <c r="A17" s="95" t="s">
+      <c r="A17" s="94" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="44">
@@ -8934,58 +9680,58 @@
         <v>28881</v>
       </c>
       <c r="C17" s="44">
-        <f t="shared" ref="C17:H17" si="2">SUM(C11:C16)</f>
+        <f t="shared" ref="C17:H17" si="3">SUM(C11:C16)</f>
         <v>33103</v>
       </c>
       <c r="D17" s="44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40774</v>
       </c>
       <c r="E17" s="44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43332</v>
       </c>
       <c r="F17" s="44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>51333</v>
       </c>
-      <c r="G17" s="96">
-        <f t="shared" si="2"/>
+      <c r="G17" s="95">
+        <f t="shared" si="3"/>
         <v>70379</v>
       </c>
-      <c r="H17" s="96">
-        <f t="shared" si="2"/>
+      <c r="H17" s="95">
+        <f t="shared" si="3"/>
         <v>75803</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="29">
-        <f t="shared" ref="J12:J17" si="3">(C17-B17)/B17</f>
+        <f t="shared" ref="J17" si="4">(C17-B17)/B17</f>
         <v>0.14618607388940827</v>
       </c>
       <c r="K17" s="29">
-        <f t="shared" ref="K12:K17" si="4">(D17-C17)/C17</f>
+        <f t="shared" ref="K17" si="5">(D17-C17)/C17</f>
         <v>0.23173126302752017</v>
       </c>
       <c r="L17" s="29">
-        <f t="shared" ref="L12:L17" si="5">(E17-D17)/D17</f>
+        <f t="shared" ref="L17" si="6">(E17-D17)/D17</f>
         <v>6.2736057291411199E-2</v>
       </c>
       <c r="M17" s="29">
-        <f t="shared" ref="M12:M17" si="6">(F17-E17)/E17</f>
+        <f t="shared" ref="M17" si="7">(F17-E17)/E17</f>
         <v>0.18464414289670453</v>
       </c>
       <c r="N17" s="29">
-        <f t="shared" ref="N12:N17" si="7">(G17-F17)/F17</f>
+        <f t="shared" ref="N17" si="8">(G17-F17)/F17</f>
         <v>0.37102838330119026</v>
       </c>
       <c r="O17" s="29">
-        <f t="shared" ref="O12:O17" si="8">(H17-G17)/G17</f>
+        <f t="shared" ref="O17" si="9">(H17-G17)/G17</f>
         <v>7.7068443711902704E-2</v>
       </c>
       <c r="P17" s="8"/>
     </row>
     <row r="18" spans="1:16" s="1" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A18" s="92" t="s">
+      <c r="A18" s="91" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="42"/>
@@ -8993,28 +9739,28 @@
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
-      <c r="G18" s="94"/>
-      <c r="H18" s="94"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="93"/>
     </row>
     <row r="19" spans="1:16" ht="23.25">
       <c r="A19" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="B19" s="86"/>
+        <v>142</v>
+      </c>
+      <c r="B19" s="85"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="91"/>
-      <c r="H19" s="91"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="90"/>
       <c r="I19" s="8"/>
       <c r="P19" s="8"/>
     </row>
-    <row r="20" spans="1:16" ht="16.5" customHeight="1">
+    <row r="20" spans="1:16" ht="24.75" customHeight="1">
       <c r="A20" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="B20" s="86">
+      <c r="B20" s="85">
         <v>145</v>
       </c>
       <c r="C20" s="2">
@@ -9029,20 +9775,44 @@
       <c r="F20" s="2">
         <v>232</v>
       </c>
-      <c r="G20" s="91">
+      <c r="G20" s="90">
         <v>252</v>
       </c>
-      <c r="H20" s="91">
+      <c r="H20" s="90">
         <v>197</v>
       </c>
       <c r="I20" s="8"/>
+      <c r="J20" s="29">
+        <f>(C20-B20)/B20</f>
+        <v>0.32413793103448274</v>
+      </c>
+      <c r="K20" s="29">
+        <f t="shared" ref="K20:O20" si="10">(D20-C20)/C20</f>
+        <v>0.33854166666666669</v>
+      </c>
+      <c r="L20" s="29">
+        <f t="shared" si="10"/>
+        <v>9.3385214007782102E-2</v>
+      </c>
+      <c r="M20" s="29">
+        <f t="shared" si="10"/>
+        <v>-0.17437722419928825</v>
+      </c>
+      <c r="N20" s="29">
+        <f t="shared" si="10"/>
+        <v>8.6206896551724144E-2</v>
+      </c>
+      <c r="O20" s="29">
+        <f t="shared" si="10"/>
+        <v>-0.21825396825396826</v>
+      </c>
       <c r="P20" s="8"/>
     </row>
     <row r="21" spans="1:16" ht="23.25">
       <c r="A21" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="B21" s="86" t="s">
+        <v>151</v>
+      </c>
+      <c r="B21" s="85" t="s">
         <v>55</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -9057,10 +9827,10 @@
       <c r="F21" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G21" s="91" t="s">
+      <c r="G21" s="90" t="s">
         <v>55</v>
       </c>
-      <c r="H21" s="91" t="s">
+      <c r="H21" s="90" t="s">
         <v>55</v>
       </c>
       <c r="I21" s="8"/>
@@ -9068,9 +9838,9 @@
     </row>
     <row r="22" spans="1:16" ht="21.75" customHeight="1">
       <c r="A22" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="B22" s="86" t="s">
+        <v>149</v>
+      </c>
+      <c r="B22" s="85" t="s">
         <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -9085,10 +9855,10 @@
       <c r="F22" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G22" s="91" t="s">
+      <c r="G22" s="90" t="s">
         <v>55</v>
       </c>
-      <c r="H22" s="91" t="s">
+      <c r="H22" s="90" t="s">
         <v>55</v>
       </c>
       <c r="I22" s="8"/>
@@ -9098,7 +9868,7 @@
       <c r="A23" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="B23" s="86">
+      <c r="B23" s="85">
         <v>12261</v>
       </c>
       <c r="C23" s="2">
@@ -9113,10 +9883,10 @@
       <c r="F23" s="2">
         <v>24527</v>
       </c>
-      <c r="G23" s="91">
+      <c r="G23" s="90">
         <v>35418</v>
       </c>
-      <c r="H23" s="91">
+      <c r="H23" s="90">
         <v>38841</v>
       </c>
       <c r="I23" s="8"/>
@@ -9124,9 +9894,9 @@
     </row>
     <row r="24" spans="1:16" ht="23.25">
       <c r="A24" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="B24" s="86">
+        <v>143</v>
+      </c>
+      <c r="B24" s="85">
         <v>1179</v>
       </c>
       <c r="C24" s="2">
@@ -9141,10 +9911,10 @@
       <c r="F24" s="2">
         <v>2087</v>
       </c>
-      <c r="G24" s="91">
+      <c r="G24" s="90">
         <v>2648</v>
       </c>
-      <c r="H24" s="91">
+      <c r="H24" s="90">
         <v>3755</v>
       </c>
       <c r="I24" s="8"/>
@@ -9154,7 +9924,7 @@
       <c r="A25" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="B25" s="86">
+      <c r="B25" s="85">
         <v>32</v>
       </c>
       <c r="C25" s="2">
@@ -9169,17 +9939,17 @@
       <c r="F25" s="2">
         <v>73</v>
       </c>
-      <c r="G25" s="91">
+      <c r="G25" s="90">
         <v>129</v>
       </c>
-      <c r="H25" s="91">
+      <c r="H25" s="90">
         <v>236</v>
       </c>
       <c r="I25" s="8"/>
       <c r="P25" s="8"/>
     </row>
     <row r="26" spans="1:16" ht="33.75" customHeight="1">
-      <c r="A26" s="95" t="s">
+      <c r="A26" s="94" t="s">
         <v>9</v>
       </c>
       <c r="B26" s="44">
@@ -9187,27 +9957,27 @@
         <v>13617</v>
       </c>
       <c r="C26" s="44">
-        <f t="shared" ref="C26:H26" si="9">SUM(C20:C25)</f>
+        <f t="shared" ref="C26:H26" si="11">SUM(C20:C25)</f>
         <v>16878</v>
       </c>
       <c r="D26" s="44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>22863</v>
       </c>
       <c r="E26" s="44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>25904</v>
       </c>
       <c r="F26" s="44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>26919</v>
       </c>
-      <c r="G26" s="96">
-        <f t="shared" si="9"/>
+      <c r="G26" s="95">
+        <f t="shared" si="11"/>
         <v>38447</v>
       </c>
-      <c r="H26" s="96">
-        <f t="shared" si="9"/>
+      <c r="H26" s="95">
+        <f t="shared" si="11"/>
         <v>43029</v>
       </c>
       <c r="I26" s="8"/>
@@ -9216,23 +9986,23 @@
         <v>0.23948006168759639</v>
       </c>
       <c r="K26" s="29">
-        <f t="shared" ref="K26:O26" si="10">(D26-C26)/C26</f>
+        <f t="shared" ref="K26:O26" si="12">(D26-C26)/C26</f>
         <v>0.35460362602204054</v>
       </c>
       <c r="L26" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.13300966627301755</v>
       </c>
       <c r="M26" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3.9183137739345272E-2</v>
       </c>
       <c r="N26" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.4282477060812066</v>
       </c>
       <c r="O26" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.11917704892449346</v>
       </c>
       <c r="P26" s="8"/>
@@ -9241,7 +10011,7 @@
       <c r="A27" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="86">
+      <c r="B27" s="85">
         <v>1505</v>
       </c>
       <c r="C27" s="2">
@@ -9256,10 +10026,10 @@
       <c r="F27" s="2">
         <v>2520</v>
       </c>
-      <c r="G27" s="91">
+      <c r="G27" s="90">
         <v>2930</v>
       </c>
-      <c r="H27" s="91">
+      <c r="H27" s="90">
         <v>2998</v>
       </c>
       <c r="I27" s="8"/>
@@ -9272,7 +10042,7 @@
       <c r="P27" s="8"/>
     </row>
     <row r="28" spans="1:16" ht="23.25">
-      <c r="A28" s="95" t="s">
+      <c r="A28" s="94" t="s">
         <v>15</v>
       </c>
       <c r="B28" s="11" t="s">
@@ -9290,10 +10060,10 @@
       <c r="F28" s="11">
         <v>4965</v>
       </c>
-      <c r="G28" s="96">
+      <c r="G28" s="95">
         <v>8939</v>
       </c>
-      <c r="H28" s="96">
+      <c r="H28" s="95">
         <v>8049</v>
       </c>
       <c r="I28" s="8"/>
@@ -9302,17 +10072,17 @@
       <c r="L28" s="27"/>
       <c r="M28" s="27"/>
       <c r="N28" s="29">
-        <f t="shared" ref="N27:N29" si="11">(G28-F28)/F28</f>
+        <f t="shared" ref="N28:N29" si="13">(G28-F28)/F28</f>
         <v>0.80040281973816718</v>
       </c>
       <c r="O28" s="29">
-        <f t="shared" ref="O27:O29" si="12">(H28-G28)/G28</f>
+        <f t="shared" ref="O28:O29" si="14">(H28-G28)/G28</f>
         <v>-9.9563709587202148E-2</v>
       </c>
       <c r="P28" s="8"/>
     </row>
     <row r="29" spans="1:16" ht="30" customHeight="1">
-      <c r="A29" s="95" t="s">
+      <c r="A29" s="94" t="s">
         <v>11</v>
       </c>
       <c r="B29" s="44">
@@ -9320,67 +10090,67 @@
         <v>15122</v>
       </c>
       <c r="C29" s="44">
-        <f t="shared" ref="C29:E29" si="13">SUM(C26:C28)</f>
+        <f t="shared" ref="C29:E29" si="15">SUM(C26:C28)</f>
         <v>18391</v>
       </c>
       <c r="D29" s="44">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>24780</v>
       </c>
       <c r="E29" s="44">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>27946</v>
       </c>
       <c r="F29" s="44">
         <f>SUM(F26:F28)</f>
         <v>34404</v>
       </c>
-      <c r="G29" s="96">
+      <c r="G29" s="95">
         <f>SUM(G26:G28)</f>
         <v>50316</v>
       </c>
-      <c r="H29" s="96">
-        <f t="shared" ref="H29" si="14">SUM(H26:H28)</f>
+      <c r="H29" s="95">
+        <f t="shared" ref="H29" si="16">SUM(H26:H28)</f>
         <v>54076</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="29">
-        <f t="shared" ref="J27:J29" si="15">(C29-B29)/B29</f>
+        <f t="shared" ref="J29" si="17">(C29-B29)/B29</f>
         <v>0.21617510911255125</v>
       </c>
       <c r="K29" s="29">
-        <f t="shared" ref="K27:K29" si="16">(D29-C29)/C29</f>
+        <f t="shared" ref="K29" si="18">(D29-C29)/C29</f>
         <v>0.34739818389429611</v>
       </c>
       <c r="L29" s="29">
-        <f t="shared" ref="L27:L29" si="17">(E29-D29)/D29</f>
+        <f t="shared" ref="L29" si="19">(E29-D29)/D29</f>
         <v>0.12776432606941082</v>
       </c>
       <c r="M29" s="29">
-        <f t="shared" ref="M27:M29" si="18">(F29-E29)/E29</f>
+        <f t="shared" ref="M29" si="20">(F29-E29)/E29</f>
         <v>0.23108852787518785</v>
       </c>
       <c r="N29" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.46250435995814443</v>
       </c>
       <c r="O29" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>7.4727720804515466E-2</v>
       </c>
       <c r="P29" s="8"/>
     </row>
     <row r="30" spans="1:16" ht="19.5" customHeight="1">
       <c r="A30" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="B30" s="86"/>
+        <v>144</v>
+      </c>
+      <c r="B30" s="85"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="91"/>
-      <c r="H30" s="91"/>
+      <c r="G30" s="90"/>
+      <c r="H30" s="90"/>
       <c r="I30" s="8"/>
       <c r="P30" s="8"/>
     </row>
@@ -9393,14 +10163,14 @@
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
       <c r="F31" s="18"/>
-      <c r="G31" s="94"/>
-      <c r="H31" s="94"/>
+      <c r="G31" s="93"/>
+      <c r="H31" s="93"/>
     </row>
     <row r="32" spans="1:16" ht="25.5" customHeight="1">
       <c r="A32" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="B32" s="86" t="s">
+        <v>152</v>
+      </c>
+      <c r="B32" s="85" t="s">
         <v>55</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -9415,10 +10185,10 @@
       <c r="F32" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G32" s="91" t="s">
+      <c r="G32" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="H32" s="91" t="s">
+      <c r="H32" s="90" t="s">
         <v>47</v>
       </c>
       <c r="I32" s="8"/>
@@ -9426,9 +10196,9 @@
     </row>
     <row r="33" spans="1:16" ht="23.25">
       <c r="A33" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="B33" s="86" t="s">
+        <v>153</v>
+      </c>
+      <c r="B33" s="85" t="s">
         <v>55</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -9443,10 +10213,10 @@
       <c r="F33" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G33" s="91" t="s">
+      <c r="G33" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="H33" s="91" t="s">
+      <c r="H33" s="90" t="s">
         <v>47</v>
       </c>
       <c r="I33" s="8"/>
@@ -9456,7 +10226,7 @@
       <c r="A34" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="86" t="s">
+      <c r="B34" s="85" t="s">
         <v>55</v>
       </c>
       <c r="C34" s="2">
@@ -9471,10 +10241,10 @@
       <c r="F34" s="2">
         <v>-6872</v>
       </c>
-      <c r="G34" s="91">
+      <c r="G34" s="90">
         <v>-8507</v>
       </c>
-      <c r="H34" s="91">
+      <c r="H34" s="90">
         <v>-11880</v>
       </c>
       <c r="I34" s="8"/>
@@ -9483,28 +10253,28 @@
         <v>-1.0110552763819096</v>
       </c>
       <c r="L34" s="29">
-        <f t="shared" ref="L34:O34" si="19">(E34-D34)/ABS(D34)</f>
+        <f t="shared" ref="L34:O34" si="21">(E34-D34)/ABS(D34)</f>
         <v>-1.7541229385307346</v>
       </c>
       <c r="M34" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>-0.24696062420613318</v>
       </c>
       <c r="N34" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>-0.2379220023282887</v>
       </c>
       <c r="O34" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>-0.39649700246855529</v>
       </c>
       <c r="P34" s="8"/>
     </row>
     <row r="35" spans="1:16" ht="23.25">
       <c r="A35" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="B35" s="86">
+        <v>145</v>
+      </c>
+      <c r="B35" s="85">
         <v>13100</v>
       </c>
       <c r="C35" s="2">
@@ -9519,10 +10289,10 @@
       <c r="F35" s="2">
         <v>15588</v>
       </c>
-      <c r="G35" s="91">
+      <c r="G35" s="90">
         <v>16644</v>
       </c>
-      <c r="H35" s="91">
+      <c r="H35" s="90">
         <v>17208</v>
       </c>
       <c r="I35" s="8"/>
@@ -9531,30 +10301,30 @@
         <v>3.6564885496183204E-2</v>
       </c>
       <c r="K35" s="29">
-        <f t="shared" ref="K35:O35" si="20">(D35-C35)/C35</f>
+        <f t="shared" ref="K35:O35" si="22">(D35-C35)/C35</f>
         <v>5.4127697179468297E-2</v>
       </c>
       <c r="L35" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>4.3663546178566437E-2</v>
       </c>
       <c r="M35" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>4.3443336234018338E-2</v>
       </c>
       <c r="N35" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>6.7744418783679747E-2</v>
       </c>
       <c r="O35" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>3.3886085075702954E-2</v>
       </c>
       <c r="P35" s="8"/>
     </row>
     <row r="36" spans="1:16" ht="29.25" customHeight="1">
-      <c r="A36" s="97" t="s">
-        <v>130</v>
+      <c r="A36" s="96" t="s">
+        <v>129</v>
       </c>
       <c r="B36" s="44">
         <v>668</v>
@@ -9571,10 +10341,10 @@
       <c r="F36" s="11">
         <v>8342</v>
       </c>
-      <c r="G36" s="96">
+      <c r="G36" s="95">
         <v>12366</v>
       </c>
-      <c r="H36" s="96">
+      <c r="H36" s="95">
         <v>16535</v>
       </c>
       <c r="I36" s="8"/>
@@ -9583,32 +10353,32 @@
         <v>2.0973053892215567</v>
       </c>
       <c r="K36" s="29">
-        <f t="shared" ref="K36:O36" si="21">(D36-C36)/C36</f>
+        <f t="shared" ref="K36:O36" si="23">(D36-C36)/C36</f>
         <v>0.84775253745770907</v>
       </c>
       <c r="L36" s="29">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.53805911587758304</v>
       </c>
       <c r="M36" s="29">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.41870748299319727</v>
       </c>
       <c r="N36" s="29">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.48237832654039797</v>
       </c>
       <c r="O36" s="29">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.33713407730874978</v>
       </c>
       <c r="P36" s="8"/>
     </row>
     <row r="37" spans="1:16" ht="23.25">
       <c r="A37" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="B37" s="86">
+        <v>146</v>
+      </c>
+      <c r="B37" s="85">
         <v>-9</v>
       </c>
       <c r="C37" s="2">
@@ -9623,10 +10393,10 @@
       <c r="F37" s="2">
         <v>-173</v>
       </c>
-      <c r="G37" s="91">
+      <c r="G37" s="90">
         <v>-484</v>
       </c>
-      <c r="H37" s="91">
+      <c r="H37" s="90">
         <v>-136</v>
       </c>
       <c r="I37" s="8"/>
@@ -9640,34 +10410,34 @@
     </row>
     <row r="38" spans="1:16" ht="21.75" customHeight="1">
       <c r="A38" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="B38" s="86">
+        <v>147</v>
+      </c>
+      <c r="B38" s="85">
         <f>SUM(B34:B37)</f>
         <v>13759</v>
       </c>
-      <c r="C38" s="86">
-        <f t="shared" ref="C38:F38" si="22">SUM(C34:C37)</f>
+      <c r="C38" s="85">
+        <f t="shared" ref="C38:F38" si="24">SUM(C34:C37)</f>
         <v>14712</v>
       </c>
-      <c r="D38" s="86">
-        <f t="shared" si="22"/>
+      <c r="D38" s="85">
+        <f t="shared" si="24"/>
         <v>15994</v>
       </c>
-      <c r="E38" s="86">
-        <f t="shared" si="22"/>
+      <c r="E38" s="85">
+        <f t="shared" si="24"/>
         <v>15386</v>
       </c>
-      <c r="F38" s="86">
-        <f t="shared" si="22"/>
+      <c r="F38" s="85">
+        <f t="shared" si="24"/>
         <v>16885</v>
       </c>
-      <c r="G38" s="91">
+      <c r="G38" s="90">
         <f>SUM(G34:G37)</f>
         <v>20019</v>
       </c>
-      <c r="H38" s="91">
-        <f t="shared" ref="H38" si="23">SUM(H34:H37)</f>
+      <c r="H38" s="90">
+        <f t="shared" ref="H38" si="25">SUM(H34:H37)</f>
         <v>21727</v>
       </c>
       <c r="I38" s="8"/>
@@ -9680,10 +10450,10 @@
       <c r="P38" s="8"/>
     </row>
     <row r="39" spans="1:16" ht="23.25">
-      <c r="A39" s="87" t="s">
-        <v>149</v>
-      </c>
-      <c r="B39" s="86" t="s">
+      <c r="A39" s="86" t="s">
+        <v>148</v>
+      </c>
+      <c r="B39" s="85" t="s">
         <v>55</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -9698,10 +10468,10 @@
       <c r="F39" s="2">
         <v>44</v>
       </c>
-      <c r="G39" s="91">
+      <c r="G39" s="90">
         <v>44</v>
       </c>
-      <c r="H39" s="91" t="s">
+      <c r="H39" s="90" t="s">
         <v>47</v>
       </c>
       <c r="I39" s="8"/>
@@ -9714,7 +10484,7 @@
       <c r="P39" s="8"/>
     </row>
     <row r="40" spans="1:16" ht="31.5" customHeight="1">
-      <c r="A40" s="95" t="s">
+      <c r="A40" s="94" t="s">
         <v>13</v>
       </c>
       <c r="B40" s="44">
@@ -9722,58 +10492,58 @@
         <v>13759</v>
       </c>
       <c r="C40" s="44">
-        <f t="shared" ref="C40:F40" si="24">SUM(C38:C39)</f>
+        <f t="shared" ref="C40:F40" si="26">SUM(C38:C39)</f>
         <v>14712</v>
       </c>
       <c r="D40" s="44">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>15994</v>
       </c>
       <c r="E40" s="44">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>15386</v>
       </c>
       <c r="F40" s="44">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>16929</v>
       </c>
-      <c r="G40" s="96">
+      <c r="G40" s="95">
         <f>SUM(G38:G39)</f>
         <v>20063</v>
       </c>
-      <c r="H40" s="96">
-        <f t="shared" ref="H40" si="25">SUM(H38:H39)</f>
+      <c r="H40" s="95">
+        <f t="shared" ref="H40" si="27">SUM(H38:H39)</f>
         <v>21727</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="29">
-        <f t="shared" ref="J37:J42" si="26">(C40-B40)/B40</f>
+        <f t="shared" ref="J40:J41" si="28">(C40-B40)/B40</f>
         <v>6.9263754633330912E-2</v>
       </c>
       <c r="K40" s="29">
-        <f t="shared" ref="K37:K42" si="27">(D40-C40)/C40</f>
+        <f t="shared" ref="K40:K42" si="29">(D40-C40)/C40</f>
         <v>8.7139749864056551E-2</v>
       </c>
       <c r="L40" s="29">
-        <f t="shared" ref="L37:L42" si="28">(E40-D40)/D40</f>
+        <f t="shared" ref="L40:L42" si="30">(E40-D40)/D40</f>
         <v>-3.8014255345754658E-2</v>
       </c>
       <c r="M40" s="29">
-        <f t="shared" ref="M37:M42" si="29">(F40-E40)/E40</f>
+        <f t="shared" ref="M40:M42" si="31">(F40-E40)/E40</f>
         <v>0.10028597426231639</v>
       </c>
       <c r="N40" s="29">
-        <f t="shared" ref="N37:N42" si="30">(G40-F40)/F40</f>
+        <f t="shared" ref="N40:N42" si="32">(G40-F40)/F40</f>
         <v>0.18512611495067635</v>
       </c>
       <c r="O40" s="29">
-        <f t="shared" ref="O37:O42" si="31">(H40-G40)/G40</f>
+        <f t="shared" ref="O40:O42" si="33">(H40-G40)/G40</f>
         <v>8.2938742959677014E-2</v>
       </c>
       <c r="P40" s="8"/>
     </row>
     <row r="41" spans="1:16" ht="31.5" customHeight="1">
-      <c r="A41" s="95" t="s">
+      <c r="A41" s="94" t="s">
         <v>14</v>
       </c>
       <c r="B41" s="44">
@@ -9781,86 +10551,86 @@
         <v>28881</v>
       </c>
       <c r="C41" s="44">
-        <f t="shared" ref="C41:F41" si="32">C40+C29</f>
+        <f t="shared" ref="C41:F41" si="34">C40+C29</f>
         <v>33103</v>
       </c>
       <c r="D41" s="44">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>40774</v>
       </c>
       <c r="E41" s="44">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>43332</v>
       </c>
       <c r="F41" s="44">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>51333</v>
       </c>
-      <c r="G41" s="96">
+      <c r="G41" s="95">
         <f>G40+G29</f>
         <v>70379</v>
       </c>
-      <c r="H41" s="96">
-        <f t="shared" ref="H41" si="33">H40+H29</f>
+      <c r="H41" s="95">
+        <f t="shared" ref="H41" si="35">H40+H29</f>
         <v>75803</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="29">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.14618607388940827</v>
       </c>
       <c r="K41" s="29">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.23173126302752017</v>
       </c>
       <c r="L41" s="29">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>6.2736057291411199E-2</v>
       </c>
       <c r="M41" s="29">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.18464414289670453</v>
       </c>
       <c r="N41" s="29">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.37102838330119026</v>
       </c>
       <c r="O41" s="29">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>7.7068443711902704E-2</v>
       </c>
       <c r="P41" s="8"/>
     </row>
     <row r="42" spans="1:16">
-      <c r="A42" s="98" t="s">
-        <v>135</v>
-      </c>
-      <c r="B42" s="100">
+      <c r="A42" s="97" t="s">
+        <v>134</v>
+      </c>
+      <c r="B42" s="99">
         <f>B11/B26</f>
         <v>1.5163398692810457</v>
       </c>
-      <c r="C42" s="100">
-        <f t="shared" ref="C42:H42" si="34">C11/C26</f>
+      <c r="C42" s="99">
+        <f t="shared" ref="C42:H42" si="36">C11/C26</f>
         <v>1.5246474700793933</v>
       </c>
-      <c r="D42" s="100">
-        <f t="shared" si="34"/>
+      <c r="D42" s="99">
+        <f t="shared" si="36"/>
         <v>1.4278528627039322</v>
       </c>
-      <c r="E42" s="100">
-        <f t="shared" si="34"/>
+      <c r="E42" s="99">
+        <f t="shared" si="36"/>
         <v>1.2725061766522545</v>
       </c>
-      <c r="F42" s="100">
-        <f t="shared" si="34"/>
+      <c r="F42" s="99">
+        <f t="shared" si="36"/>
         <v>1.4300308332404621</v>
       </c>
-      <c r="G42" s="100">
-        <f t="shared" si="34"/>
+      <c r="G42" s="99">
+        <f t="shared" si="36"/>
         <v>1.3263713683772467</v>
       </c>
-      <c r="H42" s="100">
-        <f t="shared" si="34"/>
+      <c r="H42" s="99">
+        <f t="shared" si="36"/>
         <v>1.2218271398359246</v>
       </c>
       <c r="I42" s="8"/>
@@ -9869,71 +10639,71 @@
         <v>5.4787194920137066E-3</v>
       </c>
       <c r="K42" s="29">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>-6.3486549694284855E-2</v>
       </c>
       <c r="L42" s="29">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>-0.10879740490732139</v>
       </c>
       <c r="M42" s="29">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.12379087777996327</v>
       </c>
       <c r="N42" s="29">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>-7.2487573312193687E-2</v>
       </c>
       <c r="O42" s="29">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>-7.8819726536488069E-2</v>
       </c>
       <c r="P42" s="8"/>
     </row>
     <row r="43" spans="1:16">
-      <c r="A43" s="98" t="s">
-        <v>136</v>
-      </c>
-      <c r="B43" s="99"/>
-      <c r="C43" s="99"/>
-      <c r="D43" s="99"/>
-      <c r="E43" s="99"/>
-      <c r="F43" s="99"/>
-      <c r="G43" s="99"/>
-      <c r="H43" s="99"/>
+      <c r="A43" s="97" t="s">
+        <v>135</v>
+      </c>
+      <c r="B43" s="98"/>
+      <c r="C43" s="98"/>
+      <c r="D43" s="98"/>
+      <c r="E43" s="98"/>
+      <c r="F43" s="98"/>
+      <c r="G43" s="98"/>
+      <c r="H43" s="98"/>
       <c r="I43" s="8"/>
       <c r="P43" s="8"/>
     </row>
     <row r="44" spans="1:16">
-      <c r="A44" s="98" t="s">
-        <v>137</v>
-      </c>
-      <c r="B44" s="100">
+      <c r="A44" s="97" t="s">
+        <v>136</v>
+      </c>
+      <c r="B44" s="99">
         <f>B29/B40</f>
         <v>1.0990624318627806</v>
       </c>
-      <c r="C44" s="100">
-        <f t="shared" ref="C44:H44" si="35">C29/C40</f>
+      <c r="C44" s="99">
+        <f t="shared" ref="C44:H44" si="37">C29/C40</f>
         <v>1.2500679717237628</v>
       </c>
-      <c r="D44" s="100">
-        <f t="shared" si="35"/>
+      <c r="D44" s="99">
+        <f t="shared" si="37"/>
         <v>1.5493309991246718</v>
       </c>
-      <c r="E44" s="100">
-        <f t="shared" si="35"/>
+      <c r="E44" s="99">
+        <f t="shared" si="37"/>
         <v>1.8163265306122449</v>
       </c>
-      <c r="F44" s="100">
-        <f t="shared" si="35"/>
+      <c r="F44" s="99">
+        <f t="shared" si="37"/>
         <v>2.0322523480418218</v>
       </c>
-      <c r="G44" s="100">
-        <f t="shared" si="35"/>
+      <c r="G44" s="99">
+        <f t="shared" si="37"/>
         <v>2.5079001146388875</v>
       </c>
-      <c r="H44" s="100">
-        <f t="shared" si="35"/>
+      <c r="H44" s="99">
+        <f t="shared" si="37"/>
         <v>2.4888847977171262</v>
       </c>
       <c r="I44" s="8"/>
@@ -9942,102 +10712,303 @@
         <v>0.13739486992112512</v>
       </c>
       <c r="K44" s="29">
-        <f t="shared" ref="K44:O44" si="36">(D44-C44)/C44</f>
+        <f t="shared" ref="K44:O44" si="38">(D44-C44)/C44</f>
         <v>0.23939740411734939</v>
       </c>
       <c r="L44" s="29">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.17232956136449737</v>
       </c>
       <c r="M44" s="29">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.11888050622527264</v>
       </c>
       <c r="N44" s="29">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.2340495593745415</v>
       </c>
       <c r="O44" s="29">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>-7.5821667740141631E-3</v>
       </c>
       <c r="P44" s="8"/>
     </row>
     <row r="45" spans="1:16">
-      <c r="A45" s="98" t="s">
-        <v>138</v>
-      </c>
-      <c r="B45" s="99"/>
-      <c r="C45" s="99"/>
-      <c r="D45" s="99"/>
-      <c r="E45" s="99"/>
-      <c r="F45" s="99"/>
-      <c r="G45" s="99"/>
-      <c r="H45" s="99"/>
-    </row>
-    <row r="46" spans="1:16" ht="16.5">
-      <c r="A46"/>
-    </row>
-    <row r="47" spans="1:16">
-      <c r="A47" s="10" t="s">
+      <c r="A45" s="97" t="s">
+        <v>137</v>
+      </c>
+      <c r="B45" s="98"/>
+      <c r="C45" s="98"/>
+      <c r="D45" s="98"/>
+      <c r="E45" s="98"/>
+      <c r="F45" s="98"/>
+      <c r="G45" s="98"/>
+      <c r="H45" s="98"/>
+      <c r="I45" s="8"/>
+      <c r="P45" s="8"/>
+    </row>
+    <row r="46" spans="1:16" ht="28.5" customHeight="1">
+      <c r="A46" s="102" t="s">
+        <v>155</v>
+      </c>
+      <c r="B46" s="87"/>
+      <c r="C46" s="103">
+        <f>INCOME成長性!C2/(('BALANCE SHEET穩定性'!C6+'BALANCE SHEET穩定性'!B6)*0.5)</f>
+        <v>61.777777777777779</v>
+      </c>
+      <c r="D46" s="103">
+        <f>INCOME成長性!D2/(('BALANCE SHEET穩定性'!D6+'BALANCE SHEET穩定性'!C6)*0.5)</f>
+        <v>52.692152917505027</v>
+      </c>
+      <c r="E46" s="103">
+        <f>INCOME成長性!E2/(('BALANCE SHEET穩定性'!E6+'BALANCE SHEET穩定性'!D6)*0.5)</f>
+        <v>51.848993288590606</v>
+      </c>
+      <c r="F46" s="103">
+        <f>INCOME成長性!F2/(('BALANCE SHEET穩定性'!F6+'BALANCE SHEET穩定性'!E6)*0.5)</f>
+        <v>47.518716577540104</v>
+      </c>
+      <c r="G46" s="103">
+        <f>INCOME成長性!G2/(('BALANCE SHEET穩定性'!G6+'BALANCE SHEET穩定性'!F6)*0.5)</f>
+        <v>42.399209486166008</v>
+      </c>
+      <c r="H46" s="103">
+        <f>INCOME成長性!H2/(('BALANCE SHEET穩定性'!H6+'BALANCE SHEET穩定性'!G6)*0.5)</f>
+        <v>36.849673202614376</v>
+      </c>
+      <c r="I46" s="8"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="29"/>
+      <c r="M46" s="29"/>
+      <c r="N46" s="29"/>
+      <c r="O46" s="29"/>
+      <c r="P46" s="8"/>
+    </row>
+    <row r="47" spans="1:16" ht="28.5" customHeight="1">
+      <c r="A47" s="102" t="s">
+        <v>156</v>
+      </c>
+      <c r="B47" s="87"/>
+      <c r="C47" s="103"/>
+      <c r="D47" s="103"/>
+      <c r="E47" s="103"/>
+      <c r="F47" s="103"/>
+      <c r="G47" s="103"/>
+      <c r="H47" s="103"/>
+      <c r="I47" s="8"/>
+      <c r="K47" s="27"/>
+      <c r="P47" s="8"/>
+    </row>
+    <row r="48" spans="1:16" ht="27" customHeight="1">
+      <c r="A48" s="102" t="s">
+        <v>157</v>
+      </c>
+      <c r="B48" s="87"/>
+      <c r="C48" s="103">
+        <f>INCOME成長性!C4/(('BALANCE SHEET穩定性'!C20+'BALANCE SHEET穩定性'!B20)*0.5)</f>
+        <v>19.857566765578635</v>
+      </c>
+      <c r="D48" s="103">
+        <f>INCOME成長性!D4/(('BALANCE SHEET穩定性'!D20+'BALANCE SHEET穩定性'!C20)*0.5)</f>
+        <v>19.683741648106903</v>
+      </c>
+      <c r="E48" s="103">
+        <f>INCOME成長性!E4/(('BALANCE SHEET穩定性'!E20+'BALANCE SHEET穩定性'!D20)*0.5)</f>
+        <v>20.74721189591078</v>
+      </c>
+      <c r="F48" s="103">
+        <f>INCOME成長性!F4/(('BALANCE SHEET穩定性'!F20+'BALANCE SHEET穩定性'!E20)*0.5)</f>
+        <v>26.471734892787524</v>
+      </c>
+      <c r="G48" s="103">
+        <f>INCOME成長性!G4/(('BALANCE SHEET穩定性'!G20+'BALANCE SHEET穩定性'!F20)*0.5)</f>
+        <v>32.785123966942152</v>
+      </c>
+      <c r="H48" s="103">
+        <f>INCOME成長性!H4/(('BALANCE SHEET穩定性'!H20+'BALANCE SHEET穩定性'!G20)*0.5)</f>
+        <v>45.946547884187083</v>
+      </c>
+      <c r="I48" s="8"/>
+      <c r="J48" s="29"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="29"/>
+      <c r="M48" s="29"/>
+      <c r="N48" s="29"/>
+      <c r="O48" s="29"/>
+      <c r="P48" s="8"/>
+    </row>
+    <row r="49" spans="1:16" ht="27" customHeight="1">
+      <c r="A49" s="97" t="s">
+        <v>158</v>
+      </c>
+      <c r="B49" s="98"/>
+      <c r="C49" s="101">
+        <f>365/C46</f>
+        <v>5.9082733812949639</v>
+      </c>
+      <c r="D49" s="101">
+        <f t="shared" ref="D49:H49" si="39">365/D46</f>
+        <v>6.927027646250191</v>
+      </c>
+      <c r="E49" s="101">
+        <f t="shared" si="39"/>
+        <v>7.0396738075205487</v>
+      </c>
+      <c r="F49" s="101">
+        <f t="shared" si="39"/>
+        <v>7.6811838847625484</v>
+      </c>
+      <c r="G49" s="101">
+        <f t="shared" si="39"/>
+        <v>8.6086510674000181</v>
+      </c>
+      <c r="H49" s="101">
+        <f t="shared" si="39"/>
+        <v>9.9051081943951758</v>
+      </c>
+      <c r="I49" s="8"/>
+      <c r="J49" s="29"/>
+      <c r="K49" s="29">
+        <f>(D49-C49)/C49</f>
+        <v>0.17242842353580098</v>
+      </c>
+      <c r="L49" s="29">
+        <f t="shared" ref="L49:O49" si="40">(E49-D49)/D49</f>
+        <v>1.6261832206103079E-2</v>
+      </c>
+      <c r="M49" s="29">
+        <f t="shared" si="40"/>
+        <v>9.1127812847900502E-2</v>
+      </c>
+      <c r="N49" s="29">
+        <f t="shared" si="40"/>
+        <v>0.12074534297731382</v>
+      </c>
+      <c r="O49" s="29">
+        <f t="shared" si="40"/>
+        <v>0.15059933511589213</v>
+      </c>
+      <c r="P49" s="8"/>
+    </row>
+    <row r="50" spans="1:16" ht="27" customHeight="1">
+      <c r="A50" s="97" t="s">
+        <v>159</v>
+      </c>
+      <c r="B50" s="98"/>
+      <c r="C50" s="101"/>
+      <c r="D50" s="101"/>
+      <c r="E50" s="101"/>
+      <c r="F50" s="101"/>
+      <c r="G50" s="101"/>
+      <c r="H50" s="101"/>
+      <c r="I50" s="8"/>
+      <c r="P50" s="8"/>
+    </row>
+    <row r="51" spans="1:16" ht="27" customHeight="1">
+      <c r="A51" s="97" t="s">
+        <v>160</v>
+      </c>
+      <c r="B51" s="98"/>
+      <c r="C51" s="101">
+        <f t="shared" ref="C51:H51" si="41">365/C48</f>
+        <v>18.380902570233115</v>
+      </c>
+      <c r="D51" s="101">
+        <f t="shared" si="41"/>
+        <v>18.543222448517767</v>
+      </c>
+      <c r="E51" s="101">
+        <f t="shared" si="41"/>
+        <v>17.59272531804336</v>
+      </c>
+      <c r="F51" s="101">
+        <f t="shared" si="41"/>
+        <v>13.788291605301914</v>
+      </c>
+      <c r="G51" s="101">
+        <f t="shared" si="41"/>
+        <v>11.133098058986638</v>
+      </c>
+      <c r="H51" s="101">
+        <f t="shared" si="41"/>
+        <v>7.9440135724672807</v>
+      </c>
+      <c r="I51" s="8"/>
+      <c r="J51" s="29"/>
+      <c r="K51" s="29">
+        <f>(D51-C51)/C51</f>
+        <v>8.8308981381317233E-3</v>
+      </c>
+      <c r="L51" s="29">
+        <f t="shared" ref="L51:O51" si="42">(E51-D51)/D51</f>
+        <v>-5.1258465626096379E-2</v>
+      </c>
+      <c r="M51" s="29">
+        <f t="shared" si="42"/>
+        <v>-0.21625039008820096</v>
+      </c>
+      <c r="N51" s="29">
+        <f t="shared" si="42"/>
+        <v>-0.19256871136191328</v>
+      </c>
+      <c r="O51" s="29">
+        <f t="shared" si="42"/>
+        <v>-0.28645076775777861</v>
+      </c>
+      <c r="P51" s="8"/>
+    </row>
+    <row r="52" spans="1:16" ht="21.75" customHeight="1">
+      <c r="A52"/>
+      <c r="C52" s="100"/>
+      <c r="D52" s="100"/>
+      <c r="E52" s="100"/>
+      <c r="F52" s="100"/>
+      <c r="G52" s="100"/>
+      <c r="H52" s="100"/>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="A53" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
-      <c r="A48" s="10" t="s">
+    <row r="54" spans="1:16">
+      <c r="A54" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="10" t="s">
+    <row r="55" spans="1:16">
+      <c r="A55" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="10" t="s">
+    <row r="56" spans="1:16">
+      <c r="A56" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="16.5">
-      <c r="A51"/>
-    </row>
-    <row r="52" spans="1:1" ht="16.5">
-      <c r="A52"/>
-    </row>
-    <row r="53" spans="1:1" ht="16.5">
-      <c r="A53"/>
-    </row>
-    <row r="54" spans="1:1" ht="16.5">
-      <c r="A54"/>
-    </row>
-    <row r="55" spans="1:1" ht="16.5">
-      <c r="A55"/>
-    </row>
-    <row r="56" spans="1:1" ht="16.5">
-      <c r="A56"/>
-    </row>
-    <row r="57" spans="1:1" ht="16.5">
+    <row r="57" spans="1:16" ht="16.5">
       <c r="A57"/>
     </row>
-    <row r="58" spans="1:1" ht="16.5">
+    <row r="58" spans="1:16" ht="16.5">
       <c r="A58"/>
     </row>
-    <row r="59" spans="1:1" ht="16.5">
+    <row r="59" spans="1:16" ht="16.5">
       <c r="A59"/>
     </row>
-    <row r="60" spans="1:1" ht="16.5">
+    <row r="60" spans="1:16" ht="16.5">
       <c r="A60"/>
     </row>
-    <row r="61" spans="1:1" ht="16.5">
+    <row r="61" spans="1:16" ht="16.5">
       <c r="A61"/>
     </row>
-    <row r="62" spans="1:1" ht="16.5">
+    <row r="62" spans="1:16" ht="16.5">
       <c r="A62"/>
     </row>
-    <row r="63" spans="1:1" ht="16.5">
+    <row r="63" spans="1:16" ht="16.5">
       <c r="A63"/>
     </row>
-    <row r="64" spans="1:1" ht="16.5">
+    <row r="64" spans="1:16" ht="16.5">
       <c r="A64"/>
     </row>
     <row r="65" spans="1:1" ht="16.5">
@@ -10052,7 +11023,7 @@
     <row r="68" spans="1:1" ht="16.5">
       <c r="A68"/>
     </row>
-    <row r="69" spans="1:1" ht="16.5" customHeight="1">
+    <row r="69" spans="1:1" ht="16.5">
       <c r="A69"/>
     </row>
     <row r="70" spans="1:1" ht="16.5">
@@ -10070,7 +11041,7 @@
     <row r="74" spans="1:1" ht="16.5">
       <c r="A74"/>
     </row>
-    <row r="75" spans="1:1" ht="16.5">
+    <row r="75" spans="1:1" ht="16.5" customHeight="1">
       <c r="A75"/>
     </row>
     <row r="76" spans="1:1" ht="16.5">
@@ -10924,56 +11895,98 @@
     </row>
     <row r="359" spans="1:1" ht="16.5">
       <c r="A359"/>
+    </row>
+    <row r="360" spans="1:1" ht="16.5">
+      <c r="A360"/>
+    </row>
+    <row r="361" spans="1:1" ht="16.5">
+      <c r="A361"/>
+    </row>
+    <row r="362" spans="1:1" ht="16.5">
+      <c r="A362"/>
+    </row>
+    <row r="363" spans="1:1" ht="16.5">
+      <c r="A363"/>
+    </row>
+    <row r="364" spans="1:1" ht="16.5">
+      <c r="A364"/>
+    </row>
+    <row r="365" spans="1:1" ht="16.5">
+      <c r="A365"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J11:O11">
-    <cfRule type="top10" dxfId="23" priority="23" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="22" priority="24" rank="1"/>
+    <cfRule type="top10" dxfId="57" priority="35" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="56" priority="36" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17:O17">
-    <cfRule type="top10" dxfId="21" priority="21" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="20" priority="22" rank="1"/>
+    <cfRule type="top10" dxfId="55" priority="33" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="54" priority="34" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26:O26">
-    <cfRule type="top10" dxfId="19" priority="19" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="18" priority="20" rank="1"/>
+    <cfRule type="top10" dxfId="53" priority="31" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="52" priority="32" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N28:O28">
-    <cfRule type="top10" dxfId="17" priority="17" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="16" priority="18" rank="1"/>
+    <cfRule type="top10" dxfId="51" priority="29" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="50" priority="30" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29:O29">
-    <cfRule type="top10" dxfId="15" priority="15" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="14" priority="16" rank="1"/>
+    <cfRule type="top10" dxfId="49" priority="27" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="48" priority="28" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J36:O36">
-    <cfRule type="top10" dxfId="13" priority="13" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="12" priority="14" rank="1"/>
+    <cfRule type="top10" dxfId="47" priority="25" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="46" priority="26" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J40:O40">
-    <cfRule type="top10" dxfId="11" priority="11" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="10" priority="12" rank="1"/>
+    <cfRule type="top10" dxfId="45" priority="23" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="44" priority="24" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J41:O41">
-    <cfRule type="top10" dxfId="9" priority="9" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="8" priority="10" rank="1"/>
+    <cfRule type="top10" dxfId="43" priority="21" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="42" priority="22" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J42:O42">
-    <cfRule type="top10" dxfId="7" priority="7" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="6" priority="8" rank="1"/>
+    <cfRule type="top10" dxfId="41" priority="19" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="40" priority="20" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J44:O44">
-    <cfRule type="top10" dxfId="5" priority="5" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="4" priority="6" rank="1"/>
+    <cfRule type="top10" dxfId="39" priority="17" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="38" priority="18" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34:O34">
-    <cfRule type="top10" dxfId="3" priority="3" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="2" priority="4" rank="1"/>
+    <cfRule type="top10" dxfId="37" priority="15" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="36" priority="16" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J35:O35">
-    <cfRule type="top10" dxfId="1" priority="1" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="0" priority="2" rank="1"/>
+    <cfRule type="top10" dxfId="35" priority="13" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="34" priority="14" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J46:O46">
+    <cfRule type="top10" dxfId="33" priority="11" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="32" priority="12" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J48:O48">
+    <cfRule type="top10" dxfId="31" priority="9" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="30" priority="10" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J49:O49">
+    <cfRule type="top10" dxfId="9" priority="7" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="8" priority="8" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J51:O51">
+    <cfRule type="top10" dxfId="15" priority="5" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="14" priority="6" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6:O6">
+    <cfRule type="top10" dxfId="7" priority="3" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="6" priority="4" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20:O20">
+    <cfRule type="top10" dxfId="5" priority="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="4" priority="2" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10981,67 +11994,127 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" high="1" low="1">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
           <x14:colorMarkers rgb="FF0070C0"/>
           <x14:colorFirst rgb="FFFFC000"/>
           <x14:colorLast rgb="FFFFC000"/>
-          <x14:colorHigh rgb="FFFF0000"/>
-          <x14:colorLow rgb="FF00B050"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J34:O34</xm:f>
-              <xm:sqref>P34</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!B11:H11</xm:f>
+              <xm:sqref>I11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B17:H17</xm:f>
+              <xm:sqref>I17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B18:H18</xm:f>
+              <xm:sqref>I18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B19:H19</xm:f>
+              <xm:sqref>I19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B26:H26</xm:f>
+              <xm:sqref>I26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B29:H29</xm:f>
+              <xm:sqref>I29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B30:H30</xm:f>
+              <xm:sqref>I30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B36:H36</xm:f>
+              <xm:sqref>I36</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B40:H40</xm:f>
+              <xm:sqref>I40</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B41:H41</xm:f>
+              <xm:sqref>I41</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B42:H42</xm:f>
+              <xm:sqref>I42</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B43:H43</xm:f>
+              <xm:sqref>I43</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B44:H44</xm:f>
+              <xm:sqref>I44</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B35:H35</xm:f>
+              <xm:sqref>I35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B34:H34</xm:f>
+              <xm:sqref>I34</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B45:H45</xm:f>
+              <xm:sqref>I45</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B46:H46</xm:f>
+              <xm:sqref>I46</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B47:H47</xm:f>
+              <xm:sqref>I47</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B48:H48</xm:f>
+              <xm:sqref>I48</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B49:H49</xm:f>
+              <xm:sqref>I49</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B50:H50</xm:f>
+              <xm:sqref>I50</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B51:H51</xm:f>
+              <xm:sqref>I51</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B6:H6</xm:f>
+              <xm:sqref>I6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B20:H20</xm:f>
+              <xm:sqref>I20</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" high="1" low="1">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
           <x14:colorMarkers rgb="FF0070C0"/>
           <x14:colorFirst rgb="FFFFC000"/>
           <x14:colorLast rgb="FFFFC000"/>
-          <x14:colorHigh rgb="FFFF0000"/>
-          <x14:colorLow rgb="FF00B050"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J29:O29</xm:f>
-              <xm:sqref>P29</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" high="1" low="1">
-          <x14:colorSeries rgb="FF00B050"/>
-          <x14:colorNegative rgb="FFFF0000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FF0070C0"/>
-          <x14:colorFirst rgb="FFFFC000"/>
-          <x14:colorLast rgb="FFFFC000"/>
-          <x14:colorHigh rgb="FFFF0000"/>
-          <x14:colorLow rgb="FF00B050"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J28:O28</xm:f>
-              <xm:sqref>P28</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" high="1" low="1">
-          <x14:colorSeries rgb="FF00B050"/>
-          <x14:colorNegative rgb="FFFF0000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FF0070C0"/>
-          <x14:colorFirst rgb="FFFFC000"/>
-          <x14:colorLast rgb="FFFFC000"/>
-          <x14:colorHigh rgb="FFFF0000"/>
-          <x14:colorLow rgb="FF00B050"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J26:O26</xm:f>
-              <xm:sqref>P26</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!F28:H28</xm:f>
+              <xm:sqref>I28</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -11175,93 +12248,117 @@
               <xm:f>'BALANCE SHEET穩定性'!J44:O44</xm:f>
               <xm:sqref>P44</xm:sqref>
             </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J45:O45</xm:f>
+              <xm:sqref>P45</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J46:O46</xm:f>
+              <xm:sqref>P46</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J47:O47</xm:f>
+              <xm:sqref>P47</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J48:O48</xm:f>
+              <xm:sqref>P48</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J49:O49</xm:f>
+              <xm:sqref>P49</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J50:O50</xm:f>
+              <xm:sqref>P50</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J51:O51</xm:f>
+              <xm:sqref>P51</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J10:O10</xm:f>
+              <xm:sqref>P10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J9:O9</xm:f>
+              <xm:sqref>P9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J8:O8</xm:f>
+              <xm:sqref>P8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J7:O7</xm:f>
+              <xm:sqref>P7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J6:O6</xm:f>
+              <xm:sqref>P6</xm:sqref>
+            </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" high="1" low="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
           <x14:colorMarkers rgb="FF0070C0"/>
           <x14:colorFirst rgb="FFFFC000"/>
           <x14:colorLast rgb="FFFFC000"/>
-          <x14:colorHigh rgb="FF00B050"/>
-          <x14:colorLow rgb="FFFF0000"/>
+          <x14:colorHigh rgb="FFFF0000"/>
+          <x14:colorLow rgb="FF00B050"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!F28:H28</xm:f>
-              <xm:sqref>I28</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!J26:O26</xm:f>
+              <xm:sqref>P26</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" high="1" low="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
           <x14:colorMarkers rgb="FF0070C0"/>
           <x14:colorFirst rgb="FFFFC000"/>
           <x14:colorLast rgb="FFFFC000"/>
-          <x14:colorHigh rgb="FF00B050"/>
-          <x14:colorLow rgb="FFFF0000"/>
+          <x14:colorHigh rgb="FFFF0000"/>
+          <x14:colorLow rgb="FF00B050"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B11:H11</xm:f>
-              <xm:sqref>I11</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!J28:O28</xm:f>
+              <xm:sqref>P28</xm:sqref>
             </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" high="1" low="1">
+          <x14:colorSeries rgb="FF00B050"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FFFF0000"/>
+          <x14:colorLow rgb="FF00B050"/>
+          <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B17:H17</xm:f>
-              <xm:sqref>I17</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!J29:O29</xm:f>
+              <xm:sqref>P29</xm:sqref>
             </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" high="1" low="1">
+          <x14:colorSeries rgb="FF00B050"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FFFF0000"/>
+          <x14:colorLow rgb="FF00B050"/>
+          <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B18:H18</xm:f>
-              <xm:sqref>I18</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B19:H19</xm:f>
-              <xm:sqref>I19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B26:H26</xm:f>
-              <xm:sqref>I26</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B29:H29</xm:f>
-              <xm:sqref>I29</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B30:H30</xm:f>
-              <xm:sqref>I30</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B36:H36</xm:f>
-              <xm:sqref>I36</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B40:H40</xm:f>
-              <xm:sqref>I40</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B41:H41</xm:f>
-              <xm:sqref>I41</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B42:H42</xm:f>
-              <xm:sqref>I42</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B43:H43</xm:f>
-              <xm:sqref>I43</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B44:H44</xm:f>
-              <xm:sqref>I44</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B35:H35</xm:f>
-              <xm:sqref>I35</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B34:H34</xm:f>
-              <xm:sqref>I34</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!J34:O34</xm:f>
+              <xm:sqref>P34</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -11273,10 +12370,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P56"/>
+  <dimension ref="A1:P1237"/>
   <sheetViews>
-    <sheetView zoomScale="63" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="8" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
@@ -11348,28 +12448,28 @@
       <c r="H2" s="69"/>
     </row>
     <row r="3" spans="1:16" ht="36" customHeight="1">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="66">
+      <c r="B3" s="105">
         <v>1228</v>
       </c>
-      <c r="C3" s="67">
+      <c r="C3" s="106">
         <v>1401</v>
       </c>
-      <c r="D3" s="67">
+      <c r="D3" s="106">
         <v>1795</v>
       </c>
-      <c r="E3" s="67">
+      <c r="E3" s="106">
         <v>2057</v>
       </c>
-      <c r="F3" s="67">
+      <c r="F3" s="106">
         <v>2459</v>
       </c>
-      <c r="G3" s="67">
+      <c r="G3" s="106">
         <v>4202</v>
       </c>
-      <c r="H3" s="67">
+      <c r="H3" s="106">
         <v>4169</v>
       </c>
       <c r="J3" s="27">
@@ -11541,7 +12641,7 @@
     </row>
     <row r="10" spans="1:16" ht="23.25">
       <c r="A10" s="62" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B10" s="58">
         <v>-40</v>
@@ -11628,10 +12728,34 @@
       <c r="H13" s="56">
         <v>-222</v>
       </c>
+      <c r="J13" s="27">
+        <f>ABS(C13-B13)/ABS(B13)</f>
+        <v>2.5</v>
+      </c>
+      <c r="K13" s="27">
+        <f t="shared" ref="K13:O13" si="1">ABS(D13-C13)/ABS(C13)</f>
+        <v>1.1558441558441559</v>
+      </c>
+      <c r="L13" s="27">
+        <f t="shared" si="1"/>
+        <v>5.916666666666667</v>
+      </c>
+      <c r="M13" s="27">
+        <f t="shared" si="1"/>
+        <v>1.0338983050847457</v>
+      </c>
+      <c r="N13" s="27">
+        <f>ABS(G13-F13)/ABS(F13)</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="O13" s="27">
+        <f t="shared" si="1"/>
+        <v>1.22</v>
+      </c>
     </row>
     <row r="14" spans="1:16" ht="23.25">
       <c r="A14" s="62" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B14" s="58">
         <v>14</v>
@@ -11787,7 +12911,7 @@
     </row>
     <row r="20" spans="1:15" ht="23.25">
       <c r="A20" s="62" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B20" s="58">
         <v>121</v>
@@ -11813,7 +12937,7 @@
     </row>
     <row r="21" spans="1:15" ht="23.25">
       <c r="A21" s="62" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B21" s="58">
         <v>-217</v>
@@ -11846,27 +12970,27 @@
         <v>2546</v>
       </c>
       <c r="C22" s="66">
-        <f t="shared" ref="C22:H22" si="1">SUM(C3:C21)</f>
+        <f t="shared" ref="C22:H22" si="2">SUM(C3:C21)</f>
         <v>3158</v>
       </c>
       <c r="D22" s="66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2531</v>
       </c>
       <c r="E22" s="66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5483</v>
       </c>
       <c r="F22" s="66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4071</v>
       </c>
       <c r="G22" s="66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5854</v>
       </c>
       <c r="H22" s="66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6340</v>
       </c>
       <c r="J22" s="27">
@@ -11874,23 +12998,23 @@
         <v>0.24037706205813039</v>
       </c>
       <c r="K22" s="27">
-        <f t="shared" ref="K22:O22" si="2">(D22-C22)/C22</f>
+        <f t="shared" ref="K22:O22" si="3">(D22-C22)/C22</f>
         <v>-0.19854338188727041</v>
       </c>
       <c r="L22" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1663374160410904</v>
       </c>
       <c r="M22" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.25752325369323364</v>
       </c>
       <c r="N22" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.43797592729059198</v>
       </c>
       <c r="O22" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.302015715749915E-2</v>
       </c>
     </row>
@@ -12064,7 +13188,7 @@
     </row>
     <row r="30" spans="1:15" ht="23.25">
       <c r="A30" s="62" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B30" s="58">
         <v>0</v>
@@ -12090,7 +13214,7 @@
     </row>
     <row r="31" spans="1:15" ht="23.25">
       <c r="A31" s="62" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B31" s="58">
         <v>575</v>
@@ -12123,27 +13247,27 @@
         <v>-6389</v>
       </c>
       <c r="C32" s="66">
-        <f t="shared" ref="C32:H32" si="3">SUM(C24:C31)</f>
+        <f t="shared" ref="C32:H32" si="4">SUM(C24:C31)</f>
         <v>-5904</v>
       </c>
       <c r="D32" s="66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-4485</v>
       </c>
       <c r="E32" s="66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>840</v>
       </c>
       <c r="F32" s="66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-5742</v>
       </c>
       <c r="G32" s="66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-16218</v>
       </c>
       <c r="H32" s="66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-5575</v>
       </c>
       <c r="J32" s="27">
@@ -12151,23 +13275,23 @@
         <v>7.591172327437784E-2</v>
       </c>
       <c r="K32" s="27">
-        <f t="shared" ref="K32:O32" si="4">(D32-C32)/ABS(C32)</f>
+        <f t="shared" ref="K32:O32" si="5">(D32-C32)/ABS(C32)</f>
         <v>0.24034552845528456</v>
       </c>
       <c r="L32" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1872909698996656</v>
       </c>
       <c r="M32" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-7.8357142857142854</v>
       </c>
       <c r="N32" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1.8244514106583072</v>
       </c>
       <c r="O32" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.65624614625724509</v>
       </c>
     </row>
@@ -12239,7 +13363,7 @@
     </row>
     <row r="36" spans="1:15" ht="23.25">
       <c r="A36" s="62" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B36" s="58">
         <v>26</v>
@@ -12266,7 +13390,7 @@
     </row>
     <row r="37" spans="1:15" ht="23.25">
       <c r="A37" s="62" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B37" s="58">
         <v>3858</v>
@@ -12316,6 +13440,7 @@
       <c r="H38" s="56">
         <v>-1036</v>
       </c>
+      <c r="I38" s="12"/>
       <c r="J38" s="27"/>
     </row>
     <row r="39" spans="1:15" ht="23.25">
@@ -12463,51 +13588,51 @@
         <v>3079</v>
       </c>
       <c r="C44" s="66">
-        <f t="shared" ref="C44:H44" si="5">SUM(C34:C43)</f>
+        <f t="shared" ref="C44:H44" si="6">SUM(C34:C43)</f>
         <v>2038</v>
       </c>
       <c r="D44" s="66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4084</v>
       </c>
       <c r="E44" s="66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-1262</v>
       </c>
       <c r="F44" s="66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4187</v>
       </c>
       <c r="G44" s="66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12492</v>
       </c>
       <c r="H44" s="66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-764</v>
       </c>
       <c r="J44" s="27">
-        <f t="shared" ref="J44:J48" si="6">(C44-B44)/ABS(B44)</f>
+        <f t="shared" ref="J44:J48" si="7">(C44-B44)/ABS(B44)</f>
         <v>-0.33809678467034754</v>
       </c>
       <c r="K44" s="27">
-        <f t="shared" ref="K44" si="7">(D44-C44)/ABS(C44)</f>
+        <f t="shared" ref="K44" si="8">(D44-C44)/ABS(C44)</f>
         <v>1.0039254170755643</v>
       </c>
       <c r="L44" s="27">
-        <f t="shared" ref="L44" si="8">(E44-D44)/ABS(D44)</f>
+        <f t="shared" ref="L44" si="9">(E44-D44)/ABS(D44)</f>
         <v>-1.3090107737512242</v>
       </c>
       <c r="M44" s="27">
-        <f t="shared" ref="M44" si="9">(F44-E44)/ABS(E44)</f>
+        <f t="shared" ref="M44" si="10">(F44-E44)/ABS(E44)</f>
         <v>4.3177496038034864</v>
       </c>
       <c r="N44" s="27">
-        <f t="shared" ref="N44" si="10">(G44-F44)/ABS(F44)</f>
+        <f t="shared" ref="N44" si="11">(G44-F44)/ABS(F44)</f>
         <v>1.9835204203486982</v>
       </c>
       <c r="O44" s="27">
-        <f t="shared" ref="O44" si="11">(H44-G44)/ABS(G44)</f>
+        <f t="shared" ref="O44" si="12">(H44-G44)/ABS(G44)</f>
         <v>-1.0611591418507844</v>
       </c>
     </row>
@@ -12540,59 +13665,58 @@
     </row>
     <row r="46" spans="1:15" ht="41.1" customHeight="1">
       <c r="A46" s="64" t="s">
-        <v>119</v>
+        <v>161</v>
       </c>
       <c r="B46" s="67">
-        <f t="shared" ref="B46:H46" si="12">B22+B32+B44+B45</f>
+        <f>B22+B32+B44+B45</f>
         <v>-808</v>
       </c>
       <c r="C46" s="67">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="B46:H46" si="13">C22+C32+C44+C45</f>
         <v>-708</v>
       </c>
       <c r="D46" s="67">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2166</v>
       </c>
       <c r="E46" s="67">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4948</v>
       </c>
       <c r="F46" s="67">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2510</v>
       </c>
       <c r="G46" s="67">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2297</v>
       </c>
       <c r="H46" s="67">
-        <f t="shared" si="12"/>
-        <v>-101</v>
+        <v>-11</v>
       </c>
       <c r="J46" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.12376237623762376</v>
       </c>
       <c r="K46" s="27">
-        <f t="shared" ref="K46" si="13">(D46-C46)/ABS(C46)</f>
+        <f t="shared" ref="K46" si="14">(D46-C46)/ABS(C46)</f>
         <v>4.0593220338983054</v>
       </c>
       <c r="L46" s="27">
-        <f t="shared" ref="L46" si="14">(E46-D46)/ABS(D46)</f>
+        <f t="shared" ref="L46" si="15">(E46-D46)/ABS(D46)</f>
         <v>1.2843951985226223</v>
       </c>
       <c r="M46" s="27">
-        <f t="shared" ref="M46" si="15">(F46-E46)/ABS(E46)</f>
+        <f t="shared" ref="M46" si="16">(F46-E46)/ABS(E46)</f>
         <v>-0.49272433306386421</v>
       </c>
       <c r="N46" s="27">
-        <f t="shared" ref="N46" si="16">(G46-F46)/ABS(F46)</f>
+        <f t="shared" ref="N46" si="17">(G46-F46)/ABS(F46)</f>
         <v>-8.4860557768924302E-2</v>
       </c>
       <c r="O46" s="27">
-        <f t="shared" ref="O46" si="17">(H46-G46)/ABS(G46)</f>
-        <v>-1.043970396168916</v>
+        <f t="shared" ref="O46" si="18">(H46-G46)/ABS(G46)</f>
+        <v>-1.0047888550282977</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="23.25">
@@ -12624,51 +13748,58 @@
     </row>
     <row r="48" spans="1:15" ht="39.950000000000003" customHeight="1">
       <c r="A48" s="64" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B48" s="66">
+        <f>SUM(B46:B47)</f>
         <v>1393</v>
       </c>
-      <c r="C48" s="67">
+      <c r="C48" s="66">
+        <f t="shared" ref="C48:H48" si="19">SUM(C46:C47)</f>
         <v>6119</v>
       </c>
-      <c r="D48" s="67">
-        <v>8252</v>
-      </c>
-      <c r="E48" s="67">
+      <c r="D48" s="66">
+        <f t="shared" si="19"/>
+        <v>8285</v>
+      </c>
+      <c r="E48" s="66">
+        <f t="shared" si="19"/>
         <v>13233</v>
       </c>
-      <c r="F48" s="67">
+      <c r="F48" s="66">
+        <f t="shared" si="19"/>
         <v>15743</v>
       </c>
-      <c r="G48" s="67">
+      <c r="G48" s="66">
+        <f t="shared" si="19"/>
         <v>18040</v>
       </c>
-      <c r="H48" s="67">
+      <c r="H48" s="66">
+        <f>SUM(H46:H47)</f>
         <v>18029</v>
       </c>
       <c r="J48" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.3926776740847093</v>
       </c>
       <c r="K48" s="27">
-        <f t="shared" ref="K48:K56" si="18">(D48-C48)/ABS(C48)</f>
-        <v>0.34858637032194806</v>
+        <f t="shared" ref="K48:K56" si="20">(D48-C48)/ABS(C48)</f>
+        <v>0.35397940840006537</v>
       </c>
       <c r="L48" s="27">
-        <f t="shared" ref="L48" si="19">(E48-D48)/ABS(D48)</f>
-        <v>0.60361124575860392</v>
+        <f t="shared" ref="L48" si="21">(E48-D48)/ABS(D48)</f>
+        <v>0.59722389861194936</v>
       </c>
       <c r="M48" s="27">
-        <f t="shared" ref="M48" si="20">(F48-E48)/ABS(E48)</f>
+        <f t="shared" ref="M48" si="22">(F48-E48)/ABS(E48)</f>
         <v>0.18967732184689789</v>
       </c>
       <c r="N48" s="27">
-        <f t="shared" ref="N48" si="21">(G48-F48)/ABS(F48)</f>
+        <f t="shared" ref="N48" si="23">(G48-F48)/ABS(F48)</f>
         <v>0.14590611700438291</v>
       </c>
       <c r="O48" s="27">
-        <f t="shared" ref="O48" si="22">(H48-G48)/ABS(G48)</f>
+        <f t="shared" ref="O48" si="24">(H48-G48)/ABS(G48)</f>
         <v>-6.0975609756097561E-4</v>
       </c>
     </row>
@@ -12741,7 +13872,7 @@
     </row>
     <row r="52" spans="1:15" s="1" customFormat="1" ht="25.5">
       <c r="A52" s="65" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B52" s="72"/>
       <c r="C52" s="73"/>
@@ -12862,55 +13993,3602 @@
         <v>55</v>
       </c>
       <c r="K56" s="27">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.34858637032194806</v>
       </c>
       <c r="L56" s="27">
-        <f t="shared" ref="L56" si="23">(E56-D56)/ABS(D56)</f>
+        <f t="shared" ref="L56" si="25">(E56-D56)/ABS(D56)</f>
         <v>0.60361124575860392</v>
       </c>
       <c r="M56" s="27">
-        <f t="shared" ref="M56" si="24">(F56-E56)/ABS(E56)</f>
+        <f t="shared" ref="M56" si="26">(F56-E56)/ABS(E56)</f>
         <v>0.18967732184689789</v>
       </c>
       <c r="N56" s="27">
-        <f t="shared" ref="N56" si="25">(G56-F56)/ABS(F56)</f>
+        <f t="shared" ref="N56" si="27">(G56-F56)/ABS(F56)</f>
         <v>0.14590611700438291</v>
       </c>
       <c r="O56" s="27">
-        <f t="shared" ref="O56" si="26">(H56-G56)/ABS(G56)</f>
+        <f t="shared" ref="O56" si="28">(H56-G56)/ABS(G56)</f>
         <v>-6.0975609756097561E-4</v>
       </c>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57"/>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58"/>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="A59"/>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="A60"/>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="A61"/>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="A62"/>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="A63"/>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="A64"/>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65"/>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66"/>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67"/>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68"/>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69"/>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70"/>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71"/>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72"/>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73"/>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74"/>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75"/>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76"/>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77"/>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78"/>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79"/>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80"/>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81"/>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82"/>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83"/>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84"/>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85"/>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86"/>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87"/>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88"/>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89"/>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90"/>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91"/>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92"/>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93"/>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94"/>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95"/>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96"/>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97"/>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98"/>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99"/>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100"/>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101"/>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102"/>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103"/>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104"/>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105"/>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106"/>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107"/>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108"/>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109"/>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110"/>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111"/>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112"/>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113"/>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114"/>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115"/>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116"/>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117"/>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118"/>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119"/>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120"/>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121"/>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122"/>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123"/>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124"/>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125"/>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126"/>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127"/>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128"/>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129"/>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130"/>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131"/>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132"/>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133"/>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134"/>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135"/>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136"/>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137"/>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138"/>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139"/>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140"/>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141"/>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142"/>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143"/>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144"/>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145"/>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146"/>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147"/>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148"/>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149"/>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150"/>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151"/>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152"/>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153"/>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154"/>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155"/>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156"/>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157"/>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158"/>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159"/>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160"/>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161"/>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162"/>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163"/>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164"/>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165"/>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166"/>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167"/>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168"/>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169"/>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170"/>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171"/>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172"/>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173"/>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174"/>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175"/>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176"/>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177"/>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178"/>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179"/>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180"/>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181"/>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182"/>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183"/>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184"/>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185"/>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186"/>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187"/>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188"/>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189"/>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190"/>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191"/>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192"/>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193"/>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194"/>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195"/>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196"/>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197"/>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198"/>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199"/>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200"/>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201"/>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202"/>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203"/>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204"/>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205"/>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206"/>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207"/>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208"/>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209"/>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210"/>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211"/>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212"/>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213"/>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214"/>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215"/>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216"/>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217"/>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218"/>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219"/>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220"/>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221"/>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222"/>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223"/>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224"/>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225"/>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226"/>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227"/>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228"/>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229"/>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230"/>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231"/>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232"/>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233"/>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234"/>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235"/>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236"/>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237"/>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238"/>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239"/>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240"/>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241"/>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242"/>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243"/>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244"/>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245"/>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246"/>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247"/>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248"/>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249"/>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250"/>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251"/>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252"/>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253"/>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254"/>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255"/>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256"/>
+    </row>
+    <row r="257" spans="1:1">
+      <c r="A257"/>
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258"/>
+    </row>
+    <row r="259" spans="1:1">
+      <c r="A259"/>
+    </row>
+    <row r="260" spans="1:1">
+      <c r="A260"/>
+    </row>
+    <row r="261" spans="1:1">
+      <c r="A261"/>
+    </row>
+    <row r="262" spans="1:1">
+      <c r="A262"/>
+    </row>
+    <row r="263" spans="1:1">
+      <c r="A263"/>
+    </row>
+    <row r="264" spans="1:1">
+      <c r="A264"/>
+    </row>
+    <row r="265" spans="1:1">
+      <c r="A265"/>
+    </row>
+    <row r="266" spans="1:1">
+      <c r="A266"/>
+    </row>
+    <row r="267" spans="1:1">
+      <c r="A267"/>
+    </row>
+    <row r="268" spans="1:1">
+      <c r="A268"/>
+    </row>
+    <row r="269" spans="1:1">
+      <c r="A269"/>
+    </row>
+    <row r="270" spans="1:1">
+      <c r="A270"/>
+    </row>
+    <row r="271" spans="1:1">
+      <c r="A271"/>
+    </row>
+    <row r="272" spans="1:1">
+      <c r="A272"/>
+    </row>
+    <row r="273" spans="1:1">
+      <c r="A273"/>
+    </row>
+    <row r="274" spans="1:1">
+      <c r="A274"/>
+    </row>
+    <row r="275" spans="1:1">
+      <c r="A275"/>
+    </row>
+    <row r="276" spans="1:1">
+      <c r="A276"/>
+    </row>
+    <row r="277" spans="1:1">
+      <c r="A277"/>
+    </row>
+    <row r="278" spans="1:1">
+      <c r="A278"/>
+    </row>
+    <row r="279" spans="1:1">
+      <c r="A279"/>
+    </row>
+    <row r="280" spans="1:1">
+      <c r="A280"/>
+    </row>
+    <row r="281" spans="1:1">
+      <c r="A281"/>
+    </row>
+    <row r="282" spans="1:1">
+      <c r="A282"/>
+    </row>
+    <row r="283" spans="1:1">
+      <c r="A283"/>
+    </row>
+    <row r="284" spans="1:1">
+      <c r="A284"/>
+    </row>
+    <row r="285" spans="1:1">
+      <c r="A285"/>
+    </row>
+    <row r="286" spans="1:1">
+      <c r="A286"/>
+    </row>
+    <row r="287" spans="1:1">
+      <c r="A287"/>
+    </row>
+    <row r="288" spans="1:1">
+      <c r="A288"/>
+    </row>
+    <row r="289" spans="1:1">
+      <c r="A289"/>
+    </row>
+    <row r="290" spans="1:1">
+      <c r="A290"/>
+    </row>
+    <row r="291" spans="1:1">
+      <c r="A291"/>
+    </row>
+    <row r="292" spans="1:1">
+      <c r="A292"/>
+    </row>
+    <row r="293" spans="1:1">
+      <c r="A293"/>
+    </row>
+    <row r="294" spans="1:1">
+      <c r="A294"/>
+    </row>
+    <row r="295" spans="1:1">
+      <c r="A295"/>
+    </row>
+    <row r="296" spans="1:1">
+      <c r="A296"/>
+    </row>
+    <row r="297" spans="1:1">
+      <c r="A297"/>
+    </row>
+    <row r="298" spans="1:1">
+      <c r="A298"/>
+    </row>
+    <row r="299" spans="1:1">
+      <c r="A299"/>
+    </row>
+    <row r="300" spans="1:1">
+      <c r="A300"/>
+    </row>
+    <row r="301" spans="1:1">
+      <c r="A301"/>
+    </row>
+    <row r="302" spans="1:1">
+      <c r="A302"/>
+    </row>
+    <row r="303" spans="1:1">
+      <c r="A303"/>
+    </row>
+    <row r="304" spans="1:1">
+      <c r="A304"/>
+    </row>
+    <row r="305" spans="1:1">
+      <c r="A305"/>
+    </row>
+    <row r="306" spans="1:1">
+      <c r="A306"/>
+    </row>
+    <row r="307" spans="1:1">
+      <c r="A307"/>
+    </row>
+    <row r="308" spans="1:1">
+      <c r="A308"/>
+    </row>
+    <row r="309" spans="1:1">
+      <c r="A309"/>
+    </row>
+    <row r="310" spans="1:1">
+      <c r="A310"/>
+    </row>
+    <row r="311" spans="1:1">
+      <c r="A311"/>
+    </row>
+    <row r="312" spans="1:1">
+      <c r="A312"/>
+    </row>
+    <row r="313" spans="1:1">
+      <c r="A313"/>
+    </row>
+    <row r="314" spans="1:1">
+      <c r="A314"/>
+    </row>
+    <row r="315" spans="1:1">
+      <c r="A315"/>
+    </row>
+    <row r="316" spans="1:1">
+      <c r="A316"/>
+    </row>
+    <row r="317" spans="1:1">
+      <c r="A317"/>
+    </row>
+    <row r="318" spans="1:1">
+      <c r="A318"/>
+    </row>
+    <row r="319" spans="1:1">
+      <c r="A319"/>
+    </row>
+    <row r="320" spans="1:1">
+      <c r="A320"/>
+    </row>
+    <row r="321" spans="1:1">
+      <c r="A321"/>
+    </row>
+    <row r="322" spans="1:1">
+      <c r="A322"/>
+    </row>
+    <row r="323" spans="1:1">
+      <c r="A323"/>
+    </row>
+    <row r="324" spans="1:1">
+      <c r="A324"/>
+    </row>
+    <row r="325" spans="1:1">
+      <c r="A325"/>
+    </row>
+    <row r="326" spans="1:1">
+      <c r="A326"/>
+    </row>
+    <row r="327" spans="1:1">
+      <c r="A327"/>
+    </row>
+    <row r="328" spans="1:1">
+      <c r="A328"/>
+    </row>
+    <row r="329" spans="1:1">
+      <c r="A329"/>
+    </row>
+    <row r="330" spans="1:1">
+      <c r="A330"/>
+    </row>
+    <row r="331" spans="1:1">
+      <c r="A331"/>
+    </row>
+    <row r="332" spans="1:1">
+      <c r="A332"/>
+    </row>
+    <row r="333" spans="1:1">
+      <c r="A333"/>
+    </row>
+    <row r="334" spans="1:1">
+      <c r="A334"/>
+    </row>
+    <row r="335" spans="1:1">
+      <c r="A335"/>
+    </row>
+    <row r="336" spans="1:1">
+      <c r="A336"/>
+    </row>
+    <row r="337" spans="1:1">
+      <c r="A337"/>
+    </row>
+    <row r="338" spans="1:1">
+      <c r="A338"/>
+    </row>
+    <row r="339" spans="1:1">
+      <c r="A339"/>
+    </row>
+    <row r="340" spans="1:1">
+      <c r="A340"/>
+    </row>
+    <row r="341" spans="1:1">
+      <c r="A341"/>
+    </row>
+    <row r="342" spans="1:1">
+      <c r="A342"/>
+    </row>
+    <row r="343" spans="1:1">
+      <c r="A343"/>
+    </row>
+    <row r="344" spans="1:1">
+      <c r="A344"/>
+    </row>
+    <row r="345" spans="1:1">
+      <c r="A345"/>
+    </row>
+    <row r="346" spans="1:1">
+      <c r="A346"/>
+    </row>
+    <row r="347" spans="1:1">
+      <c r="A347"/>
+    </row>
+    <row r="348" spans="1:1">
+      <c r="A348"/>
+    </row>
+    <row r="349" spans="1:1">
+      <c r="A349"/>
+    </row>
+    <row r="350" spans="1:1">
+      <c r="A350"/>
+    </row>
+    <row r="351" spans="1:1">
+      <c r="A351"/>
+    </row>
+    <row r="352" spans="1:1">
+      <c r="A352"/>
+    </row>
+    <row r="353" spans="1:1">
+      <c r="A353"/>
+    </row>
+    <row r="354" spans="1:1">
+      <c r="A354"/>
+    </row>
+    <row r="355" spans="1:1">
+      <c r="A355"/>
+    </row>
+    <row r="356" spans="1:1">
+      <c r="A356"/>
+    </row>
+    <row r="357" spans="1:1">
+      <c r="A357"/>
+    </row>
+    <row r="358" spans="1:1">
+      <c r="A358"/>
+    </row>
+    <row r="359" spans="1:1">
+      <c r="A359"/>
+    </row>
+    <row r="360" spans="1:1">
+      <c r="A360"/>
+    </row>
+    <row r="361" spans="1:1">
+      <c r="A361"/>
+    </row>
+    <row r="362" spans="1:1">
+      <c r="A362"/>
+    </row>
+    <row r="363" spans="1:1">
+      <c r="A363"/>
+    </row>
+    <row r="364" spans="1:1">
+      <c r="A364"/>
+    </row>
+    <row r="365" spans="1:1">
+      <c r="A365"/>
+    </row>
+    <row r="366" spans="1:1">
+      <c r="A366"/>
+    </row>
+    <row r="367" spans="1:1">
+      <c r="A367"/>
+    </row>
+    <row r="368" spans="1:1">
+      <c r="A368"/>
+    </row>
+    <row r="369" spans="1:1">
+      <c r="A369"/>
+    </row>
+    <row r="370" spans="1:1">
+      <c r="A370"/>
+    </row>
+    <row r="371" spans="1:1">
+      <c r="A371"/>
+    </row>
+    <row r="372" spans="1:1">
+      <c r="A372"/>
+    </row>
+    <row r="373" spans="1:1">
+      <c r="A373"/>
+    </row>
+    <row r="374" spans="1:1">
+      <c r="A374"/>
+    </row>
+    <row r="375" spans="1:1">
+      <c r="A375"/>
+    </row>
+    <row r="376" spans="1:1">
+      <c r="A376"/>
+    </row>
+    <row r="377" spans="1:1">
+      <c r="A377"/>
+    </row>
+    <row r="378" spans="1:1">
+      <c r="A378"/>
+    </row>
+    <row r="379" spans="1:1">
+      <c r="A379"/>
+    </row>
+    <row r="380" spans="1:1">
+      <c r="A380"/>
+    </row>
+    <row r="381" spans="1:1">
+      <c r="A381"/>
+    </row>
+    <row r="382" spans="1:1">
+      <c r="A382"/>
+    </row>
+    <row r="383" spans="1:1">
+      <c r="A383"/>
+    </row>
+    <row r="384" spans="1:1">
+      <c r="A384"/>
+    </row>
+    <row r="385" spans="1:1">
+      <c r="A385"/>
+    </row>
+    <row r="386" spans="1:1">
+      <c r="A386"/>
+    </row>
+    <row r="387" spans="1:1">
+      <c r="A387"/>
+    </row>
+    <row r="388" spans="1:1">
+      <c r="A388"/>
+    </row>
+    <row r="389" spans="1:1">
+      <c r="A389"/>
+    </row>
+    <row r="390" spans="1:1">
+      <c r="A390"/>
+    </row>
+    <row r="391" spans="1:1">
+      <c r="A391"/>
+    </row>
+    <row r="392" spans="1:1">
+      <c r="A392"/>
+    </row>
+    <row r="393" spans="1:1">
+      <c r="A393"/>
+    </row>
+    <row r="394" spans="1:1">
+      <c r="A394"/>
+    </row>
+    <row r="395" spans="1:1">
+      <c r="A395"/>
+    </row>
+    <row r="396" spans="1:1">
+      <c r="A396"/>
+    </row>
+    <row r="397" spans="1:1">
+      <c r="A397"/>
+    </row>
+    <row r="398" spans="1:1">
+      <c r="A398"/>
+    </row>
+    <row r="399" spans="1:1">
+      <c r="A399"/>
+    </row>
+    <row r="400" spans="1:1">
+      <c r="A400"/>
+    </row>
+    <row r="401" spans="1:1">
+      <c r="A401"/>
+    </row>
+    <row r="402" spans="1:1">
+      <c r="A402"/>
+    </row>
+    <row r="403" spans="1:1">
+      <c r="A403"/>
+    </row>
+    <row r="404" spans="1:1">
+      <c r="A404"/>
+    </row>
+    <row r="405" spans="1:1">
+      <c r="A405"/>
+    </row>
+    <row r="406" spans="1:1">
+      <c r="A406"/>
+    </row>
+    <row r="407" spans="1:1">
+      <c r="A407"/>
+    </row>
+    <row r="408" spans="1:1">
+      <c r="A408"/>
+    </row>
+    <row r="409" spans="1:1">
+      <c r="A409"/>
+    </row>
+    <row r="410" spans="1:1">
+      <c r="A410"/>
+    </row>
+    <row r="411" spans="1:1">
+      <c r="A411"/>
+    </row>
+    <row r="412" spans="1:1">
+      <c r="A412"/>
+    </row>
+    <row r="413" spans="1:1">
+      <c r="A413"/>
+    </row>
+    <row r="414" spans="1:1">
+      <c r="A414"/>
+    </row>
+    <row r="415" spans="1:1">
+      <c r="A415"/>
+    </row>
+    <row r="416" spans="1:1">
+      <c r="A416"/>
+    </row>
+    <row r="417" spans="1:1">
+      <c r="A417"/>
+    </row>
+    <row r="418" spans="1:1">
+      <c r="A418"/>
+    </row>
+    <row r="419" spans="1:1">
+      <c r="A419"/>
+    </row>
+    <row r="420" spans="1:1">
+      <c r="A420"/>
+    </row>
+    <row r="421" spans="1:1">
+      <c r="A421"/>
+    </row>
+    <row r="422" spans="1:1">
+      <c r="A422"/>
+    </row>
+    <row r="423" spans="1:1">
+      <c r="A423"/>
+    </row>
+    <row r="424" spans="1:1">
+      <c r="A424"/>
+    </row>
+    <row r="425" spans="1:1">
+      <c r="A425"/>
+    </row>
+    <row r="426" spans="1:1">
+      <c r="A426"/>
+    </row>
+    <row r="427" spans="1:1">
+      <c r="A427"/>
+    </row>
+    <row r="428" spans="1:1">
+      <c r="A428"/>
+    </row>
+    <row r="429" spans="1:1">
+      <c r="A429"/>
+    </row>
+    <row r="430" spans="1:1">
+      <c r="A430"/>
+    </row>
+    <row r="431" spans="1:1">
+      <c r="A431"/>
+    </row>
+    <row r="432" spans="1:1">
+      <c r="A432"/>
+    </row>
+    <row r="433" spans="1:1">
+      <c r="A433"/>
+    </row>
+    <row r="434" spans="1:1">
+      <c r="A434"/>
+    </row>
+    <row r="435" spans="1:1">
+      <c r="A435"/>
+    </row>
+    <row r="436" spans="1:1">
+      <c r="A436"/>
+    </row>
+    <row r="437" spans="1:1">
+      <c r="A437"/>
+    </row>
+    <row r="438" spans="1:1">
+      <c r="A438"/>
+    </row>
+    <row r="439" spans="1:1">
+      <c r="A439"/>
+    </row>
+    <row r="440" spans="1:1">
+      <c r="A440"/>
+    </row>
+    <row r="441" spans="1:1">
+      <c r="A441"/>
+    </row>
+    <row r="442" spans="1:1">
+      <c r="A442"/>
+    </row>
+    <row r="443" spans="1:1">
+      <c r="A443"/>
+    </row>
+    <row r="444" spans="1:1">
+      <c r="A444"/>
+    </row>
+    <row r="445" spans="1:1">
+      <c r="A445"/>
+    </row>
+    <row r="446" spans="1:1">
+      <c r="A446"/>
+    </row>
+    <row r="447" spans="1:1">
+      <c r="A447"/>
+    </row>
+    <row r="448" spans="1:1">
+      <c r="A448"/>
+    </row>
+    <row r="449" spans="1:1">
+      <c r="A449"/>
+    </row>
+    <row r="450" spans="1:1">
+      <c r="A450"/>
+    </row>
+    <row r="451" spans="1:1">
+      <c r="A451"/>
+    </row>
+    <row r="452" spans="1:1">
+      <c r="A452"/>
+    </row>
+    <row r="453" spans="1:1">
+      <c r="A453"/>
+    </row>
+    <row r="454" spans="1:1">
+      <c r="A454"/>
+    </row>
+    <row r="455" spans="1:1">
+      <c r="A455"/>
+    </row>
+    <row r="456" spans="1:1">
+      <c r="A456"/>
+    </row>
+    <row r="457" spans="1:1">
+      <c r="A457"/>
+    </row>
+    <row r="458" spans="1:1">
+      <c r="A458"/>
+    </row>
+    <row r="459" spans="1:1">
+      <c r="A459"/>
+    </row>
+    <row r="460" spans="1:1">
+      <c r="A460"/>
+    </row>
+    <row r="461" spans="1:1">
+      <c r="A461"/>
+    </row>
+    <row r="462" spans="1:1">
+      <c r="A462"/>
+    </row>
+    <row r="463" spans="1:1">
+      <c r="A463"/>
+    </row>
+    <row r="464" spans="1:1">
+      <c r="A464"/>
+    </row>
+    <row r="465" spans="1:1">
+      <c r="A465"/>
+    </row>
+    <row r="466" spans="1:1">
+      <c r="A466"/>
+    </row>
+    <row r="467" spans="1:1">
+      <c r="A467"/>
+    </row>
+    <row r="468" spans="1:1">
+      <c r="A468"/>
+    </row>
+    <row r="469" spans="1:1">
+      <c r="A469"/>
+    </row>
+    <row r="470" spans="1:1">
+      <c r="A470"/>
+    </row>
+    <row r="471" spans="1:1">
+      <c r="A471"/>
+    </row>
+    <row r="472" spans="1:1">
+      <c r="A472"/>
+    </row>
+    <row r="473" spans="1:1">
+      <c r="A473"/>
+    </row>
+    <row r="474" spans="1:1">
+      <c r="A474"/>
+    </row>
+    <row r="475" spans="1:1">
+      <c r="A475"/>
+    </row>
+    <row r="476" spans="1:1">
+      <c r="A476"/>
+    </row>
+    <row r="477" spans="1:1">
+      <c r="A477"/>
+    </row>
+    <row r="478" spans="1:1">
+      <c r="A478"/>
+    </row>
+    <row r="479" spans="1:1">
+      <c r="A479"/>
+    </row>
+    <row r="480" spans="1:1">
+      <c r="A480"/>
+    </row>
+    <row r="481" spans="1:1">
+      <c r="A481"/>
+    </row>
+    <row r="482" spans="1:1">
+      <c r="A482"/>
+    </row>
+    <row r="483" spans="1:1">
+      <c r="A483"/>
+    </row>
+    <row r="484" spans="1:1">
+      <c r="A484"/>
+    </row>
+    <row r="485" spans="1:1">
+      <c r="A485"/>
+    </row>
+    <row r="486" spans="1:1">
+      <c r="A486"/>
+    </row>
+    <row r="487" spans="1:1">
+      <c r="A487"/>
+    </row>
+    <row r="488" spans="1:1">
+      <c r="A488"/>
+    </row>
+    <row r="489" spans="1:1">
+      <c r="A489"/>
+    </row>
+    <row r="490" spans="1:1">
+      <c r="A490"/>
+    </row>
+    <row r="491" spans="1:1">
+      <c r="A491"/>
+    </row>
+    <row r="492" spans="1:1">
+      <c r="A492"/>
+    </row>
+    <row r="493" spans="1:1">
+      <c r="A493"/>
+    </row>
+    <row r="494" spans="1:1">
+      <c r="A494"/>
+    </row>
+    <row r="495" spans="1:1">
+      <c r="A495"/>
+    </row>
+    <row r="496" spans="1:1">
+      <c r="A496"/>
+    </row>
+    <row r="497" spans="1:1">
+      <c r="A497"/>
+    </row>
+    <row r="498" spans="1:1">
+      <c r="A498"/>
+    </row>
+    <row r="499" spans="1:1">
+      <c r="A499"/>
+    </row>
+    <row r="500" spans="1:1">
+      <c r="A500"/>
+    </row>
+    <row r="501" spans="1:1">
+      <c r="A501"/>
+    </row>
+    <row r="502" spans="1:1">
+      <c r="A502"/>
+    </row>
+    <row r="503" spans="1:1">
+      <c r="A503"/>
+    </row>
+    <row r="504" spans="1:1">
+      <c r="A504"/>
+    </row>
+    <row r="505" spans="1:1">
+      <c r="A505"/>
+    </row>
+    <row r="506" spans="1:1">
+      <c r="A506"/>
+    </row>
+    <row r="507" spans="1:1">
+      <c r="A507"/>
+    </row>
+    <row r="508" spans="1:1">
+      <c r="A508"/>
+    </row>
+    <row r="509" spans="1:1">
+      <c r="A509"/>
+    </row>
+    <row r="510" spans="1:1">
+      <c r="A510"/>
+    </row>
+    <row r="511" spans="1:1">
+      <c r="A511"/>
+    </row>
+    <row r="512" spans="1:1">
+      <c r="A512"/>
+    </row>
+    <row r="513" spans="1:1">
+      <c r="A513"/>
+    </row>
+    <row r="514" spans="1:1">
+      <c r="A514"/>
+    </row>
+    <row r="515" spans="1:1">
+      <c r="A515"/>
+    </row>
+    <row r="516" spans="1:1">
+      <c r="A516"/>
+    </row>
+    <row r="517" spans="1:1">
+      <c r="A517"/>
+    </row>
+    <row r="518" spans="1:1">
+      <c r="A518"/>
+    </row>
+    <row r="519" spans="1:1">
+      <c r="A519"/>
+    </row>
+    <row r="520" spans="1:1">
+      <c r="A520"/>
+    </row>
+    <row r="521" spans="1:1">
+      <c r="A521"/>
+    </row>
+    <row r="522" spans="1:1">
+      <c r="A522"/>
+    </row>
+    <row r="523" spans="1:1">
+      <c r="A523"/>
+    </row>
+    <row r="524" spans="1:1">
+      <c r="A524"/>
+    </row>
+    <row r="525" spans="1:1">
+      <c r="A525"/>
+    </row>
+    <row r="526" spans="1:1">
+      <c r="A526"/>
+    </row>
+    <row r="527" spans="1:1">
+      <c r="A527"/>
+    </row>
+    <row r="528" spans="1:1">
+      <c r="A528"/>
+    </row>
+    <row r="529" spans="1:1">
+      <c r="A529"/>
+    </row>
+    <row r="530" spans="1:1">
+      <c r="A530"/>
+    </row>
+    <row r="531" spans="1:1">
+      <c r="A531"/>
+    </row>
+    <row r="532" spans="1:1">
+      <c r="A532"/>
+    </row>
+    <row r="533" spans="1:1">
+      <c r="A533"/>
+    </row>
+    <row r="534" spans="1:1">
+      <c r="A534"/>
+    </row>
+    <row r="535" spans="1:1">
+      <c r="A535"/>
+    </row>
+    <row r="536" spans="1:1">
+      <c r="A536"/>
+    </row>
+    <row r="537" spans="1:1">
+      <c r="A537"/>
+    </row>
+    <row r="538" spans="1:1">
+      <c r="A538"/>
+    </row>
+    <row r="539" spans="1:1">
+      <c r="A539"/>
+    </row>
+    <row r="540" spans="1:1">
+      <c r="A540"/>
+    </row>
+    <row r="541" spans="1:1">
+      <c r="A541"/>
+    </row>
+    <row r="542" spans="1:1">
+      <c r="A542"/>
+    </row>
+    <row r="543" spans="1:1">
+      <c r="A543"/>
+    </row>
+    <row r="544" spans="1:1">
+      <c r="A544"/>
+    </row>
+    <row r="545" spans="1:1">
+      <c r="A545"/>
+    </row>
+    <row r="546" spans="1:1">
+      <c r="A546"/>
+    </row>
+    <row r="547" spans="1:1">
+      <c r="A547"/>
+    </row>
+    <row r="548" spans="1:1">
+      <c r="A548"/>
+    </row>
+    <row r="549" spans="1:1">
+      <c r="A549"/>
+    </row>
+    <row r="550" spans="1:1">
+      <c r="A550"/>
+    </row>
+    <row r="551" spans="1:1">
+      <c r="A551"/>
+    </row>
+    <row r="552" spans="1:1">
+      <c r="A552"/>
+    </row>
+    <row r="553" spans="1:1">
+      <c r="A553"/>
+    </row>
+    <row r="554" spans="1:1">
+      <c r="A554"/>
+    </row>
+    <row r="555" spans="1:1">
+      <c r="A555"/>
+    </row>
+    <row r="556" spans="1:1">
+      <c r="A556"/>
+    </row>
+    <row r="557" spans="1:1">
+      <c r="A557"/>
+    </row>
+    <row r="558" spans="1:1">
+      <c r="A558"/>
+    </row>
+    <row r="559" spans="1:1">
+      <c r="A559"/>
+    </row>
+    <row r="560" spans="1:1">
+      <c r="A560"/>
+    </row>
+    <row r="561" spans="1:1">
+      <c r="A561"/>
+    </row>
+    <row r="562" spans="1:1">
+      <c r="A562"/>
+    </row>
+    <row r="563" spans="1:1">
+      <c r="A563"/>
+    </row>
+    <row r="564" spans="1:1">
+      <c r="A564"/>
+    </row>
+    <row r="565" spans="1:1">
+      <c r="A565"/>
+    </row>
+    <row r="566" spans="1:1">
+      <c r="A566"/>
+    </row>
+    <row r="567" spans="1:1">
+      <c r="A567"/>
+    </row>
+    <row r="568" spans="1:1">
+      <c r="A568"/>
+    </row>
+    <row r="569" spans="1:1">
+      <c r="A569"/>
+    </row>
+    <row r="570" spans="1:1">
+      <c r="A570"/>
+    </row>
+    <row r="571" spans="1:1">
+      <c r="A571"/>
+    </row>
+    <row r="572" spans="1:1">
+      <c r="A572"/>
+    </row>
+    <row r="573" spans="1:1">
+      <c r="A573"/>
+    </row>
+    <row r="574" spans="1:1">
+      <c r="A574"/>
+    </row>
+    <row r="575" spans="1:1">
+      <c r="A575"/>
+    </row>
+    <row r="576" spans="1:1">
+      <c r="A576"/>
+    </row>
+    <row r="577" spans="1:1">
+      <c r="A577"/>
+    </row>
+    <row r="578" spans="1:1">
+      <c r="A578"/>
+    </row>
+    <row r="579" spans="1:1">
+      <c r="A579"/>
+    </row>
+    <row r="580" spans="1:1">
+      <c r="A580"/>
+    </row>
+    <row r="581" spans="1:1">
+      <c r="A581"/>
+    </row>
+    <row r="582" spans="1:1">
+      <c r="A582"/>
+    </row>
+    <row r="583" spans="1:1">
+      <c r="A583"/>
+    </row>
+    <row r="584" spans="1:1">
+      <c r="A584"/>
+    </row>
+    <row r="585" spans="1:1">
+      <c r="A585"/>
+    </row>
+    <row r="586" spans="1:1">
+      <c r="A586"/>
+    </row>
+    <row r="587" spans="1:1">
+      <c r="A587"/>
+    </row>
+    <row r="588" spans="1:1">
+      <c r="A588"/>
+    </row>
+    <row r="589" spans="1:1">
+      <c r="A589"/>
+    </row>
+    <row r="590" spans="1:1">
+      <c r="A590"/>
+    </row>
+    <row r="591" spans="1:1">
+      <c r="A591"/>
+    </row>
+    <row r="592" spans="1:1">
+      <c r="A592"/>
+    </row>
+    <row r="593" spans="1:1">
+      <c r="A593"/>
+    </row>
+    <row r="594" spans="1:1">
+      <c r="A594"/>
+    </row>
+    <row r="595" spans="1:1">
+      <c r="A595"/>
+    </row>
+    <row r="596" spans="1:1">
+      <c r="A596"/>
+    </row>
+    <row r="597" spans="1:1">
+      <c r="A597"/>
+    </row>
+    <row r="598" spans="1:1">
+      <c r="A598"/>
+    </row>
+    <row r="599" spans="1:1">
+      <c r="A599"/>
+    </row>
+    <row r="600" spans="1:1">
+      <c r="A600"/>
+    </row>
+    <row r="601" spans="1:1">
+      <c r="A601"/>
+    </row>
+    <row r="602" spans="1:1">
+      <c r="A602"/>
+    </row>
+    <row r="603" spans="1:1">
+      <c r="A603"/>
+    </row>
+    <row r="604" spans="1:1">
+      <c r="A604"/>
+    </row>
+    <row r="605" spans="1:1">
+      <c r="A605"/>
+    </row>
+    <row r="606" spans="1:1">
+      <c r="A606"/>
+    </row>
+    <row r="607" spans="1:1">
+      <c r="A607"/>
+    </row>
+    <row r="608" spans="1:1">
+      <c r="A608"/>
+    </row>
+    <row r="609" spans="1:1">
+      <c r="A609"/>
+    </row>
+    <row r="610" spans="1:1">
+      <c r="A610"/>
+    </row>
+    <row r="611" spans="1:1">
+      <c r="A611"/>
+    </row>
+    <row r="612" spans="1:1">
+      <c r="A612"/>
+    </row>
+    <row r="613" spans="1:1">
+      <c r="A613"/>
+    </row>
+    <row r="614" spans="1:1">
+      <c r="A614"/>
+    </row>
+    <row r="615" spans="1:1">
+      <c r="A615"/>
+    </row>
+    <row r="616" spans="1:1">
+      <c r="A616"/>
+    </row>
+    <row r="617" spans="1:1">
+      <c r="A617"/>
+    </row>
+    <row r="618" spans="1:1">
+      <c r="A618"/>
+    </row>
+    <row r="619" spans="1:1">
+      <c r="A619"/>
+    </row>
+    <row r="620" spans="1:1">
+      <c r="A620"/>
+    </row>
+    <row r="621" spans="1:1">
+      <c r="A621"/>
+    </row>
+    <row r="622" spans="1:1">
+      <c r="A622"/>
+    </row>
+    <row r="623" spans="1:1">
+      <c r="A623"/>
+    </row>
+    <row r="624" spans="1:1">
+      <c r="A624"/>
+    </row>
+    <row r="625" spans="1:1">
+      <c r="A625"/>
+    </row>
+    <row r="626" spans="1:1">
+      <c r="A626"/>
+    </row>
+    <row r="627" spans="1:1">
+      <c r="A627"/>
+    </row>
+    <row r="628" spans="1:1">
+      <c r="A628"/>
+    </row>
+    <row r="629" spans="1:1">
+      <c r="A629"/>
+    </row>
+    <row r="630" spans="1:1">
+      <c r="A630"/>
+    </row>
+    <row r="631" spans="1:1">
+      <c r="A631"/>
+    </row>
+    <row r="632" spans="1:1">
+      <c r="A632"/>
+    </row>
+    <row r="633" spans="1:1">
+      <c r="A633"/>
+    </row>
+    <row r="634" spans="1:1">
+      <c r="A634"/>
+    </row>
+    <row r="635" spans="1:1">
+      <c r="A635"/>
+    </row>
+    <row r="636" spans="1:1">
+      <c r="A636"/>
+    </row>
+    <row r="637" spans="1:1">
+      <c r="A637"/>
+    </row>
+    <row r="638" spans="1:1">
+      <c r="A638"/>
+    </row>
+    <row r="639" spans="1:1">
+      <c r="A639"/>
+    </row>
+    <row r="640" spans="1:1">
+      <c r="A640"/>
+    </row>
+    <row r="641" spans="1:1">
+      <c r="A641"/>
+    </row>
+    <row r="642" spans="1:1">
+      <c r="A642"/>
+    </row>
+    <row r="643" spans="1:1">
+      <c r="A643"/>
+    </row>
+    <row r="644" spans="1:1">
+      <c r="A644"/>
+    </row>
+    <row r="645" spans="1:1">
+      <c r="A645"/>
+    </row>
+    <row r="646" spans="1:1">
+      <c r="A646"/>
+    </row>
+    <row r="647" spans="1:1">
+      <c r="A647"/>
+    </row>
+    <row r="648" spans="1:1">
+      <c r="A648"/>
+    </row>
+    <row r="649" spans="1:1">
+      <c r="A649"/>
+    </row>
+    <row r="650" spans="1:1">
+      <c r="A650"/>
+    </row>
+    <row r="651" spans="1:1">
+      <c r="A651"/>
+    </row>
+    <row r="652" spans="1:1">
+      <c r="A652"/>
+    </row>
+    <row r="653" spans="1:1">
+      <c r="A653"/>
+    </row>
+    <row r="654" spans="1:1">
+      <c r="A654"/>
+    </row>
+    <row r="655" spans="1:1">
+      <c r="A655"/>
+    </row>
+    <row r="656" spans="1:1">
+      <c r="A656"/>
+    </row>
+    <row r="657" spans="1:1">
+      <c r="A657"/>
+    </row>
+    <row r="658" spans="1:1">
+      <c r="A658"/>
+    </row>
+    <row r="659" spans="1:1">
+      <c r="A659"/>
+    </row>
+    <row r="660" spans="1:1">
+      <c r="A660"/>
+    </row>
+    <row r="661" spans="1:1">
+      <c r="A661"/>
+    </row>
+    <row r="662" spans="1:1">
+      <c r="A662"/>
+    </row>
+    <row r="663" spans="1:1">
+      <c r="A663"/>
+    </row>
+    <row r="664" spans="1:1">
+      <c r="A664"/>
+    </row>
+    <row r="665" spans="1:1">
+      <c r="A665"/>
+    </row>
+    <row r="666" spans="1:1">
+      <c r="A666"/>
+    </row>
+    <row r="667" spans="1:1">
+      <c r="A667"/>
+    </row>
+    <row r="668" spans="1:1">
+      <c r="A668"/>
+    </row>
+    <row r="669" spans="1:1">
+      <c r="A669"/>
+    </row>
+    <row r="670" spans="1:1">
+      <c r="A670"/>
+    </row>
+    <row r="671" spans="1:1">
+      <c r="A671"/>
+    </row>
+    <row r="672" spans="1:1">
+      <c r="A672"/>
+    </row>
+    <row r="673" spans="1:1">
+      <c r="A673"/>
+    </row>
+    <row r="674" spans="1:1">
+      <c r="A674"/>
+    </row>
+    <row r="675" spans="1:1">
+      <c r="A675"/>
+    </row>
+    <row r="676" spans="1:1">
+      <c r="A676"/>
+    </row>
+    <row r="677" spans="1:1">
+      <c r="A677"/>
+    </row>
+    <row r="678" spans="1:1">
+      <c r="A678"/>
+    </row>
+    <row r="679" spans="1:1">
+      <c r="A679"/>
+    </row>
+    <row r="680" spans="1:1">
+      <c r="A680"/>
+    </row>
+    <row r="681" spans="1:1">
+      <c r="A681"/>
+    </row>
+    <row r="682" spans="1:1">
+      <c r="A682"/>
+    </row>
+    <row r="683" spans="1:1">
+      <c r="A683"/>
+    </row>
+    <row r="684" spans="1:1">
+      <c r="A684"/>
+    </row>
+    <row r="685" spans="1:1">
+      <c r="A685"/>
+    </row>
+    <row r="686" spans="1:1">
+      <c r="A686"/>
+    </row>
+    <row r="687" spans="1:1">
+      <c r="A687"/>
+    </row>
+    <row r="688" spans="1:1">
+      <c r="A688"/>
+    </row>
+    <row r="689" spans="1:1">
+      <c r="A689"/>
+    </row>
+    <row r="690" spans="1:1">
+      <c r="A690"/>
+    </row>
+    <row r="691" spans="1:1">
+      <c r="A691"/>
+    </row>
+    <row r="692" spans="1:1">
+      <c r="A692"/>
+    </row>
+    <row r="693" spans="1:1">
+      <c r="A693"/>
+    </row>
+    <row r="694" spans="1:1">
+      <c r="A694"/>
+    </row>
+    <row r="695" spans="1:1">
+      <c r="A695"/>
+    </row>
+    <row r="696" spans="1:1">
+      <c r="A696"/>
+    </row>
+    <row r="697" spans="1:1">
+      <c r="A697"/>
+    </row>
+    <row r="698" spans="1:1">
+      <c r="A698"/>
+    </row>
+    <row r="699" spans="1:1">
+      <c r="A699"/>
+    </row>
+    <row r="700" spans="1:1">
+      <c r="A700"/>
+    </row>
+    <row r="701" spans="1:1">
+      <c r="A701"/>
+    </row>
+    <row r="702" spans="1:1">
+      <c r="A702"/>
+    </row>
+    <row r="703" spans="1:1">
+      <c r="A703"/>
+    </row>
+    <row r="704" spans="1:1">
+      <c r="A704"/>
+    </row>
+    <row r="705" spans="1:1">
+      <c r="A705"/>
+    </row>
+    <row r="706" spans="1:1">
+      <c r="A706"/>
+    </row>
+    <row r="707" spans="1:1">
+      <c r="A707"/>
+    </row>
+    <row r="708" spans="1:1">
+      <c r="A708"/>
+    </row>
+    <row r="709" spans="1:1">
+      <c r="A709"/>
+    </row>
+    <row r="710" spans="1:1">
+      <c r="A710"/>
+    </row>
+    <row r="711" spans="1:1">
+      <c r="A711"/>
+    </row>
+    <row r="712" spans="1:1">
+      <c r="A712"/>
+    </row>
+    <row r="713" spans="1:1">
+      <c r="A713"/>
+    </row>
+    <row r="714" spans="1:1">
+      <c r="A714"/>
+    </row>
+    <row r="715" spans="1:1">
+      <c r="A715"/>
+    </row>
+    <row r="716" spans="1:1">
+      <c r="A716"/>
+    </row>
+    <row r="717" spans="1:1">
+      <c r="A717"/>
+    </row>
+    <row r="718" spans="1:1">
+      <c r="A718"/>
+    </row>
+    <row r="719" spans="1:1">
+      <c r="A719"/>
+    </row>
+    <row r="720" spans="1:1">
+      <c r="A720"/>
+    </row>
+    <row r="721" spans="1:1">
+      <c r="A721"/>
+    </row>
+    <row r="722" spans="1:1">
+      <c r="A722"/>
+    </row>
+    <row r="723" spans="1:1">
+      <c r="A723"/>
+    </row>
+    <row r="724" spans="1:1">
+      <c r="A724"/>
+    </row>
+    <row r="725" spans="1:1">
+      <c r="A725"/>
+    </row>
+    <row r="726" spans="1:1">
+      <c r="A726"/>
+    </row>
+    <row r="727" spans="1:1">
+      <c r="A727"/>
+    </row>
+    <row r="728" spans="1:1">
+      <c r="A728"/>
+    </row>
+    <row r="729" spans="1:1">
+      <c r="A729"/>
+    </row>
+    <row r="730" spans="1:1">
+      <c r="A730"/>
+    </row>
+    <row r="731" spans="1:1">
+      <c r="A731"/>
+    </row>
+    <row r="732" spans="1:1">
+      <c r="A732"/>
+    </row>
+    <row r="733" spans="1:1">
+      <c r="A733"/>
+    </row>
+    <row r="734" spans="1:1">
+      <c r="A734"/>
+    </row>
+    <row r="735" spans="1:1">
+      <c r="A735"/>
+    </row>
+    <row r="736" spans="1:1">
+      <c r="A736"/>
+    </row>
+    <row r="737" spans="1:1">
+      <c r="A737"/>
+    </row>
+    <row r="738" spans="1:1">
+      <c r="A738"/>
+    </row>
+    <row r="739" spans="1:1">
+      <c r="A739"/>
+    </row>
+    <row r="740" spans="1:1">
+      <c r="A740"/>
+    </row>
+    <row r="741" spans="1:1">
+      <c r="A741"/>
+    </row>
+    <row r="742" spans="1:1">
+      <c r="A742"/>
+    </row>
+    <row r="743" spans="1:1">
+      <c r="A743"/>
+    </row>
+    <row r="744" spans="1:1">
+      <c r="A744"/>
+    </row>
+    <row r="745" spans="1:1">
+      <c r="A745"/>
+    </row>
+    <row r="746" spans="1:1">
+      <c r="A746"/>
+    </row>
+    <row r="747" spans="1:1">
+      <c r="A747"/>
+    </row>
+    <row r="748" spans="1:1">
+      <c r="A748"/>
+    </row>
+    <row r="749" spans="1:1">
+      <c r="A749"/>
+    </row>
+    <row r="750" spans="1:1">
+      <c r="A750"/>
+    </row>
+    <row r="751" spans="1:1">
+      <c r="A751"/>
+    </row>
+    <row r="752" spans="1:1">
+      <c r="A752"/>
+    </row>
+    <row r="753" spans="1:1">
+      <c r="A753"/>
+    </row>
+    <row r="754" spans="1:1">
+      <c r="A754"/>
+    </row>
+    <row r="755" spans="1:1">
+      <c r="A755"/>
+    </row>
+    <row r="756" spans="1:1">
+      <c r="A756"/>
+    </row>
+    <row r="757" spans="1:1">
+      <c r="A757"/>
+    </row>
+    <row r="758" spans="1:1">
+      <c r="A758"/>
+    </row>
+    <row r="759" spans="1:1">
+      <c r="A759"/>
+    </row>
+    <row r="760" spans="1:1">
+      <c r="A760"/>
+    </row>
+    <row r="761" spans="1:1">
+      <c r="A761"/>
+    </row>
+    <row r="762" spans="1:1">
+      <c r="A762"/>
+    </row>
+    <row r="763" spans="1:1">
+      <c r="A763"/>
+    </row>
+    <row r="764" spans="1:1">
+      <c r="A764"/>
+    </row>
+    <row r="765" spans="1:1">
+      <c r="A765"/>
+    </row>
+    <row r="766" spans="1:1">
+      <c r="A766"/>
+    </row>
+    <row r="767" spans="1:1">
+      <c r="A767"/>
+    </row>
+    <row r="768" spans="1:1">
+      <c r="A768"/>
+    </row>
+    <row r="769" spans="1:1">
+      <c r="A769"/>
+    </row>
+    <row r="770" spans="1:1">
+      <c r="A770"/>
+    </row>
+    <row r="771" spans="1:1">
+      <c r="A771"/>
+    </row>
+    <row r="772" spans="1:1">
+      <c r="A772"/>
+    </row>
+    <row r="773" spans="1:1">
+      <c r="A773"/>
+    </row>
+    <row r="774" spans="1:1">
+      <c r="A774"/>
+    </row>
+    <row r="775" spans="1:1">
+      <c r="A775"/>
+    </row>
+    <row r="776" spans="1:1">
+      <c r="A776"/>
+    </row>
+    <row r="777" spans="1:1">
+      <c r="A777"/>
+    </row>
+    <row r="778" spans="1:1">
+      <c r="A778"/>
+    </row>
+    <row r="779" spans="1:1">
+      <c r="A779"/>
+    </row>
+    <row r="780" spans="1:1">
+      <c r="A780"/>
+    </row>
+    <row r="781" spans="1:1">
+      <c r="A781"/>
+    </row>
+    <row r="782" spans="1:1">
+      <c r="A782"/>
+    </row>
+    <row r="783" spans="1:1">
+      <c r="A783"/>
+    </row>
+    <row r="784" spans="1:1">
+      <c r="A784"/>
+    </row>
+    <row r="785" spans="1:1">
+      <c r="A785"/>
+    </row>
+    <row r="786" spans="1:1">
+      <c r="A786"/>
+    </row>
+    <row r="787" spans="1:1">
+      <c r="A787"/>
+    </row>
+    <row r="788" spans="1:1">
+      <c r="A788"/>
+    </row>
+    <row r="789" spans="1:1">
+      <c r="A789"/>
+    </row>
+    <row r="790" spans="1:1">
+      <c r="A790"/>
+    </row>
+    <row r="791" spans="1:1">
+      <c r="A791"/>
+    </row>
+    <row r="792" spans="1:1">
+      <c r="A792"/>
+    </row>
+    <row r="793" spans="1:1">
+      <c r="A793"/>
+    </row>
+    <row r="794" spans="1:1">
+      <c r="A794"/>
+    </row>
+    <row r="795" spans="1:1">
+      <c r="A795"/>
+    </row>
+    <row r="796" spans="1:1">
+      <c r="A796"/>
+    </row>
+    <row r="797" spans="1:1">
+      <c r="A797"/>
+    </row>
+    <row r="798" spans="1:1">
+      <c r="A798"/>
+    </row>
+    <row r="799" spans="1:1">
+      <c r="A799"/>
+    </row>
+    <row r="800" spans="1:1">
+      <c r="A800"/>
+    </row>
+    <row r="801" spans="1:1">
+      <c r="A801"/>
+    </row>
+    <row r="802" spans="1:1">
+      <c r="A802"/>
+    </row>
+    <row r="803" spans="1:1">
+      <c r="A803"/>
+    </row>
+    <row r="804" spans="1:1">
+      <c r="A804"/>
+    </row>
+    <row r="805" spans="1:1">
+      <c r="A805"/>
+    </row>
+    <row r="806" spans="1:1">
+      <c r="A806"/>
+    </row>
+    <row r="807" spans="1:1">
+      <c r="A807"/>
+    </row>
+    <row r="808" spans="1:1">
+      <c r="A808"/>
+    </row>
+    <row r="809" spans="1:1">
+      <c r="A809"/>
+    </row>
+    <row r="810" spans="1:1">
+      <c r="A810"/>
+    </row>
+    <row r="811" spans="1:1">
+      <c r="A811"/>
+    </row>
+    <row r="812" spans="1:1">
+      <c r="A812"/>
+    </row>
+    <row r="813" spans="1:1">
+      <c r="A813"/>
+    </row>
+    <row r="814" spans="1:1">
+      <c r="A814"/>
+    </row>
+    <row r="815" spans="1:1">
+      <c r="A815"/>
+    </row>
+    <row r="816" spans="1:1">
+      <c r="A816"/>
+    </row>
+    <row r="817" spans="1:1">
+      <c r="A817"/>
+    </row>
+    <row r="818" spans="1:1">
+      <c r="A818"/>
+    </row>
+    <row r="819" spans="1:1">
+      <c r="A819"/>
+    </row>
+    <row r="820" spans="1:1">
+      <c r="A820"/>
+    </row>
+    <row r="821" spans="1:1">
+      <c r="A821"/>
+    </row>
+    <row r="822" spans="1:1">
+      <c r="A822"/>
+    </row>
+    <row r="823" spans="1:1">
+      <c r="A823"/>
+    </row>
+    <row r="824" spans="1:1">
+      <c r="A824"/>
+    </row>
+    <row r="825" spans="1:1">
+      <c r="A825"/>
+    </row>
+    <row r="826" spans="1:1">
+      <c r="A826"/>
+    </row>
+    <row r="827" spans="1:1">
+      <c r="A827"/>
+    </row>
+    <row r="828" spans="1:1">
+      <c r="A828"/>
+    </row>
+    <row r="829" spans="1:1">
+      <c r="A829"/>
+    </row>
+    <row r="830" spans="1:1">
+      <c r="A830"/>
+    </row>
+    <row r="831" spans="1:1">
+      <c r="A831"/>
+    </row>
+    <row r="832" spans="1:1">
+      <c r="A832"/>
+    </row>
+    <row r="833" spans="1:1">
+      <c r="A833"/>
+    </row>
+    <row r="834" spans="1:1">
+      <c r="A834"/>
+    </row>
+    <row r="835" spans="1:1">
+      <c r="A835"/>
+    </row>
+    <row r="836" spans="1:1">
+      <c r="A836"/>
+    </row>
+    <row r="837" spans="1:1">
+      <c r="A837"/>
+    </row>
+    <row r="838" spans="1:1">
+      <c r="A838"/>
+    </row>
+    <row r="839" spans="1:1">
+      <c r="A839"/>
+    </row>
+    <row r="840" spans="1:1">
+      <c r="A840"/>
+    </row>
+    <row r="841" spans="1:1">
+      <c r="A841"/>
+    </row>
+    <row r="842" spans="1:1">
+      <c r="A842"/>
+    </row>
+    <row r="843" spans="1:1">
+      <c r="A843"/>
+    </row>
+    <row r="844" spans="1:1">
+      <c r="A844"/>
+    </row>
+    <row r="845" spans="1:1">
+      <c r="A845"/>
+    </row>
+    <row r="846" spans="1:1">
+      <c r="A846"/>
+    </row>
+    <row r="847" spans="1:1">
+      <c r="A847"/>
+    </row>
+    <row r="848" spans="1:1">
+      <c r="A848"/>
+    </row>
+    <row r="849" spans="1:1">
+      <c r="A849"/>
+    </row>
+    <row r="850" spans="1:1">
+      <c r="A850"/>
+    </row>
+    <row r="851" spans="1:1">
+      <c r="A851"/>
+    </row>
+    <row r="852" spans="1:1">
+      <c r="A852"/>
+    </row>
+    <row r="853" spans="1:1">
+      <c r="A853"/>
+    </row>
+    <row r="854" spans="1:1">
+      <c r="A854"/>
+    </row>
+    <row r="855" spans="1:1">
+      <c r="A855"/>
+    </row>
+    <row r="856" spans="1:1">
+      <c r="A856"/>
+    </row>
+    <row r="857" spans="1:1">
+      <c r="A857"/>
+    </row>
+    <row r="858" spans="1:1">
+      <c r="A858"/>
+    </row>
+    <row r="859" spans="1:1">
+      <c r="A859"/>
+    </row>
+    <row r="860" spans="1:1">
+      <c r="A860"/>
+    </row>
+    <row r="861" spans="1:1">
+      <c r="A861"/>
+    </row>
+    <row r="862" spans="1:1">
+      <c r="A862"/>
+    </row>
+    <row r="863" spans="1:1">
+      <c r="A863"/>
+    </row>
+    <row r="864" spans="1:1">
+      <c r="A864"/>
+    </row>
+    <row r="865" spans="1:1">
+      <c r="A865"/>
+    </row>
+    <row r="866" spans="1:1">
+      <c r="A866"/>
+    </row>
+    <row r="867" spans="1:1">
+      <c r="A867"/>
+    </row>
+    <row r="868" spans="1:1">
+      <c r="A868"/>
+    </row>
+    <row r="869" spans="1:1">
+      <c r="A869"/>
+    </row>
+    <row r="870" spans="1:1">
+      <c r="A870"/>
+    </row>
+    <row r="871" spans="1:1">
+      <c r="A871"/>
+    </row>
+    <row r="872" spans="1:1">
+      <c r="A872"/>
+    </row>
+    <row r="873" spans="1:1">
+      <c r="A873"/>
+    </row>
+    <row r="874" spans="1:1">
+      <c r="A874"/>
+    </row>
+    <row r="875" spans="1:1">
+      <c r="A875"/>
+    </row>
+    <row r="876" spans="1:1">
+      <c r="A876"/>
+    </row>
+    <row r="877" spans="1:1">
+      <c r="A877"/>
+    </row>
+    <row r="878" spans="1:1">
+      <c r="A878"/>
+    </row>
+    <row r="879" spans="1:1">
+      <c r="A879"/>
+    </row>
+    <row r="880" spans="1:1">
+      <c r="A880"/>
+    </row>
+    <row r="881" spans="1:1">
+      <c r="A881"/>
+    </row>
+    <row r="882" spans="1:1">
+      <c r="A882"/>
+    </row>
+    <row r="883" spans="1:1">
+      <c r="A883"/>
+    </row>
+    <row r="884" spans="1:1">
+      <c r="A884"/>
+    </row>
+    <row r="885" spans="1:1">
+      <c r="A885"/>
+    </row>
+    <row r="886" spans="1:1">
+      <c r="A886"/>
+    </row>
+    <row r="887" spans="1:1">
+      <c r="A887"/>
+    </row>
+    <row r="888" spans="1:1">
+      <c r="A888"/>
+    </row>
+    <row r="889" spans="1:1">
+      <c r="A889"/>
+    </row>
+    <row r="890" spans="1:1">
+      <c r="A890"/>
+    </row>
+    <row r="891" spans="1:1">
+      <c r="A891"/>
+    </row>
+    <row r="892" spans="1:1">
+      <c r="A892"/>
+    </row>
+    <row r="893" spans="1:1">
+      <c r="A893"/>
+    </row>
+    <row r="894" spans="1:1">
+      <c r="A894"/>
+    </row>
+    <row r="895" spans="1:1">
+      <c r="A895"/>
+    </row>
+    <row r="896" spans="1:1">
+      <c r="A896"/>
+    </row>
+    <row r="897" spans="1:1">
+      <c r="A897"/>
+    </row>
+    <row r="898" spans="1:1">
+      <c r="A898"/>
+    </row>
+    <row r="899" spans="1:1">
+      <c r="A899"/>
+    </row>
+    <row r="900" spans="1:1">
+      <c r="A900"/>
+    </row>
+    <row r="901" spans="1:1">
+      <c r="A901"/>
+    </row>
+    <row r="902" spans="1:1">
+      <c r="A902"/>
+    </row>
+    <row r="903" spans="1:1">
+      <c r="A903"/>
+    </row>
+    <row r="904" spans="1:1">
+      <c r="A904"/>
+    </row>
+    <row r="905" spans="1:1">
+      <c r="A905"/>
+    </row>
+    <row r="906" spans="1:1">
+      <c r="A906"/>
+    </row>
+    <row r="907" spans="1:1">
+      <c r="A907"/>
+    </row>
+    <row r="908" spans="1:1">
+      <c r="A908"/>
+    </row>
+    <row r="909" spans="1:1">
+      <c r="A909"/>
+    </row>
+    <row r="910" spans="1:1">
+      <c r="A910"/>
+    </row>
+    <row r="911" spans="1:1">
+      <c r="A911"/>
+    </row>
+    <row r="912" spans="1:1">
+      <c r="A912"/>
+    </row>
+    <row r="913" spans="1:1">
+      <c r="A913"/>
+    </row>
+    <row r="914" spans="1:1">
+      <c r="A914"/>
+    </row>
+    <row r="915" spans="1:1">
+      <c r="A915"/>
+    </row>
+    <row r="916" spans="1:1">
+      <c r="A916"/>
+    </row>
+    <row r="917" spans="1:1">
+      <c r="A917"/>
+    </row>
+    <row r="918" spans="1:1">
+      <c r="A918"/>
+    </row>
+    <row r="919" spans="1:1">
+      <c r="A919"/>
+    </row>
+    <row r="920" spans="1:1">
+      <c r="A920"/>
+    </row>
+    <row r="921" spans="1:1">
+      <c r="A921"/>
+    </row>
+    <row r="922" spans="1:1">
+      <c r="A922"/>
+    </row>
+    <row r="923" spans="1:1">
+      <c r="A923"/>
+    </row>
+    <row r="924" spans="1:1">
+      <c r="A924"/>
+    </row>
+    <row r="925" spans="1:1">
+      <c r="A925"/>
+    </row>
+    <row r="926" spans="1:1">
+      <c r="A926"/>
+    </row>
+    <row r="927" spans="1:1">
+      <c r="A927"/>
+    </row>
+    <row r="928" spans="1:1">
+      <c r="A928"/>
+    </row>
+    <row r="929" spans="1:1">
+      <c r="A929"/>
+    </row>
+    <row r="930" spans="1:1">
+      <c r="A930"/>
+    </row>
+    <row r="931" spans="1:1">
+      <c r="A931"/>
+    </row>
+    <row r="932" spans="1:1">
+      <c r="A932"/>
+    </row>
+    <row r="933" spans="1:1">
+      <c r="A933"/>
+    </row>
+    <row r="934" spans="1:1">
+      <c r="A934"/>
+    </row>
+    <row r="935" spans="1:1">
+      <c r="A935"/>
+    </row>
+    <row r="936" spans="1:1">
+      <c r="A936"/>
+    </row>
+    <row r="937" spans="1:1">
+      <c r="A937"/>
+    </row>
+    <row r="938" spans="1:1">
+      <c r="A938"/>
+    </row>
+    <row r="939" spans="1:1">
+      <c r="A939"/>
+    </row>
+    <row r="940" spans="1:1">
+      <c r="A940"/>
+    </row>
+    <row r="941" spans="1:1">
+      <c r="A941"/>
+    </row>
+    <row r="942" spans="1:1">
+      <c r="A942"/>
+    </row>
+    <row r="943" spans="1:1">
+      <c r="A943"/>
+    </row>
+    <row r="944" spans="1:1">
+      <c r="A944"/>
+    </row>
+    <row r="945" spans="1:1">
+      <c r="A945"/>
+    </row>
+    <row r="946" spans="1:1">
+      <c r="A946"/>
+    </row>
+    <row r="947" spans="1:1">
+      <c r="A947"/>
+    </row>
+    <row r="948" spans="1:1">
+      <c r="A948"/>
+    </row>
+    <row r="949" spans="1:1">
+      <c r="A949"/>
+    </row>
+    <row r="950" spans="1:1">
+      <c r="A950"/>
+    </row>
+    <row r="951" spans="1:1">
+      <c r="A951"/>
+    </row>
+    <row r="952" spans="1:1">
+      <c r="A952"/>
+    </row>
+    <row r="953" spans="1:1">
+      <c r="A953"/>
+    </row>
+    <row r="954" spans="1:1">
+      <c r="A954"/>
+    </row>
+    <row r="955" spans="1:1">
+      <c r="A955"/>
+    </row>
+    <row r="956" spans="1:1">
+      <c r="A956"/>
+    </row>
+    <row r="957" spans="1:1">
+      <c r="A957"/>
+    </row>
+    <row r="958" spans="1:1">
+      <c r="A958"/>
+    </row>
+    <row r="959" spans="1:1">
+      <c r="A959"/>
+    </row>
+    <row r="960" spans="1:1">
+      <c r="A960"/>
+    </row>
+    <row r="961" spans="1:1">
+      <c r="A961"/>
+    </row>
+    <row r="962" spans="1:1">
+      <c r="A962"/>
+    </row>
+    <row r="963" spans="1:1">
+      <c r="A963"/>
+    </row>
+    <row r="964" spans="1:1">
+      <c r="A964"/>
+    </row>
+    <row r="965" spans="1:1">
+      <c r="A965"/>
+    </row>
+    <row r="966" spans="1:1">
+      <c r="A966"/>
+    </row>
+    <row r="967" spans="1:1">
+      <c r="A967"/>
+    </row>
+    <row r="968" spans="1:1">
+      <c r="A968"/>
+    </row>
+    <row r="969" spans="1:1">
+      <c r="A969"/>
+    </row>
+    <row r="970" spans="1:1">
+      <c r="A970"/>
+    </row>
+    <row r="971" spans="1:1">
+      <c r="A971"/>
+    </row>
+    <row r="972" spans="1:1">
+      <c r="A972"/>
+    </row>
+    <row r="973" spans="1:1">
+      <c r="A973"/>
+    </row>
+    <row r="974" spans="1:1">
+      <c r="A974"/>
+    </row>
+    <row r="975" spans="1:1">
+      <c r="A975"/>
+    </row>
+    <row r="976" spans="1:1">
+      <c r="A976"/>
+    </row>
+    <row r="977" spans="1:1">
+      <c r="A977"/>
+    </row>
+    <row r="978" spans="1:1">
+      <c r="A978"/>
+    </row>
+    <row r="979" spans="1:1">
+      <c r="A979"/>
+    </row>
+    <row r="980" spans="1:1">
+      <c r="A980"/>
+    </row>
+    <row r="981" spans="1:1">
+      <c r="A981"/>
+    </row>
+    <row r="982" spans="1:1">
+      <c r="A982"/>
+    </row>
+    <row r="983" spans="1:1">
+      <c r="A983"/>
+    </row>
+    <row r="984" spans="1:1">
+      <c r="A984"/>
+    </row>
+    <row r="985" spans="1:1">
+      <c r="A985"/>
+    </row>
+    <row r="986" spans="1:1">
+      <c r="A986"/>
+    </row>
+    <row r="987" spans="1:1">
+      <c r="A987"/>
+    </row>
+    <row r="988" spans="1:1">
+      <c r="A988"/>
+    </row>
+    <row r="989" spans="1:1">
+      <c r="A989"/>
+    </row>
+    <row r="990" spans="1:1">
+      <c r="A990"/>
+    </row>
+    <row r="991" spans="1:1">
+      <c r="A991"/>
+    </row>
+    <row r="992" spans="1:1">
+      <c r="A992"/>
+    </row>
+    <row r="993" spans="1:1">
+      <c r="A993"/>
+    </row>
+    <row r="994" spans="1:1">
+      <c r="A994"/>
+    </row>
+    <row r="995" spans="1:1">
+      <c r="A995"/>
+    </row>
+    <row r="996" spans="1:1">
+      <c r="A996"/>
+    </row>
+    <row r="997" spans="1:1">
+      <c r="A997"/>
+    </row>
+    <row r="998" spans="1:1">
+      <c r="A998"/>
+    </row>
+    <row r="999" spans="1:1">
+      <c r="A999"/>
+    </row>
+    <row r="1000" spans="1:1">
+      <c r="A1000"/>
+    </row>
+    <row r="1001" spans="1:1">
+      <c r="A1001"/>
+    </row>
+    <row r="1002" spans="1:1">
+      <c r="A1002"/>
+    </row>
+    <row r="1003" spans="1:1">
+      <c r="A1003"/>
+    </row>
+    <row r="1004" spans="1:1">
+      <c r="A1004"/>
+    </row>
+    <row r="1005" spans="1:1">
+      <c r="A1005"/>
+    </row>
+    <row r="1006" spans="1:1">
+      <c r="A1006"/>
+    </row>
+    <row r="1007" spans="1:1">
+      <c r="A1007"/>
+    </row>
+    <row r="1008" spans="1:1">
+      <c r="A1008"/>
+    </row>
+    <row r="1009" spans="1:1">
+      <c r="A1009"/>
+    </row>
+    <row r="1010" spans="1:1">
+      <c r="A1010"/>
+    </row>
+    <row r="1011" spans="1:1">
+      <c r="A1011"/>
+    </row>
+    <row r="1012" spans="1:1">
+      <c r="A1012"/>
+    </row>
+    <row r="1013" spans="1:1">
+      <c r="A1013"/>
+    </row>
+    <row r="1014" spans="1:1">
+      <c r="A1014"/>
+    </row>
+    <row r="1015" spans="1:1">
+      <c r="A1015"/>
+    </row>
+    <row r="1016" spans="1:1">
+      <c r="A1016"/>
+    </row>
+    <row r="1017" spans="1:1">
+      <c r="A1017"/>
+    </row>
+    <row r="1018" spans="1:1">
+      <c r="A1018"/>
+    </row>
+    <row r="1019" spans="1:1">
+      <c r="A1019"/>
+    </row>
+    <row r="1020" spans="1:1">
+      <c r="A1020"/>
+    </row>
+    <row r="1021" spans="1:1">
+      <c r="A1021"/>
+    </row>
+    <row r="1022" spans="1:1">
+      <c r="A1022"/>
+    </row>
+    <row r="1023" spans="1:1">
+      <c r="A1023"/>
+    </row>
+    <row r="1024" spans="1:1">
+      <c r="A1024"/>
+    </row>
+    <row r="1025" spans="1:1">
+      <c r="A1025"/>
+    </row>
+    <row r="1026" spans="1:1">
+      <c r="A1026"/>
+    </row>
+    <row r="1027" spans="1:1">
+      <c r="A1027"/>
+    </row>
+    <row r="1028" spans="1:1">
+      <c r="A1028"/>
+    </row>
+    <row r="1029" spans="1:1">
+      <c r="A1029"/>
+    </row>
+    <row r="1030" spans="1:1">
+      <c r="A1030"/>
+    </row>
+    <row r="1031" spans="1:1">
+      <c r="A1031"/>
+    </row>
+    <row r="1032" spans="1:1">
+      <c r="A1032"/>
+    </row>
+    <row r="1033" spans="1:1">
+      <c r="A1033"/>
+    </row>
+    <row r="1034" spans="1:1">
+      <c r="A1034"/>
+    </row>
+    <row r="1035" spans="1:1">
+      <c r="A1035"/>
+    </row>
+    <row r="1036" spans="1:1">
+      <c r="A1036"/>
+    </row>
+    <row r="1037" spans="1:1">
+      <c r="A1037"/>
+    </row>
+    <row r="1038" spans="1:1">
+      <c r="A1038"/>
+    </row>
+    <row r="1039" spans="1:1">
+      <c r="A1039"/>
+    </row>
+    <row r="1040" spans="1:1">
+      <c r="A1040"/>
+    </row>
+    <row r="1041" spans="1:1">
+      <c r="A1041"/>
+    </row>
+    <row r="1042" spans="1:1">
+      <c r="A1042"/>
+    </row>
+    <row r="1043" spans="1:1">
+      <c r="A1043"/>
+    </row>
+    <row r="1044" spans="1:1">
+      <c r="A1044"/>
+    </row>
+    <row r="1045" spans="1:1">
+      <c r="A1045"/>
+    </row>
+    <row r="1046" spans="1:1">
+      <c r="A1046"/>
+    </row>
+    <row r="1047" spans="1:1">
+      <c r="A1047"/>
+    </row>
+    <row r="1048" spans="1:1">
+      <c r="A1048"/>
+    </row>
+    <row r="1049" spans="1:1">
+      <c r="A1049"/>
+    </row>
+    <row r="1050" spans="1:1">
+      <c r="A1050"/>
+    </row>
+    <row r="1051" spans="1:1">
+      <c r="A1051"/>
+    </row>
+    <row r="1052" spans="1:1">
+      <c r="A1052"/>
+    </row>
+    <row r="1053" spans="1:1">
+      <c r="A1053"/>
+    </row>
+    <row r="1054" spans="1:1">
+      <c r="A1054"/>
+    </row>
+    <row r="1055" spans="1:1">
+      <c r="A1055"/>
+    </row>
+    <row r="1056" spans="1:1">
+      <c r="A1056"/>
+    </row>
+    <row r="1057" spans="1:1">
+      <c r="A1057"/>
+    </row>
+    <row r="1058" spans="1:1">
+      <c r="A1058"/>
+    </row>
+    <row r="1059" spans="1:1">
+      <c r="A1059"/>
+    </row>
+    <row r="1060" spans="1:1">
+      <c r="A1060"/>
+    </row>
+    <row r="1061" spans="1:1">
+      <c r="A1061"/>
+    </row>
+    <row r="1062" spans="1:1">
+      <c r="A1062"/>
+    </row>
+    <row r="1063" spans="1:1">
+      <c r="A1063"/>
+    </row>
+    <row r="1064" spans="1:1">
+      <c r="A1064"/>
+    </row>
+    <row r="1065" spans="1:1">
+      <c r="A1065"/>
+    </row>
+    <row r="1066" spans="1:1">
+      <c r="A1066"/>
+    </row>
+    <row r="1067" spans="1:1">
+      <c r="A1067"/>
+    </row>
+    <row r="1068" spans="1:1">
+      <c r="A1068"/>
+    </row>
+    <row r="1069" spans="1:1">
+      <c r="A1069"/>
+    </row>
+    <row r="1070" spans="1:1">
+      <c r="A1070"/>
+    </row>
+    <row r="1071" spans="1:1">
+      <c r="A1071"/>
+    </row>
+    <row r="1072" spans="1:1">
+      <c r="A1072"/>
+    </row>
+    <row r="1073" spans="1:1">
+      <c r="A1073"/>
+    </row>
+    <row r="1074" spans="1:1">
+      <c r="A1074"/>
+    </row>
+    <row r="1075" spans="1:1">
+      <c r="A1075"/>
+    </row>
+    <row r="1076" spans="1:1">
+      <c r="A1076"/>
+    </row>
+    <row r="1077" spans="1:1">
+      <c r="A1077"/>
+    </row>
+    <row r="1078" spans="1:1">
+      <c r="A1078"/>
+    </row>
+    <row r="1079" spans="1:1">
+      <c r="A1079"/>
+    </row>
+    <row r="1080" spans="1:1">
+      <c r="A1080"/>
+    </row>
+    <row r="1081" spans="1:1">
+      <c r="A1081"/>
+    </row>
+    <row r="1082" spans="1:1">
+      <c r="A1082"/>
+    </row>
+    <row r="1083" spans="1:1">
+      <c r="A1083"/>
+    </row>
+    <row r="1084" spans="1:1">
+      <c r="A1084"/>
+    </row>
+    <row r="1085" spans="1:1">
+      <c r="A1085"/>
+    </row>
+    <row r="1086" spans="1:1">
+      <c r="A1086"/>
+    </row>
+    <row r="1087" spans="1:1">
+      <c r="A1087"/>
+    </row>
+    <row r="1088" spans="1:1">
+      <c r="A1088"/>
+    </row>
+    <row r="1089" spans="1:1">
+      <c r="A1089"/>
+    </row>
+    <row r="1090" spans="1:1">
+      <c r="A1090"/>
+    </row>
+    <row r="1091" spans="1:1">
+      <c r="A1091"/>
+    </row>
+    <row r="1092" spans="1:1">
+      <c r="A1092"/>
+    </row>
+    <row r="1093" spans="1:1">
+      <c r="A1093"/>
+    </row>
+    <row r="1094" spans="1:1">
+      <c r="A1094"/>
+    </row>
+    <row r="1095" spans="1:1">
+      <c r="A1095"/>
+    </row>
+    <row r="1096" spans="1:1">
+      <c r="A1096"/>
+    </row>
+    <row r="1097" spans="1:1">
+      <c r="A1097"/>
+    </row>
+    <row r="1098" spans="1:1">
+      <c r="A1098"/>
+    </row>
+    <row r="1099" spans="1:1">
+      <c r="A1099"/>
+    </row>
+    <row r="1100" spans="1:1">
+      <c r="A1100"/>
+    </row>
+    <row r="1101" spans="1:1">
+      <c r="A1101"/>
+    </row>
+    <row r="1102" spans="1:1">
+      <c r="A1102"/>
+    </row>
+    <row r="1103" spans="1:1">
+      <c r="A1103"/>
+    </row>
+    <row r="1104" spans="1:1">
+      <c r="A1104"/>
+    </row>
+    <row r="1105" spans="1:1">
+      <c r="A1105"/>
+    </row>
+    <row r="1106" spans="1:1">
+      <c r="A1106"/>
+    </row>
+    <row r="1107" spans="1:1">
+      <c r="A1107"/>
+    </row>
+    <row r="1108" spans="1:1">
+      <c r="A1108"/>
+    </row>
+    <row r="1109" spans="1:1">
+      <c r="A1109"/>
+    </row>
+    <row r="1110" spans="1:1">
+      <c r="A1110"/>
+    </row>
+    <row r="1111" spans="1:1">
+      <c r="A1111"/>
+    </row>
+    <row r="1112" spans="1:1">
+      <c r="A1112"/>
+    </row>
+    <row r="1113" spans="1:1">
+      <c r="A1113"/>
+    </row>
+    <row r="1114" spans="1:1">
+      <c r="A1114"/>
+    </row>
+    <row r="1115" spans="1:1">
+      <c r="A1115"/>
+    </row>
+    <row r="1116" spans="1:1">
+      <c r="A1116"/>
+    </row>
+    <row r="1117" spans="1:1">
+      <c r="A1117"/>
+    </row>
+    <row r="1118" spans="1:1">
+      <c r="A1118"/>
+    </row>
+    <row r="1119" spans="1:1">
+      <c r="A1119"/>
+    </row>
+    <row r="1120" spans="1:1">
+      <c r="A1120"/>
+    </row>
+    <row r="1121" spans="1:1">
+      <c r="A1121"/>
+    </row>
+    <row r="1122" spans="1:1">
+      <c r="A1122"/>
+    </row>
+    <row r="1123" spans="1:1">
+      <c r="A1123"/>
+    </row>
+    <row r="1124" spans="1:1">
+      <c r="A1124"/>
+    </row>
+    <row r="1125" spans="1:1">
+      <c r="A1125"/>
+    </row>
+    <row r="1126" spans="1:1">
+      <c r="A1126"/>
+    </row>
+    <row r="1127" spans="1:1">
+      <c r="A1127"/>
+    </row>
+    <row r="1128" spans="1:1">
+      <c r="A1128"/>
+    </row>
+    <row r="1129" spans="1:1">
+      <c r="A1129"/>
+    </row>
+    <row r="1130" spans="1:1">
+      <c r="A1130"/>
+    </row>
+    <row r="1131" spans="1:1">
+      <c r="A1131"/>
+    </row>
+    <row r="1132" spans="1:1">
+      <c r="A1132"/>
+    </row>
+    <row r="1133" spans="1:1">
+      <c r="A1133"/>
+    </row>
+    <row r="1134" spans="1:1">
+      <c r="A1134"/>
+    </row>
+    <row r="1135" spans="1:1">
+      <c r="A1135"/>
+    </row>
+    <row r="1136" spans="1:1">
+      <c r="A1136"/>
+    </row>
+    <row r="1137" spans="1:1">
+      <c r="A1137"/>
+    </row>
+    <row r="1138" spans="1:1">
+      <c r="A1138"/>
+    </row>
+    <row r="1139" spans="1:1">
+      <c r="A1139"/>
+    </row>
+    <row r="1140" spans="1:1">
+      <c r="A1140"/>
+    </row>
+    <row r="1141" spans="1:1">
+      <c r="A1141"/>
+    </row>
+    <row r="1142" spans="1:1">
+      <c r="A1142"/>
+    </row>
+    <row r="1143" spans="1:1">
+      <c r="A1143"/>
+    </row>
+    <row r="1144" spans="1:1">
+      <c r="A1144"/>
+    </row>
+    <row r="1145" spans="1:1">
+      <c r="A1145"/>
+    </row>
+    <row r="1146" spans="1:1">
+      <c r="A1146"/>
+    </row>
+    <row r="1147" spans="1:1">
+      <c r="A1147"/>
+    </row>
+    <row r="1148" spans="1:1">
+      <c r="A1148"/>
+    </row>
+    <row r="1149" spans="1:1">
+      <c r="A1149"/>
+    </row>
+    <row r="1150" spans="1:1">
+      <c r="A1150"/>
+    </row>
+    <row r="1151" spans="1:1">
+      <c r="A1151"/>
+    </row>
+    <row r="1152" spans="1:1">
+      <c r="A1152"/>
+    </row>
+    <row r="1153" spans="1:1">
+      <c r="A1153"/>
+    </row>
+    <row r="1154" spans="1:1">
+      <c r="A1154"/>
+    </row>
+    <row r="1155" spans="1:1">
+      <c r="A1155"/>
+    </row>
+    <row r="1156" spans="1:1">
+      <c r="A1156"/>
+    </row>
+    <row r="1157" spans="1:1">
+      <c r="A1157"/>
+    </row>
+    <row r="1158" spans="1:1">
+      <c r="A1158"/>
+    </row>
+    <row r="1159" spans="1:1">
+      <c r="A1159"/>
+    </row>
+    <row r="1160" spans="1:1">
+      <c r="A1160"/>
+    </row>
+    <row r="1161" spans="1:1">
+      <c r="A1161"/>
+    </row>
+    <row r="1162" spans="1:1">
+      <c r="A1162"/>
+    </row>
+    <row r="1163" spans="1:1">
+      <c r="A1163"/>
+    </row>
+    <row r="1164" spans="1:1">
+      <c r="A1164"/>
+    </row>
+    <row r="1165" spans="1:1">
+      <c r="A1165"/>
+    </row>
+    <row r="1166" spans="1:1">
+      <c r="A1166"/>
+    </row>
+    <row r="1167" spans="1:1">
+      <c r="A1167"/>
+    </row>
+    <row r="1168" spans="1:1">
+      <c r="A1168"/>
+    </row>
+    <row r="1169" spans="1:1">
+      <c r="A1169"/>
+    </row>
+    <row r="1170" spans="1:1">
+      <c r="A1170"/>
+    </row>
+    <row r="1171" spans="1:1">
+      <c r="A1171"/>
+    </row>
+    <row r="1172" spans="1:1">
+      <c r="A1172"/>
+    </row>
+    <row r="1173" spans="1:1">
+      <c r="A1173"/>
+    </row>
+    <row r="1174" spans="1:1">
+      <c r="A1174"/>
+    </row>
+    <row r="1175" spans="1:1">
+      <c r="A1175"/>
+    </row>
+    <row r="1176" spans="1:1">
+      <c r="A1176"/>
+    </row>
+    <row r="1177" spans="1:1">
+      <c r="A1177"/>
+    </row>
+    <row r="1178" spans="1:1">
+      <c r="A1178"/>
+    </row>
+    <row r="1179" spans="1:1">
+      <c r="A1179"/>
+    </row>
+    <row r="1180" spans="1:1">
+      <c r="A1180"/>
+    </row>
+    <row r="1181" spans="1:1">
+      <c r="A1181"/>
+    </row>
+    <row r="1182" spans="1:1">
+      <c r="A1182"/>
+    </row>
+    <row r="1183" spans="1:1">
+      <c r="A1183"/>
+    </row>
+    <row r="1184" spans="1:1">
+      <c r="A1184"/>
+    </row>
+    <row r="1185" spans="1:1">
+      <c r="A1185"/>
+    </row>
+    <row r="1186" spans="1:1">
+      <c r="A1186"/>
+    </row>
+    <row r="1187" spans="1:1">
+      <c r="A1187"/>
+    </row>
+    <row r="1188" spans="1:1">
+      <c r="A1188"/>
+    </row>
+    <row r="1189" spans="1:1">
+      <c r="A1189"/>
+    </row>
+    <row r="1190" spans="1:1">
+      <c r="A1190"/>
+    </row>
+    <row r="1191" spans="1:1">
+      <c r="A1191"/>
+    </row>
+    <row r="1192" spans="1:1">
+      <c r="A1192"/>
+    </row>
+    <row r="1193" spans="1:1">
+      <c r="A1193"/>
+    </row>
+    <row r="1194" spans="1:1">
+      <c r="A1194"/>
+    </row>
+    <row r="1195" spans="1:1">
+      <c r="A1195"/>
+    </row>
+    <row r="1196" spans="1:1">
+      <c r="A1196"/>
+    </row>
+    <row r="1197" spans="1:1">
+      <c r="A1197"/>
+    </row>
+    <row r="1198" spans="1:1">
+      <c r="A1198"/>
+    </row>
+    <row r="1199" spans="1:1">
+      <c r="A1199"/>
+    </row>
+    <row r="1200" spans="1:1">
+      <c r="A1200"/>
+    </row>
+    <row r="1201" spans="1:1">
+      <c r="A1201"/>
+    </row>
+    <row r="1202" spans="1:1">
+      <c r="A1202"/>
+    </row>
+    <row r="1203" spans="1:1">
+      <c r="A1203"/>
+    </row>
+    <row r="1204" spans="1:1">
+      <c r="A1204"/>
+    </row>
+    <row r="1205" spans="1:1">
+      <c r="A1205"/>
+    </row>
+    <row r="1206" spans="1:1">
+      <c r="A1206"/>
+    </row>
+    <row r="1207" spans="1:1">
+      <c r="A1207"/>
+    </row>
+    <row r="1208" spans="1:1">
+      <c r="A1208"/>
+    </row>
+    <row r="1209" spans="1:1">
+      <c r="A1209"/>
+    </row>
+    <row r="1210" spans="1:1">
+      <c r="A1210"/>
+    </row>
+    <row r="1211" spans="1:1">
+      <c r="A1211"/>
+    </row>
+    <row r="1212" spans="1:1">
+      <c r="A1212"/>
+    </row>
+    <row r="1213" spans="1:1">
+      <c r="A1213"/>
+    </row>
+    <row r="1214" spans="1:1">
+      <c r="A1214"/>
+    </row>
+    <row r="1215" spans="1:1">
+      <c r="A1215"/>
+    </row>
+    <row r="1216" spans="1:1">
+      <c r="A1216"/>
+    </row>
+    <row r="1217" spans="1:1">
+      <c r="A1217"/>
+    </row>
+    <row r="1218" spans="1:1">
+      <c r="A1218"/>
+    </row>
+    <row r="1219" spans="1:1">
+      <c r="A1219"/>
+    </row>
+    <row r="1220" spans="1:1">
+      <c r="A1220"/>
+    </row>
+    <row r="1221" spans="1:1">
+      <c r="A1221"/>
+    </row>
+    <row r="1222" spans="1:1">
+      <c r="A1222"/>
+    </row>
+    <row r="1223" spans="1:1">
+      <c r="A1223"/>
+    </row>
+    <row r="1224" spans="1:1">
+      <c r="A1224"/>
+    </row>
+    <row r="1225" spans="1:1">
+      <c r="A1225"/>
+    </row>
+    <row r="1226" spans="1:1">
+      <c r="A1226"/>
+    </row>
+    <row r="1227" spans="1:1">
+      <c r="A1227"/>
+    </row>
+    <row r="1228" spans="1:1">
+      <c r="A1228"/>
+    </row>
+    <row r="1229" spans="1:1">
+      <c r="A1229"/>
+    </row>
+    <row r="1230" spans="1:1">
+      <c r="A1230"/>
+    </row>
+    <row r="1231" spans="1:1">
+      <c r="A1231"/>
+    </row>
+    <row r="1232" spans="1:1">
+      <c r="A1232"/>
+    </row>
+    <row r="1233" spans="1:1">
+      <c r="A1233"/>
+    </row>
+    <row r="1234" spans="1:1">
+      <c r="A1234"/>
+    </row>
+    <row r="1235" spans="1:1">
+      <c r="A1235"/>
+    </row>
+    <row r="1236" spans="1:1">
+      <c r="A1236"/>
+    </row>
+    <row r="1237" spans="1:1">
+      <c r="A1237"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J22:O22">
-    <cfRule type="top10" dxfId="37" priority="13" rank="1"/>
-    <cfRule type="top10" dxfId="36" priority="14" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="29" priority="15" rank="1"/>
+    <cfRule type="top10" dxfId="28" priority="16" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:O3">
-    <cfRule type="top10" dxfId="35" priority="11" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="34" priority="12" rank="1"/>
+    <cfRule type="top10" dxfId="27" priority="13" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="26" priority="14" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J48:O48">
-    <cfRule type="top10" dxfId="33" priority="9" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="32" priority="10" rank="1"/>
+    <cfRule type="top10" dxfId="25" priority="11" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="24" priority="12" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J46:O46">
-    <cfRule type="top10" dxfId="31" priority="7" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="30" priority="8" rank="1"/>
+    <cfRule type="top10" dxfId="23" priority="9" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="22" priority="10" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K56:O56">
-    <cfRule type="top10" dxfId="29" priority="5" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="28" priority="6" rank="1"/>
+    <cfRule type="top10" dxfId="21" priority="7" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="20" priority="8" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J44:O44">
-    <cfRule type="top10" dxfId="27" priority="3" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="26" priority="4" rank="1"/>
+    <cfRule type="top10" dxfId="19" priority="5" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="18" priority="6" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32:O32">
-    <cfRule type="top10" dxfId="25" priority="1" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="24" priority="2" rank="1"/>
+    <cfRule type="top10" dxfId="17" priority="3" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="16" priority="4" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13:O13">
+    <cfRule type="top10" dxfId="1" priority="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="0" priority="2" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12929,60 +17607,92 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B22:H22</xm:f>
-              <xm:sqref>I22</xm:sqref>
+              <xm:f>'CASH FLOWS'!J46:O46</xm:f>
+              <xm:sqref>P46</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B23:H23</xm:f>
-              <xm:sqref>I23</xm:sqref>
+              <xm:f>'CASH FLOWS'!J47:O47</xm:f>
+              <xm:sqref>P47</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B32:H32</xm:f>
-              <xm:sqref>I32</xm:sqref>
+              <xm:f>'CASH FLOWS'!J48:O48</xm:f>
+              <xm:sqref>P48</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B33:H33</xm:f>
-              <xm:sqref>I33</xm:sqref>
+              <xm:f>'CASH FLOWS'!J49:O49</xm:f>
+              <xm:sqref>P49</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B44:H44</xm:f>
-              <xm:sqref>I44</xm:sqref>
+              <xm:f>'CASH FLOWS'!J50:O50</xm:f>
+              <xm:sqref>P50</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B46:H46</xm:f>
-              <xm:sqref>I46</xm:sqref>
+              <xm:f>'CASH FLOWS'!J51:O51</xm:f>
+              <xm:sqref>P51</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B48:H48</xm:f>
-              <xm:sqref>I48</xm:sqref>
+              <xm:f>'CASH FLOWS'!J52:O52</xm:f>
+              <xm:sqref>P52</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B49:H49</xm:f>
-              <xm:sqref>I49</xm:sqref>
+              <xm:f>'CASH FLOWS'!J53:O53</xm:f>
+              <xm:sqref>P53</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B56:H56</xm:f>
-              <xm:sqref>I56</xm:sqref>
+              <xm:f>'CASH FLOWS'!J54:O54</xm:f>
+              <xm:sqref>P54</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B4:H4</xm:f>
-              <xm:sqref>I4</xm:sqref>
+              <xm:f>'CASH FLOWS'!J55:O55</xm:f>
+              <xm:sqref>P55</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B3:H3</xm:f>
-              <xm:sqref>I3</xm:sqref>
+              <xm:f>'CASH FLOWS'!J56:O56</xm:f>
+              <xm:sqref>P56</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" low="1">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" high="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
           <x14:colorMarkers rgb="FF0070C0"/>
           <x14:colorFirst rgb="FFFFC000"/>
           <x14:colorLast rgb="FFFFC000"/>
-          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorHigh rgb="FFFF0000"/>
           <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J44:O44</xm:f>
+              <xm:sqref>P44</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" high="1">
+          <x14:colorSeries rgb="FF00B050"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FFFF0000"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J32:O32</xm:f>
+              <xm:sqref>P32</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" high="1" low="1">
+          <x14:colorSeries rgb="FF00B050"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FFFF0000"/>
+          <x14:colorLow rgb="FF92D050"/>
           <x14:sparklines>
             <x14:sparkline>
               <xm:f>'CASH FLOWS'!J22:O22</xm:f>
@@ -13066,38 +17776,6 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" high="1">
-          <x14:colorSeries rgb="FF00B050"/>
-          <x14:colorNegative rgb="FFFF0000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FF0070C0"/>
-          <x14:colorFirst rgb="FFFFC000"/>
-          <x14:colorLast rgb="FFFFC000"/>
-          <x14:colorHigh rgb="FFFF0000"/>
-          <x14:colorLow rgb="FFFF0000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J32:O32</xm:f>
-              <xm:sqref>P32</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" high="1">
-          <x14:colorSeries rgb="FF00B050"/>
-          <x14:colorNegative rgb="FFFF0000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FF0070C0"/>
-          <x14:colorFirst rgb="FFFFC000"/>
-          <x14:colorLast rgb="FFFFC000"/>
-          <x14:colorHigh rgb="FFFF0000"/>
-          <x14:colorLow rgb="FFFF0000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J44:O44</xm:f>
-              <xm:sqref>P44</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" low="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
@@ -13109,48 +17787,56 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J46:O46</xm:f>
-              <xm:sqref>P46</xm:sqref>
+              <xm:f>'CASH FLOWS'!B22:H22</xm:f>
+              <xm:sqref>I22</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J47:O47</xm:f>
-              <xm:sqref>P47</xm:sqref>
+              <xm:f>'CASH FLOWS'!B23:H23</xm:f>
+              <xm:sqref>I23</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J48:O48</xm:f>
-              <xm:sqref>P48</xm:sqref>
+              <xm:f>'CASH FLOWS'!B32:H32</xm:f>
+              <xm:sqref>I32</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J49:O49</xm:f>
-              <xm:sqref>P49</xm:sqref>
+              <xm:f>'CASH FLOWS'!B33:H33</xm:f>
+              <xm:sqref>I33</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J50:O50</xm:f>
-              <xm:sqref>P50</xm:sqref>
+              <xm:f>'CASH FLOWS'!B44:H44</xm:f>
+              <xm:sqref>I44</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J51:O51</xm:f>
-              <xm:sqref>P51</xm:sqref>
+              <xm:f>'CASH FLOWS'!B46:H46</xm:f>
+              <xm:sqref>I46</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J52:O52</xm:f>
-              <xm:sqref>P52</xm:sqref>
+              <xm:f>'CASH FLOWS'!B48:H48</xm:f>
+              <xm:sqref>I48</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J53:O53</xm:f>
-              <xm:sqref>P53</xm:sqref>
+              <xm:f>'CASH FLOWS'!B49:H49</xm:f>
+              <xm:sqref>I49</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J54:O54</xm:f>
-              <xm:sqref>P54</xm:sqref>
+              <xm:f>'CASH FLOWS'!B56:H56</xm:f>
+              <xm:sqref>I56</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J55:O55</xm:f>
-              <xm:sqref>P55</xm:sqref>
+              <xm:f>'CASH FLOWS'!B3:H3</xm:f>
+              <xm:sqref>I3</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J56:O56</xm:f>
-              <xm:sqref>P56</xm:sqref>
+              <xm:f>'CASH FLOWS'!B4:H4</xm:f>
+              <xm:sqref>I4</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!B12:H12</xm:f>
+              <xm:sqref>I12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!B13:H13</xm:f>
+              <xm:sqref>I13</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>

--- a/PYPL(已自動修復).xlsx
+++ b/PYPL(已自動修復).xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="163">
   <si>
     <t>ASSETS</t>
   </si>
@@ -375,13 +375,7 @@
     <t>Cash flows from operating activities:</t>
   </si>
   <si>
-    <t>Adjustments to reconcile net income to net cash provided by operating activities:</t>
-  </si>
-  <si>
     <t>Stock-based compensation</t>
-  </si>
-  <si>
-    <t>Deferred income taxes</t>
   </si>
   <si>
     <t>Net gains on strategic investments</t>
@@ -391,9 +385,6 @@
   </si>
   <si>
     <t>Changes in assets and liabilities:</t>
-  </si>
-  <si>
-    <t>Accounts receivable</t>
   </si>
   <si>
     <t>Transaction loss allowance for cash losses, net</t>
@@ -423,13 +414,7 @@
     <t>Proceeds from sales of property and equipment</t>
   </si>
   <si>
-    <t>Changes in principal loans receivable, net</t>
-  </si>
-  <si>
     <t>Purchases of investments</t>
-  </si>
-  <si>
-    <t>Maturities and sales of investments</t>
   </si>
   <si>
     <t>Acquisitions, net of cash and restricted cash acquired</t>
@@ -450,28 +435,16 @@
     <t>Tax withholdings related to net share settlements of equity awards</t>
   </si>
   <si>
-    <t>Borrowings under financing arrangements</t>
-  </si>
-  <si>
-    <t>Repayments under financing arrangements</t>
-  </si>
-  <si>
     <t>Funds payable and amounts due to customers</t>
   </si>
   <si>
     <t>Other financing activities</t>
   </si>
   <si>
-    <t>Net cash (used in) provided by financing activities</t>
-  </si>
-  <si>
     <t>Effect of exchange rate changes on cash, cash equivalents, and restricted cash</t>
   </si>
   <si>
     <t>Cash and cash equivalents</t>
-  </si>
-  <si>
-    <t>Funds receivable and customer accounts</t>
   </si>
   <si>
     <t>Supplemental cash flow disclosures:</t>
@@ -590,10 +563,6 @@
       </rPr>
       <t>銷售額)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Changes in loans and interest receivable held for sale, net</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -716,6 +685,155 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Accounts receivable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deferred income taxes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adjustments :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Changes in principal loans receivable, net  (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>應收貸款本金變動</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Changes in loans and interest receivable held for sale, net  (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>持有待售的貸款和應收利息變動</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Borrowings under financing arrangements  (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>融資借款</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Repayments under financing arrangements  (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>融資還款</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Funds receivable and customer accounts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maturities and sales of investments</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Funds payable and amounts due to customers  (  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>應付資金</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Net cash (used in) provided by financing activities</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -723,9 +841,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0%"/>
-    <numFmt numFmtId="183" formatCode="0.0"/>
+    <numFmt numFmtId="177" formatCode="0.0"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -874,6 +992,32 @@
       <name val="細明體"/>
       <family val="3"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="2"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="2"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1092,7 +1236,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1270,9 +1414,6 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1297,9 +1438,6 @@
     <xf numFmtId="3" fontId="2" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1308,9 +1446,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1393,25 +1528,43 @@
     <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1419,7 +1572,7 @@
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="90">
+  <dxfs count="84">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1427,16 +1580,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1462,6 +1605,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1477,26 +1630,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1677,46 +1810,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4681,15 +4774,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>644825</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>36233</xdr:rowOff>
+      <xdr:colOff>744682</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>138545</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>414325</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>315248</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>315247</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4704,8 +4797,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="23838087" y="14510630"/>
-          <a:ext cx="598153" cy="567242"/>
+          <a:off x="23968364" y="14824363"/>
+          <a:ext cx="500916" cy="471111"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -4749,15 +4842,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>79375</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:colOff>217920</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>27421</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>773906</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>81178</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>450273</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4772,8 +4865,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13731875" y="13434219"/>
-          <a:ext cx="694531" cy="436562"/>
+          <a:off x="13864647" y="13275830"/>
+          <a:ext cx="694531" cy="422852"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -4887,12 +4980,12 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>146051</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>245269</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>7144</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>86518</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4954,13 +5047,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>132556</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>827087</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>469899</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5022,13 +5115,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>126205</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>86517</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>820736</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>7142</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5233,7 +5326,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>13494</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>33338</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5301,7 +5394,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>820738</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>126206</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5363,12 +5456,12 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>159545</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>258763</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>20638</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>100012</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5431,12 +5524,12 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>252414</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>232569</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>113508</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>73818</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6111,13 +6204,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>171378</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>20565</xdr:rowOff>
+      <xdr:rowOff>55201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>121227</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>17318</xdr:rowOff>
+      <xdr:rowOff>51954</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6132,7 +6225,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12155560" y="3830565"/>
+          <a:off x="12155560" y="3865201"/>
           <a:ext cx="5768758" cy="291162"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -6260,7 +6353,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="8708440" y="8651279"/>
-            <a:ext cx="2595360" cy="192253"/>
+            <a:ext cx="2595360" cy="246999"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -6326,10 +6419,1892 @@
               </a:rPr>
               <a:t> 導致營業現金流減少</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1800">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0"/>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>雖然佔比不高，但也是要注意的點</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1800">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>706586</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>17841</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>554180</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>86615</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="28" name="群組 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4D3F69C-B234-964B-BA08-DDE9402EA16A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="17678404" y="1766977"/>
+          <a:ext cx="12507185" cy="363183"/>
+          <a:chOff x="7928898" y="8868649"/>
+          <a:chExt cx="7297467" cy="130244"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="29" name="直線接點 28">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4243B3C7-1D18-0BD6-8C40-8AFC4C43A02C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="7928898" y="8924359"/>
+            <a:ext cx="769961" cy="4969"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="15875">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="30" name="文字方塊 29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{027F9084-D9E7-FB63-ECBF-4A6663DDA147}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8253739" y="8868649"/>
+            <a:ext cx="6972626" cy="130244"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+          <a:ln w="22225" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0"/>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>折舊與攤銷的加回是 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1800">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Net</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1800">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Income</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> 有攤銷之前的折舊費用</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1800">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> 但實際並無現金流出</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1800">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> 可是</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1800">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Net</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1800">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>income</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>已扣了</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1800">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> 故這邊要加回來</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1800">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4329543</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>277600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>363682</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>173183</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="32" name="群組 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4D3F69C-B234-964B-BA08-DDE9402EA16A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4329543" y="693236"/>
+          <a:ext cx="9680866" cy="1523492"/>
+          <a:chOff x="6152523" y="8707175"/>
+          <a:chExt cx="5648418" cy="546352"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="33" name="直線接點 32">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4243B3C7-1D18-0BD6-8C40-8AFC4C43A02C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="9911399" y="8849838"/>
+            <a:ext cx="1889542" cy="403689"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="15875">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="34" name="文字方塊 33">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{027F9084-D9E7-FB63-ECBF-4A6663DDA147}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6152523" y="8707175"/>
+            <a:ext cx="3807378" cy="148874"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+          <a:ln w="22225" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0"/>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>之前透過折舊而營收減少，因此少繳的稅</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1800">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> 時間到後補回來</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1800">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>703121</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>225105</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>813954</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>256301</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="41" name="群組 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4D3F69C-B234-964B-BA08-DDE9402EA16A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="17674939" y="1385423"/>
+          <a:ext cx="3868879" cy="325605"/>
+          <a:chOff x="7928898" y="8882125"/>
+          <a:chExt cx="2257344" cy="116768"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="42" name="直線接點 41">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4243B3C7-1D18-0BD6-8C40-8AFC4C43A02C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="7928898" y="8924359"/>
+            <a:ext cx="769961" cy="4969"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="15875">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="43" name="文字方塊 42">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{027F9084-D9E7-FB63-ECBF-4A6663DDA147}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8253739" y="8882125"/>
+            <a:ext cx="1932503" cy="116768"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+          <a:ln w="22225" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0"/>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>交易與貸款損失的準備金補回來</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1800">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>17318</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>146304</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>773907</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>121232</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="50" name="群組 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4D3F69C-B234-964B-BA08-DDE9402EA16A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="17318" y="4250713"/>
+          <a:ext cx="13572044" cy="1187201"/>
+          <a:chOff x="5867578" y="8616411"/>
+          <a:chExt cx="7918773" cy="399593"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="51" name="直線接點 50">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4243B3C7-1D18-0BD6-8C40-8AFC4C43A02C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="21" idx="2"/>
+            <a:endCxn id="52" idx="3"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="9980110" y="8616411"/>
+            <a:ext cx="3806241" cy="321964"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="15875">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="52" name="文字方塊 51">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{027F9084-D9E7-FB63-ECBF-4A6663DDA147}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5867578" y="8860745"/>
+            <a:ext cx="4112532" cy="155259"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+          <a:ln w="22225" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0"/>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>此項目原本是在投資活動項目</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1800">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>因列報方式改變</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1800">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>改道營業活動中呈現</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1800">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>793750</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>208319</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>519547</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>138897</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="39" name="群組 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4D3F69C-B234-964B-BA08-DDE9402EA16A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="15271750" y="7533910"/>
+          <a:ext cx="8471479" cy="519396"/>
+          <a:chOff x="6797529" y="8651279"/>
+          <a:chExt cx="4942786" cy="186265"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="40" name="直線接點 39">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4243B3C7-1D18-0BD6-8C40-8AFC4C43A02C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="15" idx="6"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="6797529" y="8749227"/>
+            <a:ext cx="1919520" cy="88317"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="15875">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="44" name="文字方塊 43">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{027F9084-D9E7-FB63-ECBF-4A6663DDA147}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8708440" y="8651279"/>
+            <a:ext cx="3031875" cy="155079"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+          <a:ln w="22225" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1800">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>portfolio</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> 投資組合出售給</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1800">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>S</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1800">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>ynchrony</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> 所獲得的資金</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1800">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>142658</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>53181</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>5916</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>489743</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="橢圓 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C663AFF2-6245-0B47-B206-52946F30B64C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14620658" y="14219454"/>
+          <a:ext cx="694531" cy="436562"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00">
+            <a:alpha val="37196"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>103909</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>51955</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>796636</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>86592</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="文字方塊 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{027F9084-D9E7-FB63-ECBF-4A6663DDA147}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17907000" y="15828819"/>
+          <a:ext cx="10858500" cy="329046"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="22225" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>比去年增加</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1800">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>28</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>億</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1800">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 主要是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1800">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>portfolio</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="zh-TW" sz="1800">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 投資組合出售給</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1800">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Synchrony</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="zh-TW" sz="1800">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 所獲得的資金</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1800">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 再扣除其他設備購買等投資項目</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="zh-TW" sz="1800">
+            <a:solidFill>
+              <a:srgbClr val="002060"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0"/>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1800">
+            <a:solidFill>
+              <a:srgbClr val="002060"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>5916</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>271462</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>51954</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>155863</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="直線接點 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4243B3C7-1D18-0BD6-8C40-8AFC4C43A02C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="46" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15315189" y="14437735"/>
+          <a:ext cx="2539856" cy="1494992"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>807242</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>242454</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>623454</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>172244</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="直線接點 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4243B3C7-1D18-0BD6-8C40-8AFC4C43A02C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="15285242" y="7827818"/>
+          <a:ext cx="3141303" cy="1401835"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>17318</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>658091</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>207818</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="直線接點 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4243B3C7-1D18-0BD6-8C40-8AFC4C43A02C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15049500" y="4416136"/>
+          <a:ext cx="3411682" cy="3377046"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6286500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>155863</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>277090</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>86591</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="直線接點 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4243B3C7-1D18-0BD6-8C40-8AFC4C43A02C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6286500" y="5472545"/>
+          <a:ext cx="6806045" cy="2528455"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>737022</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>277100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>606137</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>60843</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="70" name="群組 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4D3F69C-B234-964B-BA08-DDE9402EA16A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="14383749" y="11360736"/>
+          <a:ext cx="8614797" cy="1325062"/>
+          <a:chOff x="5927057" y="8695806"/>
+          <a:chExt cx="5137284" cy="338279"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="71" name="直線接點 70">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4243B3C7-1D18-0BD6-8C40-8AFC4C43A02C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="5" idx="7"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="5927057" y="8775383"/>
+            <a:ext cx="2224958" cy="258702"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="15875">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="72" name="文字方塊 71">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{027F9084-D9E7-FB63-ECBF-4A6663DDA147}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8213321" y="8695806"/>
+            <a:ext cx="2851020" cy="111791"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+          <a:ln w="22225" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0"/>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>一直持續有融資借款</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1800">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>資金借款</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1800">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> 原因為何</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1800">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>?</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>793172</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>100444</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>360218</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>135080</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="76" name="直線單箭頭接點 75"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13608627" y="14665035"/>
+          <a:ext cx="398318" cy="329045"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>737755</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>96981</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>131617</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="77" name="直線單箭頭接點 76"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="14384482" y="14661572"/>
+          <a:ext cx="398318" cy="329045"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>69272</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>201638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>414532</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>173181</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="78" name="直線接點 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4243B3C7-1D18-0BD6-8C40-8AFC4C43A02C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="72" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="14547272" y="11579683"/>
+          <a:ext cx="3670351" cy="560362"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6638,7 +8613,7 @@
       <pane xSplit="8" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J2" sqref="J2:O2"/>
+      <selection pane="bottomRight" activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
@@ -6703,13 +8678,13 @@
       <c r="P1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="79" t="s">
-        <v>128</v>
+      <c r="Q1" s="76" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="47.1" customHeight="1">
       <c r="A2" s="45" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B2" s="26">
         <v>9248</v>
@@ -6756,7 +8731,7 @@
         <f t="shared" si="0"/>
         <v>0.18257667567819522</v>
       </c>
-      <c r="Q2" s="80" t="s">
+      <c r="Q2" s="77" t="s">
         <v>61</v>
       </c>
     </row>
@@ -6777,11 +8752,11 @@
       <c r="M3" s="30"/>
       <c r="N3" s="30"/>
       <c r="O3" s="30"/>
-      <c r="Q3" s="76"/>
+      <c r="Q3" s="73"/>
     </row>
     <row r="4" spans="1:25" ht="36" customHeight="1">
       <c r="A4" s="17" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B4" s="2">
         <v>2610</v>
@@ -7019,7 +8994,7 @@
     </row>
     <row r="11" spans="1:25" ht="23.25">
       <c r="A11" s="17" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B11" s="2">
         <v>48</v>
@@ -7099,7 +9074,7 @@
         <f t="shared" ref="O12:O17" si="7">(H12-G12)/G12</f>
         <v>0.16206991467107074</v>
       </c>
-      <c r="Q12" s="77"/>
+      <c r="Q12" s="74"/>
       <c r="R12" s="33"/>
       <c r="S12" s="33"/>
       <c r="T12" s="33"/>
@@ -7158,7 +9133,7 @@
         <f t="shared" si="7"/>
         <v>0.29583460018242624</v>
       </c>
-      <c r="Q13" s="80" t="s">
+      <c r="Q13" s="77" t="s">
         <v>63</v>
       </c>
       <c r="R13" s="33"/>
@@ -7375,7 +9350,7 @@
         <f t="shared" si="7"/>
         <v>-7.8534031413612562E-3</v>
       </c>
-      <c r="Q17" s="80" t="s">
+      <c r="Q17" s="77" t="s">
         <v>64</v>
       </c>
       <c r="R17" s="33"/>
@@ -7406,7 +9381,7 @@
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
       <c r="P18" s="9"/>
-      <c r="Q18" s="76"/>
+      <c r="Q18" s="73"/>
       <c r="R18" s="9"/>
       <c r="S18" s="9"/>
       <c r="T18" s="9"/>
@@ -7420,31 +9395,31 @@
       <c r="A19" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="81">
+      <c r="B19" s="78">
         <f t="shared" ref="B19:C19" si="13">B13/B2</f>
         <v>0.15798010380622837</v>
       </c>
-      <c r="C19" s="81">
+      <c r="C19" s="78">
         <f t="shared" si="13"/>
         <v>0.14628297362110312</v>
       </c>
-      <c r="D19" s="81">
+      <c r="D19" s="78">
         <f>D13/D2</f>
         <v>0.16244081258591722</v>
       </c>
-      <c r="E19" s="81">
+      <c r="E19" s="78">
         <f>E13/E2</f>
         <v>0.1419972817293379</v>
       </c>
-      <c r="F19" s="81">
+      <c r="F19" s="78">
         <f t="shared" ref="F19:H19" si="14">F13/F2</f>
         <v>0.15299347287868556</v>
       </c>
-      <c r="G19" s="81">
+      <c r="G19" s="78">
         <f t="shared" si="14"/>
         <v>0.15330474503589075</v>
       </c>
-      <c r="H19" s="81">
+      <c r="H19" s="78">
         <f t="shared" si="14"/>
         <v>0.16798707185369122</v>
       </c>
@@ -7474,7 +9449,7 @@
         <v>9.5772161614196133E-2</v>
       </c>
       <c r="P19" s="8"/>
-      <c r="Q19" s="78"/>
+      <c r="Q19" s="75"/>
       <c r="R19" s="33"/>
       <c r="S19" s="33"/>
       <c r="T19" s="33"/>
@@ -7542,7 +9517,7 @@
         <v>-0.31566435829700856</v>
       </c>
       <c r="P20" s="8"/>
-      <c r="Q20" s="78"/>
+      <c r="Q20" s="75"/>
       <c r="R20" s="33"/>
       <c r="S20" s="33"/>
       <c r="T20" s="33"/>
@@ -7610,7 +9585,7 @@
         <v>-0.16102979429249006</v>
       </c>
       <c r="P21" s="8"/>
-      <c r="Q21" s="78"/>
+      <c r="Q21" s="75"/>
       <c r="R21" s="33"/>
       <c r="S21" s="33"/>
       <c r="T21" s="33"/>
@@ -7675,7 +9650,7 @@
         <v>#REF!</v>
       </c>
       <c r="P22" s="8"/>
-      <c r="Q22" s="78"/>
+      <c r="Q22" s="75"/>
       <c r="R22" s="33"/>
       <c r="S22" s="33"/>
       <c r="T22" s="33"/>
@@ -7740,7 +9715,7 @@
         <v>#REF!</v>
       </c>
       <c r="P23" s="8"/>
-      <c r="Q23" s="78"/>
+      <c r="Q23" s="75"/>
       <c r="R23" s="33"/>
       <c r="S23" s="33"/>
       <c r="T23" s="33"/>
@@ -7811,7 +9786,7 @@
       <c r="N25" s="8"/>
       <c r="O25" s="8"/>
       <c r="P25" s="8"/>
-      <c r="Q25" s="78"/>
+      <c r="Q25" s="75"/>
       <c r="R25" s="33"/>
       <c r="S25" s="33"/>
       <c r="T25" s="33"/>
@@ -7925,7 +9900,7 @@
       <c r="N26" s="8"/>
       <c r="O26" s="8"/>
       <c r="P26" s="8"/>
-      <c r="Q26" s="78"/>
+      <c r="Q26" s="75"/>
       <c r="R26" s="33"/>
       <c r="S26" s="33"/>
       <c r="T26" s="33"/>
@@ -8025,7 +10000,7 @@
       <c r="N27" s="8"/>
       <c r="O27" s="8"/>
       <c r="P27" s="8"/>
-      <c r="Q27" s="78"/>
+      <c r="Q27" s="75"/>
       <c r="R27" s="33"/>
       <c r="S27" s="33"/>
       <c r="T27" s="33"/>
@@ -8068,7 +10043,7 @@
       <c r="N28" s="8"/>
       <c r="O28" s="8"/>
       <c r="P28" s="8"/>
-      <c r="Q28" s="78"/>
+      <c r="Q28" s="75"/>
       <c r="R28" s="33"/>
       <c r="S28" s="33"/>
       <c r="T28" s="33"/>
@@ -8111,7 +10086,7 @@
       <c r="N29" s="8"/>
       <c r="O29" s="8"/>
       <c r="P29" s="8"/>
-      <c r="Q29" s="78"/>
+      <c r="Q29" s="75"/>
       <c r="R29" s="33"/>
       <c r="S29" s="33"/>
       <c r="T29" s="33"/>
@@ -8154,7 +10129,7 @@
       <c r="N30" s="8"/>
       <c r="O30" s="8"/>
       <c r="P30" s="8"/>
-      <c r="Q30" s="78"/>
+      <c r="Q30" s="75"/>
       <c r="R30" s="33"/>
       <c r="S30" s="33"/>
       <c r="T30" s="33"/>
@@ -8183,7 +10158,7 @@
       <c r="N31" s="9"/>
       <c r="O31" s="9"/>
       <c r="P31" s="9"/>
-      <c r="Q31" s="76"/>
+      <c r="Q31" s="73"/>
       <c r="R31" s="9"/>
       <c r="S31" s="9"/>
       <c r="T31" s="9"/>
@@ -8226,7 +10201,7 @@
       <c r="N32" s="8"/>
       <c r="O32" s="8"/>
       <c r="P32" s="8"/>
-      <c r="Q32" s="78"/>
+      <c r="Q32" s="75"/>
       <c r="R32" s="8"/>
       <c r="S32" s="8"/>
       <c r="T32" s="8"/>
@@ -8424,25 +10399,25 @@
       <c r="A39" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="B39" s="82">
+      <c r="B39" s="79">
         <v>1109</v>
       </c>
-      <c r="C39" s="82">
+      <c r="C39" s="79">
         <v>1469</v>
       </c>
-      <c r="D39" s="83">
+      <c r="D39" s="80">
         <v>1594</v>
       </c>
-      <c r="E39" s="83">
+      <c r="E39" s="80">
         <v>2277</v>
       </c>
-      <c r="F39" s="83">
+      <c r="F39" s="80">
         <v>2208</v>
       </c>
-      <c r="G39" s="83">
+      <c r="G39" s="80">
         <v>3891</v>
       </c>
-      <c r="H39" s="83">
+      <c r="H39" s="80">
         <v>4517</v>
       </c>
       <c r="J39" s="28">
@@ -8850,66 +10825,66 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J2:O2">
-    <cfRule type="top10" dxfId="89" priority="37" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="88" priority="38" rank="1"/>
+    <cfRule type="top10" dxfId="83" priority="37" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="82" priority="38" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:O12">
-    <cfRule type="top10" dxfId="87" priority="5" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="86" priority="6" rank="1"/>
-    <cfRule type="top10" dxfId="85" priority="35" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="84" priority="36" rank="1"/>
+    <cfRule type="top10" dxfId="81" priority="5" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="80" priority="6" rank="1"/>
+    <cfRule type="top10" dxfId="79" priority="35" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="78" priority="36" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14:O14">
-    <cfRule type="top10" dxfId="83" priority="33" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="82" priority="34" rank="1"/>
+    <cfRule type="top10" dxfId="77" priority="33" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="76" priority="34" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15:O15">
-    <cfRule type="top10" dxfId="81" priority="31" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="80" priority="32" rank="1"/>
+    <cfRule type="top10" dxfId="75" priority="31" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="74" priority="32" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17:O17">
-    <cfRule type="top10" dxfId="79" priority="29" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="78" priority="30" rank="1"/>
+    <cfRule type="top10" dxfId="73" priority="29" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="72" priority="30" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J38:O38">
-    <cfRule type="top10" dxfId="77" priority="27" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="76" priority="28" rank="1"/>
+    <cfRule type="top10" dxfId="71" priority="27" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="70" priority="28" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J39:O39">
-    <cfRule type="top10" dxfId="75" priority="25" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="74" priority="26" rank="1"/>
+    <cfRule type="top10" dxfId="69" priority="25" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="68" priority="26" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22:J23">
-    <cfRule type="top10" dxfId="73" priority="17" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="72" priority="18" rank="1"/>
+    <cfRule type="top10" dxfId="67" priority="17" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="66" priority="18" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20:O20">
-    <cfRule type="top10" dxfId="71" priority="15" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="70" priority="16" rank="1"/>
+    <cfRule type="top10" dxfId="65" priority="15" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="64" priority="16" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21:O21">
-    <cfRule type="top10" dxfId="69" priority="13" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="68" priority="14" rank="1"/>
+    <cfRule type="top10" dxfId="63" priority="13" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="62" priority="14" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22:O22">
-    <cfRule type="top10" dxfId="67" priority="11" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="66" priority="12" rank="1"/>
+    <cfRule type="top10" dxfId="61" priority="11" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="60" priority="12" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23:O23">
-    <cfRule type="top10" dxfId="65" priority="9" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="64" priority="10" rank="1"/>
+    <cfRule type="top10" dxfId="59" priority="9" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="58" priority="10" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13:O13">
-    <cfRule type="top10" dxfId="63" priority="7" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="62" priority="8" rank="1"/>
+    <cfRule type="top10" dxfId="57" priority="7" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="56" priority="8" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:O4">
-    <cfRule type="top10" dxfId="61" priority="3" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="60" priority="4" rank="1"/>
+    <cfRule type="top10" dxfId="55" priority="3" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="54" priority="4" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19:O19">
-    <cfRule type="top10" dxfId="59" priority="1" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="58" priority="2" rank="1"/>
+    <cfRule type="top10" dxfId="53" priority="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="52" priority="2" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9140,17 +11115,17 @@
   <dimension ref="A1:P365"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J6" sqref="J6:O6"/>
+      <selection pane="bottomRight" activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="25.5"/>
   <cols>
     <col min="1" max="1" width="90.875" style="4" customWidth="1"/>
     <col min="2" max="6" width="10.875" style="13" customWidth="1"/>
-    <col min="7" max="8" width="10.875" style="78" customWidth="1"/>
+    <col min="7" max="8" width="10.875" style="75" customWidth="1"/>
     <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="21.875" customWidth="1"/>
   </cols>
@@ -9203,60 +11178,60 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" ht="22.5">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
       <c r="G2" s="16"/>
-      <c r="H2" s="92"/>
+      <c r="H2" s="89"/>
     </row>
     <row r="3" spans="1:16" ht="23.25">
       <c r="A3" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="88"/>
+        <v>128</v>
+      </c>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="85"/>
     </row>
     <row r="4" spans="1:16" ht="23.25">
       <c r="A4" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="B4" s="89">
+        <v>101</v>
+      </c>
+      <c r="B4" s="86">
         <v>1393</v>
       </c>
-      <c r="C4" s="90">
+      <c r="C4" s="87">
         <v>1590</v>
       </c>
-      <c r="D4" s="90">
+      <c r="D4" s="87">
         <v>2883</v>
       </c>
-      <c r="E4" s="90">
+      <c r="E4" s="87">
         <v>7575</v>
       </c>
-      <c r="F4" s="90">
+      <c r="F4" s="87">
         <v>7349</v>
       </c>
-      <c r="G4" s="90">
+      <c r="G4" s="87">
         <v>4794</v>
       </c>
-      <c r="H4" s="90">
+      <c r="H4" s="87">
         <v>5197</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="23.25">
       <c r="A5" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="B5" s="85">
+        <v>129</v>
+      </c>
+      <c r="B5" s="82">
         <v>2018</v>
       </c>
       <c r="C5" s="2">
@@ -9271,18 +11246,18 @@
       <c r="F5" s="2">
         <v>3412</v>
       </c>
-      <c r="G5" s="90">
+      <c r="G5" s="87">
         <v>8289</v>
       </c>
-      <c r="H5" s="90">
+      <c r="H5" s="87">
         <v>4303</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="23.25" customHeight="1">
       <c r="A6" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="B6" s="85">
+        <v>130</v>
+      </c>
+      <c r="B6" s="82">
         <v>137</v>
       </c>
       <c r="C6" s="2">
@@ -9297,10 +11272,10 @@
       <c r="F6" s="2">
         <v>435</v>
       </c>
-      <c r="G6" s="90">
+      <c r="G6" s="87">
         <v>577</v>
       </c>
-      <c r="H6" s="90">
+      <c r="H6" s="87">
         <v>800</v>
       </c>
       <c r="I6" s="8"/>
@@ -9332,9 +11307,9 @@
     </row>
     <row r="7" spans="1:16" ht="23.25">
       <c r="A7" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="B7" s="85">
+        <v>144</v>
+      </c>
+      <c r="B7" s="82">
         <v>4184</v>
       </c>
       <c r="C7" s="2">
@@ -9349,10 +11324,10 @@
       <c r="F7" s="2">
         <v>3972</v>
       </c>
-      <c r="G7" s="90">
+      <c r="G7" s="87">
         <v>2769</v>
       </c>
-      <c r="H7" s="90">
+      <c r="H7" s="87">
         <v>4846</v>
       </c>
       <c r="I7" s="8"/>
@@ -9360,9 +11335,9 @@
     </row>
     <row r="8" spans="1:16" ht="16.5" customHeight="1">
       <c r="A8" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="B8" s="85" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8" s="82" t="s">
         <v>55</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -9377,10 +11352,10 @@
       <c r="F8" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="90" t="s">
+      <c r="G8" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="H8" s="90" t="s">
+      <c r="H8" s="87" t="s">
         <v>55</v>
       </c>
       <c r="I8" s="8"/>
@@ -9388,9 +11363,9 @@
     </row>
     <row r="9" spans="1:16" ht="23.25">
       <c r="A9" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="B9" s="85">
+        <v>159</v>
+      </c>
+      <c r="B9" s="82">
         <v>12261</v>
       </c>
       <c r="C9" s="2">
@@ -9405,10 +11380,10 @@
       <c r="F9" s="2">
         <v>22527</v>
       </c>
-      <c r="G9" s="90">
+      <c r="G9" s="87">
         <v>33418</v>
       </c>
-      <c r="H9" s="90">
+      <c r="H9" s="87">
         <v>36141</v>
       </c>
       <c r="I9" s="8"/>
@@ -9416,9 +11391,9 @@
     </row>
     <row r="10" spans="1:16" ht="23.25">
       <c r="A10" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="B10" s="85">
+        <v>131</v>
+      </c>
+      <c r="B10" s="82">
         <v>655</v>
       </c>
       <c r="C10" s="2">
@@ -9433,17 +11408,17 @@
       <c r="F10" s="2">
         <v>800</v>
       </c>
-      <c r="G10" s="90">
+      <c r="G10" s="87">
         <v>1148</v>
       </c>
-      <c r="H10" s="90">
+      <c r="H10" s="87">
         <v>1287</v>
       </c>
       <c r="I10" s="8"/>
       <c r="P10" s="8"/>
     </row>
     <row r="11" spans="1:16" ht="33" customHeight="1">
-      <c r="A11" s="94" t="s">
+      <c r="A11" s="91" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="44">
@@ -9466,11 +11441,11 @@
         <f t="shared" si="1"/>
         <v>38495</v>
       </c>
-      <c r="G11" s="95">
+      <c r="G11" s="92">
         <f t="shared" si="1"/>
         <v>50995</v>
       </c>
-      <c r="H11" s="95">
+      <c r="H11" s="92">
         <f t="shared" si="1"/>
         <v>52574</v>
       </c>
@@ -9502,10 +11477,10 @@
       <c r="P11" s="8"/>
     </row>
     <row r="12" spans="1:16" ht="23.25">
-      <c r="A12" s="86" t="s">
+      <c r="A12" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="85">
+      <c r="B12" s="82">
         <v>2348</v>
       </c>
       <c r="C12" s="2">
@@ -9520,10 +11495,10 @@
       <c r="F12" s="2">
         <v>2863</v>
       </c>
-      <c r="G12" s="90">
+      <c r="G12" s="87">
         <v>6089</v>
       </c>
-      <c r="H12" s="90">
+      <c r="H12" s="87">
         <v>6797</v>
       </c>
       <c r="I12" s="8"/>
@@ -9536,10 +11511,10 @@
       <c r="P12" s="8"/>
     </row>
     <row r="13" spans="1:16" ht="23.25">
-      <c r="A13" s="86" t="s">
+      <c r="A13" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="85">
+      <c r="B13" s="82">
         <v>1344</v>
       </c>
       <c r="C13" s="2">
@@ -9554,10 +11529,10 @@
       <c r="F13" s="2">
         <v>1693</v>
       </c>
-      <c r="G13" s="90">
+      <c r="G13" s="87">
         <v>1807</v>
       </c>
-      <c r="H13" s="90">
+      <c r="H13" s="87">
         <v>1909</v>
       </c>
       <c r="I13" s="8"/>
@@ -9570,10 +11545,10 @@
       <c r="P13" s="8"/>
     </row>
     <row r="14" spans="1:16" ht="21" customHeight="1">
-      <c r="A14" s="86" t="s">
+      <c r="A14" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="85">
+      <c r="B14" s="82">
         <v>4069</v>
       </c>
       <c r="C14" s="2">
@@ -9588,10 +11563,10 @@
       <c r="F14" s="2">
         <v>6212</v>
       </c>
-      <c r="G14" s="90">
+      <c r="G14" s="87">
         <v>9135</v>
       </c>
-      <c r="H14" s="90">
+      <c r="H14" s="87">
         <v>11454</v>
       </c>
       <c r="I14" s="8"/>
@@ -9604,10 +11579,10 @@
       <c r="P14" s="8"/>
     </row>
     <row r="15" spans="1:16" ht="17.25" customHeight="1">
-      <c r="A15" s="86" t="s">
+      <c r="A15" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="85">
+      <c r="B15" s="82">
         <v>358</v>
       </c>
       <c r="C15" s="2">
@@ -9622,10 +11597,10 @@
       <c r="F15" s="2">
         <v>778</v>
       </c>
-      <c r="G15" s="90">
+      <c r="G15" s="87">
         <v>1048</v>
       </c>
-      <c r="H15" s="90">
+      <c r="H15" s="87">
         <v>1332</v>
       </c>
       <c r="I15" s="8"/>
@@ -9638,10 +11613,10 @@
       <c r="P15" s="8"/>
     </row>
     <row r="16" spans="1:16" ht="23.25">
-      <c r="A16" s="86" t="s">
+      <c r="A16" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="85">
+      <c r="B16" s="82">
         <v>114</v>
       </c>
       <c r="C16" s="2">
@@ -9656,10 +11631,10 @@
       <c r="F16" s="2">
         <v>1292</v>
       </c>
-      <c r="G16" s="90">
+      <c r="G16" s="87">
         <v>1305</v>
       </c>
-      <c r="H16" s="90">
+      <c r="H16" s="87">
         <v>1737</v>
       </c>
       <c r="I16" s="8"/>
@@ -9672,7 +11647,7 @@
       <c r="P16" s="8"/>
     </row>
     <row r="17" spans="1:16" ht="30.75" customHeight="1">
-      <c r="A17" s="94" t="s">
+      <c r="A17" s="91" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="44">
@@ -9695,11 +11670,11 @@
         <f t="shared" si="3"/>
         <v>51333</v>
       </c>
-      <c r="G17" s="95">
+      <c r="G17" s="92">
         <f t="shared" si="3"/>
         <v>70379</v>
       </c>
-      <c r="H17" s="95">
+      <c r="H17" s="92">
         <f t="shared" si="3"/>
         <v>75803</v>
       </c>
@@ -9731,7 +11706,7 @@
       <c r="P17" s="8"/>
     </row>
     <row r="18" spans="1:16" s="1" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A18" s="91" t="s">
+      <c r="A18" s="88" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="42"/>
@@ -9739,28 +11714,28 @@
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="93"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="90"/>
     </row>
     <row r="19" spans="1:16" ht="23.25">
       <c r="A19" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="B19" s="85"/>
+        <v>132</v>
+      </c>
+      <c r="B19" s="82"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="90"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="87"/>
       <c r="I19" s="8"/>
       <c r="P19" s="8"/>
     </row>
     <row r="20" spans="1:16" ht="24.75" customHeight="1">
       <c r="A20" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="B20" s="85">
+        <v>84</v>
+      </c>
+      <c r="B20" s="82">
         <v>145</v>
       </c>
       <c r="C20" s="2">
@@ -9775,10 +11750,10 @@
       <c r="F20" s="2">
         <v>232</v>
       </c>
-      <c r="G20" s="90">
+      <c r="G20" s="87">
         <v>252</v>
       </c>
-      <c r="H20" s="90">
+      <c r="H20" s="87">
         <v>197</v>
       </c>
       <c r="I20" s="8"/>
@@ -9810,9 +11785,9 @@
     </row>
     <row r="21" spans="1:16" ht="23.25">
       <c r="A21" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="B21" s="85" t="s">
+        <v>141</v>
+      </c>
+      <c r="B21" s="82" t="s">
         <v>55</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -9827,10 +11802,10 @@
       <c r="F21" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G21" s="90" t="s">
+      <c r="G21" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="H21" s="90" t="s">
+      <c r="H21" s="87" t="s">
         <v>55</v>
       </c>
       <c r="I21" s="8"/>
@@ -9838,9 +11813,9 @@
     </row>
     <row r="22" spans="1:16" ht="21.75" customHeight="1">
       <c r="A22" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="B22" s="85" t="s">
+        <v>139</v>
+      </c>
+      <c r="B22" s="82" t="s">
         <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -9855,10 +11830,10 @@
       <c r="F22" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G22" s="90" t="s">
+      <c r="G22" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="H22" s="90" t="s">
+      <c r="H22" s="87" t="s">
         <v>55</v>
       </c>
       <c r="I22" s="8"/>
@@ -9866,9 +11841,9 @@
     </row>
     <row r="23" spans="1:16" ht="23.25">
       <c r="A23" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="B23" s="85">
+        <v>98</v>
+      </c>
+      <c r="B23" s="82">
         <v>12261</v>
       </c>
       <c r="C23" s="2">
@@ -9883,10 +11858,10 @@
       <c r="F23" s="2">
         <v>24527</v>
       </c>
-      <c r="G23" s="90">
+      <c r="G23" s="87">
         <v>35418</v>
       </c>
-      <c r="H23" s="90">
+      <c r="H23" s="87">
         <v>38841</v>
       </c>
       <c r="I23" s="8"/>
@@ -9894,9 +11869,9 @@
     </row>
     <row r="24" spans="1:16" ht="23.25">
       <c r="A24" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="B24" s="85">
+        <v>133</v>
+      </c>
+      <c r="B24" s="82">
         <v>1179</v>
       </c>
       <c r="C24" s="2">
@@ -9911,10 +11886,10 @@
       <c r="F24" s="2">
         <v>2087</v>
       </c>
-      <c r="G24" s="90">
+      <c r="G24" s="87">
         <v>2648</v>
       </c>
-      <c r="H24" s="90">
+      <c r="H24" s="87">
         <v>3755</v>
       </c>
       <c r="I24" s="8"/>
@@ -9922,9 +11897,9 @@
     </row>
     <row r="25" spans="1:16" ht="23.25">
       <c r="A25" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="B25" s="85">
+        <v>85</v>
+      </c>
+      <c r="B25" s="82">
         <v>32</v>
       </c>
       <c r="C25" s="2">
@@ -9939,17 +11914,17 @@
       <c r="F25" s="2">
         <v>73</v>
       </c>
-      <c r="G25" s="90">
+      <c r="G25" s="87">
         <v>129</v>
       </c>
-      <c r="H25" s="90">
+      <c r="H25" s="87">
         <v>236</v>
       </c>
       <c r="I25" s="8"/>
       <c r="P25" s="8"/>
     </row>
     <row r="26" spans="1:16" ht="33.75" customHeight="1">
-      <c r="A26" s="94" t="s">
+      <c r="A26" s="91" t="s">
         <v>9</v>
       </c>
       <c r="B26" s="44">
@@ -9972,11 +11947,11 @@
         <f t="shared" si="11"/>
         <v>26919</v>
       </c>
-      <c r="G26" s="95">
+      <c r="G26" s="92">
         <f t="shared" si="11"/>
         <v>38447</v>
       </c>
-      <c r="H26" s="95">
+      <c r="H26" s="92">
         <f t="shared" si="11"/>
         <v>43029</v>
       </c>
@@ -10011,7 +11986,7 @@
       <c r="A27" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="85">
+      <c r="B27" s="82">
         <v>1505</v>
       </c>
       <c r="C27" s="2">
@@ -10026,10 +12001,10 @@
       <c r="F27" s="2">
         <v>2520</v>
       </c>
-      <c r="G27" s="90">
+      <c r="G27" s="87">
         <v>2930</v>
       </c>
-      <c r="H27" s="90">
+      <c r="H27" s="87">
         <v>2998</v>
       </c>
       <c r="I27" s="8"/>
@@ -10042,7 +12017,7 @@
       <c r="P27" s="8"/>
     </row>
     <row r="28" spans="1:16" ht="23.25">
-      <c r="A28" s="94" t="s">
+      <c r="A28" s="91" t="s">
         <v>15</v>
       </c>
       <c r="B28" s="11" t="s">
@@ -10060,10 +12035,10 @@
       <c r="F28" s="11">
         <v>4965</v>
       </c>
-      <c r="G28" s="95">
+      <c r="G28" s="92">
         <v>8939</v>
       </c>
-      <c r="H28" s="95">
+      <c r="H28" s="92">
         <v>8049</v>
       </c>
       <c r="I28" s="8"/>
@@ -10082,7 +12057,7 @@
       <c r="P28" s="8"/>
     </row>
     <row r="29" spans="1:16" ht="30" customHeight="1">
-      <c r="A29" s="94" t="s">
+      <c r="A29" s="91" t="s">
         <v>11</v>
       </c>
       <c r="B29" s="44">
@@ -10105,11 +12080,11 @@
         <f>SUM(F26:F28)</f>
         <v>34404</v>
       </c>
-      <c r="G29" s="95">
+      <c r="G29" s="92">
         <f>SUM(G26:G28)</f>
         <v>50316</v>
       </c>
-      <c r="H29" s="95">
+      <c r="H29" s="92">
         <f t="shared" ref="H29" si="16">SUM(H26:H28)</f>
         <v>54076</v>
       </c>
@@ -10142,15 +12117,15 @@
     </row>
     <row r="30" spans="1:16" ht="19.5" customHeight="1">
       <c r="A30" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="B30" s="85"/>
+        <v>134</v>
+      </c>
+      <c r="B30" s="82"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="90"/>
-      <c r="H30" s="90"/>
+      <c r="G30" s="87"/>
+      <c r="H30" s="87"/>
       <c r="I30" s="8"/>
       <c r="P30" s="8"/>
     </row>
@@ -10163,14 +12138,14 @@
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
       <c r="F31" s="18"/>
-      <c r="G31" s="93"/>
-      <c r="H31" s="93"/>
+      <c r="G31" s="90"/>
+      <c r="H31" s="90"/>
     </row>
     <row r="32" spans="1:16" ht="25.5" customHeight="1">
       <c r="A32" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="B32" s="85" t="s">
+        <v>142</v>
+      </c>
+      <c r="B32" s="82" t="s">
         <v>55</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -10185,10 +12160,10 @@
       <c r="F32" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G32" s="90" t="s">
+      <c r="G32" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="H32" s="90" t="s">
+      <c r="H32" s="87" t="s">
         <v>47</v>
       </c>
       <c r="I32" s="8"/>
@@ -10196,9 +12171,9 @@
     </row>
     <row r="33" spans="1:16" ht="23.25">
       <c r="A33" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="B33" s="85" t="s">
+        <v>143</v>
+      </c>
+      <c r="B33" s="82" t="s">
         <v>55</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -10213,10 +12188,10 @@
       <c r="F33" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G33" s="90" t="s">
+      <c r="G33" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="H33" s="90" t="s">
+      <c r="H33" s="87" t="s">
         <v>47</v>
       </c>
       <c r="I33" s="8"/>
@@ -10226,7 +12201,7 @@
       <c r="A34" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="85" t="s">
+      <c r="B34" s="82" t="s">
         <v>55</v>
       </c>
       <c r="C34" s="2">
@@ -10241,10 +12216,10 @@
       <c r="F34" s="2">
         <v>-6872</v>
       </c>
-      <c r="G34" s="90">
+      <c r="G34" s="87">
         <v>-8507</v>
       </c>
-      <c r="H34" s="90">
+      <c r="H34" s="87">
         <v>-11880</v>
       </c>
       <c r="I34" s="8"/>
@@ -10272,9 +12247,9 @@
     </row>
     <row r="35" spans="1:16" ht="23.25">
       <c r="A35" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="B35" s="85">
+        <v>135</v>
+      </c>
+      <c r="B35" s="82">
         <v>13100</v>
       </c>
       <c r="C35" s="2">
@@ -10289,10 +12264,10 @@
       <c r="F35" s="2">
         <v>15588</v>
       </c>
-      <c r="G35" s="90">
+      <c r="G35" s="87">
         <v>16644</v>
       </c>
-      <c r="H35" s="90">
+      <c r="H35" s="87">
         <v>17208</v>
       </c>
       <c r="I35" s="8"/>
@@ -10323,8 +12298,8 @@
       <c r="P35" s="8"/>
     </row>
     <row r="36" spans="1:16" ht="29.25" customHeight="1">
-      <c r="A36" s="96" t="s">
-        <v>129</v>
+      <c r="A36" s="93" t="s">
+        <v>120</v>
       </c>
       <c r="B36" s="44">
         <v>668</v>
@@ -10341,10 +12316,10 @@
       <c r="F36" s="11">
         <v>8342</v>
       </c>
-      <c r="G36" s="95">
+      <c r="G36" s="92">
         <v>12366</v>
       </c>
-      <c r="H36" s="95">
+      <c r="H36" s="92">
         <v>16535</v>
       </c>
       <c r="I36" s="8"/>
@@ -10376,9 +12351,9 @@
     </row>
     <row r="37" spans="1:16" ht="23.25">
       <c r="A37" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="B37" s="85">
+        <v>136</v>
+      </c>
+      <c r="B37" s="82">
         <v>-9</v>
       </c>
       <c r="C37" s="2">
@@ -10393,10 +12368,10 @@
       <c r="F37" s="2">
         <v>-173</v>
       </c>
-      <c r="G37" s="90">
+      <c r="G37" s="87">
         <v>-484</v>
       </c>
-      <c r="H37" s="90">
+      <c r="H37" s="87">
         <v>-136</v>
       </c>
       <c r="I37" s="8"/>
@@ -10410,33 +12385,33 @@
     </row>
     <row r="38" spans="1:16" ht="21.75" customHeight="1">
       <c r="A38" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="B38" s="85">
+        <v>137</v>
+      </c>
+      <c r="B38" s="82">
         <f>SUM(B34:B37)</f>
         <v>13759</v>
       </c>
-      <c r="C38" s="85">
+      <c r="C38" s="82">
         <f t="shared" ref="C38:F38" si="24">SUM(C34:C37)</f>
         <v>14712</v>
       </c>
-      <c r="D38" s="85">
+      <c r="D38" s="82">
         <f t="shared" si="24"/>
         <v>15994</v>
       </c>
-      <c r="E38" s="85">
+      <c r="E38" s="82">
         <f t="shared" si="24"/>
         <v>15386</v>
       </c>
-      <c r="F38" s="85">
+      <c r="F38" s="82">
         <f t="shared" si="24"/>
         <v>16885</v>
       </c>
-      <c r="G38" s="90">
+      <c r="G38" s="87">
         <f>SUM(G34:G37)</f>
         <v>20019</v>
       </c>
-      <c r="H38" s="90">
+      <c r="H38" s="87">
         <f t="shared" ref="H38" si="25">SUM(H34:H37)</f>
         <v>21727</v>
       </c>
@@ -10450,10 +12425,10 @@
       <c r="P38" s="8"/>
     </row>
     <row r="39" spans="1:16" ht="23.25">
-      <c r="A39" s="86" t="s">
-        <v>148</v>
-      </c>
-      <c r="B39" s="85" t="s">
+      <c r="A39" s="83" t="s">
+        <v>138</v>
+      </c>
+      <c r="B39" s="82" t="s">
         <v>55</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -10468,10 +12443,10 @@
       <c r="F39" s="2">
         <v>44</v>
       </c>
-      <c r="G39" s="90">
+      <c r="G39" s="87">
         <v>44</v>
       </c>
-      <c r="H39" s="90" t="s">
+      <c r="H39" s="87" t="s">
         <v>47</v>
       </c>
       <c r="I39" s="8"/>
@@ -10484,7 +12459,7 @@
       <c r="P39" s="8"/>
     </row>
     <row r="40" spans="1:16" ht="31.5" customHeight="1">
-      <c r="A40" s="94" t="s">
+      <c r="A40" s="91" t="s">
         <v>13</v>
       </c>
       <c r="B40" s="44">
@@ -10507,11 +12482,11 @@
         <f t="shared" si="26"/>
         <v>16929</v>
       </c>
-      <c r="G40" s="95">
+      <c r="G40" s="92">
         <f>SUM(G38:G39)</f>
         <v>20063</v>
       </c>
-      <c r="H40" s="95">
+      <c r="H40" s="92">
         <f t="shared" ref="H40" si="27">SUM(H38:H39)</f>
         <v>21727</v>
       </c>
@@ -10543,7 +12518,7 @@
       <c r="P40" s="8"/>
     </row>
     <row r="41" spans="1:16" ht="31.5" customHeight="1">
-      <c r="A41" s="94" t="s">
+      <c r="A41" s="91" t="s">
         <v>14</v>
       </c>
       <c r="B41" s="44">
@@ -10566,11 +12541,11 @@
         <f t="shared" si="34"/>
         <v>51333</v>
       </c>
-      <c r="G41" s="95">
+      <c r="G41" s="92">
         <f>G40+G29</f>
         <v>70379</v>
       </c>
-      <c r="H41" s="95">
+      <c r="H41" s="92">
         <f t="shared" ref="H41" si="35">H40+H29</f>
         <v>75803</v>
       </c>
@@ -10602,34 +12577,34 @@
       <c r="P41" s="8"/>
     </row>
     <row r="42" spans="1:16">
-      <c r="A42" s="97" t="s">
-        <v>134</v>
-      </c>
-      <c r="B42" s="99">
+      <c r="A42" s="94" t="s">
+        <v>124</v>
+      </c>
+      <c r="B42" s="96">
         <f>B11/B26</f>
         <v>1.5163398692810457</v>
       </c>
-      <c r="C42" s="99">
+      <c r="C42" s="96">
         <f t="shared" ref="C42:H42" si="36">C11/C26</f>
         <v>1.5246474700793933</v>
       </c>
-      <c r="D42" s="99">
+      <c r="D42" s="96">
         <f t="shared" si="36"/>
         <v>1.4278528627039322</v>
       </c>
-      <c r="E42" s="99">
+      <c r="E42" s="96">
         <f t="shared" si="36"/>
         <v>1.2725061766522545</v>
       </c>
-      <c r="F42" s="99">
+      <c r="F42" s="96">
         <f t="shared" si="36"/>
         <v>1.4300308332404621</v>
       </c>
-      <c r="G42" s="99">
+      <c r="G42" s="96">
         <f t="shared" si="36"/>
         <v>1.3263713683772467</v>
       </c>
-      <c r="H42" s="99">
+      <c r="H42" s="96">
         <f t="shared" si="36"/>
         <v>1.2218271398359246</v>
       </c>
@@ -10661,48 +12636,48 @@
       <c r="P42" s="8"/>
     </row>
     <row r="43" spans="1:16">
-      <c r="A43" s="97" t="s">
-        <v>135</v>
-      </c>
-      <c r="B43" s="98"/>
-      <c r="C43" s="98"/>
-      <c r="D43" s="98"/>
-      <c r="E43" s="98"/>
-      <c r="F43" s="98"/>
-      <c r="G43" s="98"/>
-      <c r="H43" s="98"/>
+      <c r="A43" s="94" t="s">
+        <v>125</v>
+      </c>
+      <c r="B43" s="95"/>
+      <c r="C43" s="95"/>
+      <c r="D43" s="95"/>
+      <c r="E43" s="95"/>
+      <c r="F43" s="95"/>
+      <c r="G43" s="95"/>
+      <c r="H43" s="95"/>
       <c r="I43" s="8"/>
       <c r="P43" s="8"/>
     </row>
     <row r="44" spans="1:16">
-      <c r="A44" s="97" t="s">
-        <v>136</v>
-      </c>
-      <c r="B44" s="99">
+      <c r="A44" s="94" t="s">
+        <v>126</v>
+      </c>
+      <c r="B44" s="96">
         <f>B29/B40</f>
         <v>1.0990624318627806</v>
       </c>
-      <c r="C44" s="99">
+      <c r="C44" s="96">
         <f t="shared" ref="C44:H44" si="37">C29/C40</f>
         <v>1.2500679717237628</v>
       </c>
-      <c r="D44" s="99">
+      <c r="D44" s="96">
         <f t="shared" si="37"/>
         <v>1.5493309991246718</v>
       </c>
-      <c r="E44" s="99">
+      <c r="E44" s="96">
         <f t="shared" si="37"/>
         <v>1.8163265306122449</v>
       </c>
-      <c r="F44" s="99">
+      <c r="F44" s="96">
         <f t="shared" si="37"/>
         <v>2.0322523480418218</v>
       </c>
-      <c r="G44" s="99">
+      <c r="G44" s="96">
         <f t="shared" si="37"/>
         <v>2.5079001146388875</v>
       </c>
-      <c r="H44" s="99">
+      <c r="H44" s="96">
         <f t="shared" si="37"/>
         <v>2.4888847977171262</v>
       </c>
@@ -10734,45 +12709,45 @@
       <c r="P44" s="8"/>
     </row>
     <row r="45" spans="1:16">
-      <c r="A45" s="97" t="s">
-        <v>137</v>
-      </c>
-      <c r="B45" s="98"/>
-      <c r="C45" s="98"/>
-      <c r="D45" s="98"/>
-      <c r="E45" s="98"/>
-      <c r="F45" s="98"/>
-      <c r="G45" s="98"/>
-      <c r="H45" s="98"/>
+      <c r="A45" s="94" t="s">
+        <v>127</v>
+      </c>
+      <c r="B45" s="95"/>
+      <c r="C45" s="95"/>
+      <c r="D45" s="95"/>
+      <c r="E45" s="95"/>
+      <c r="F45" s="95"/>
+      <c r="G45" s="95"/>
+      <c r="H45" s="95"/>
       <c r="I45" s="8"/>
       <c r="P45" s="8"/>
     </row>
     <row r="46" spans="1:16" ht="28.5" customHeight="1">
-      <c r="A46" s="102" t="s">
-        <v>155</v>
-      </c>
-      <c r="B46" s="87"/>
-      <c r="C46" s="103">
+      <c r="A46" s="99" t="s">
+        <v>145</v>
+      </c>
+      <c r="B46" s="84"/>
+      <c r="C46" s="100">
         <f>INCOME成長性!C2/(('BALANCE SHEET穩定性'!C6+'BALANCE SHEET穩定性'!B6)*0.5)</f>
         <v>61.777777777777779</v>
       </c>
-      <c r="D46" s="103">
+      <c r="D46" s="100">
         <f>INCOME成長性!D2/(('BALANCE SHEET穩定性'!D6+'BALANCE SHEET穩定性'!C6)*0.5)</f>
         <v>52.692152917505027</v>
       </c>
-      <c r="E46" s="103">
+      <c r="E46" s="100">
         <f>INCOME成長性!E2/(('BALANCE SHEET穩定性'!E6+'BALANCE SHEET穩定性'!D6)*0.5)</f>
         <v>51.848993288590606</v>
       </c>
-      <c r="F46" s="103">
+      <c r="F46" s="100">
         <f>INCOME成長性!F2/(('BALANCE SHEET穩定性'!F6+'BALANCE SHEET穩定性'!E6)*0.5)</f>
         <v>47.518716577540104</v>
       </c>
-      <c r="G46" s="103">
+      <c r="G46" s="100">
         <f>INCOME成長性!G2/(('BALANCE SHEET穩定性'!G6+'BALANCE SHEET穩定性'!F6)*0.5)</f>
         <v>42.399209486166008</v>
       </c>
-      <c r="H46" s="103">
+      <c r="H46" s="100">
         <f>INCOME成長性!H2/(('BALANCE SHEET穩定性'!H6+'BALANCE SHEET穩定性'!G6)*0.5)</f>
         <v>36.849673202614376</v>
       </c>
@@ -10786,46 +12761,46 @@
       <c r="P46" s="8"/>
     </row>
     <row r="47" spans="1:16" ht="28.5" customHeight="1">
-      <c r="A47" s="102" t="s">
-        <v>156</v>
-      </c>
-      <c r="B47" s="87"/>
-      <c r="C47" s="103"/>
-      <c r="D47" s="103"/>
-      <c r="E47" s="103"/>
-      <c r="F47" s="103"/>
-      <c r="G47" s="103"/>
-      <c r="H47" s="103"/>
+      <c r="A47" s="99" t="s">
+        <v>146</v>
+      </c>
+      <c r="B47" s="84"/>
+      <c r="C47" s="100"/>
+      <c r="D47" s="100"/>
+      <c r="E47" s="100"/>
+      <c r="F47" s="100"/>
+      <c r="G47" s="100"/>
+      <c r="H47" s="100"/>
       <c r="I47" s="8"/>
       <c r="K47" s="27"/>
       <c r="P47" s="8"/>
     </row>
     <row r="48" spans="1:16" ht="27" customHeight="1">
-      <c r="A48" s="102" t="s">
-        <v>157</v>
-      </c>
-      <c r="B48" s="87"/>
-      <c r="C48" s="103">
+      <c r="A48" s="99" t="s">
+        <v>147</v>
+      </c>
+      <c r="B48" s="84"/>
+      <c r="C48" s="100">
         <f>INCOME成長性!C4/(('BALANCE SHEET穩定性'!C20+'BALANCE SHEET穩定性'!B20)*0.5)</f>
         <v>19.857566765578635</v>
       </c>
-      <c r="D48" s="103">
+      <c r="D48" s="100">
         <f>INCOME成長性!D4/(('BALANCE SHEET穩定性'!D20+'BALANCE SHEET穩定性'!C20)*0.5)</f>
         <v>19.683741648106903</v>
       </c>
-      <c r="E48" s="103">
+      <c r="E48" s="100">
         <f>INCOME成長性!E4/(('BALANCE SHEET穩定性'!E20+'BALANCE SHEET穩定性'!D20)*0.5)</f>
         <v>20.74721189591078</v>
       </c>
-      <c r="F48" s="103">
+      <c r="F48" s="100">
         <f>INCOME成長性!F4/(('BALANCE SHEET穩定性'!F20+'BALANCE SHEET穩定性'!E20)*0.5)</f>
         <v>26.471734892787524</v>
       </c>
-      <c r="G48" s="103">
+      <c r="G48" s="100">
         <f>INCOME成長性!G4/(('BALANCE SHEET穩定性'!G20+'BALANCE SHEET穩定性'!F20)*0.5)</f>
         <v>32.785123966942152</v>
       </c>
-      <c r="H48" s="103">
+      <c r="H48" s="100">
         <f>INCOME成長性!H4/(('BALANCE SHEET穩定性'!H20+'BALANCE SHEET穩定性'!G20)*0.5)</f>
         <v>45.946547884187083</v>
       </c>
@@ -10839,31 +12814,31 @@
       <c r="P48" s="8"/>
     </row>
     <row r="49" spans="1:16" ht="27" customHeight="1">
-      <c r="A49" s="97" t="s">
-        <v>158</v>
-      </c>
-      <c r="B49" s="98"/>
-      <c r="C49" s="101">
+      <c r="A49" s="94" t="s">
+        <v>148</v>
+      </c>
+      <c r="B49" s="95"/>
+      <c r="C49" s="98">
         <f>365/C46</f>
         <v>5.9082733812949639</v>
       </c>
-      <c r="D49" s="101">
+      <c r="D49" s="98">
         <f t="shared" ref="D49:H49" si="39">365/D46</f>
         <v>6.927027646250191</v>
       </c>
-      <c r="E49" s="101">
+      <c r="E49" s="98">
         <f t="shared" si="39"/>
         <v>7.0396738075205487</v>
       </c>
-      <c r="F49" s="101">
+      <c r="F49" s="98">
         <f t="shared" si="39"/>
         <v>7.6811838847625484</v>
       </c>
-      <c r="G49" s="101">
+      <c r="G49" s="98">
         <f t="shared" si="39"/>
         <v>8.6086510674000181</v>
       </c>
-      <c r="H49" s="101">
+      <c r="H49" s="98">
         <f t="shared" si="39"/>
         <v>9.9051081943951758</v>
       </c>
@@ -10892,45 +12867,45 @@
       <c r="P49" s="8"/>
     </row>
     <row r="50" spans="1:16" ht="27" customHeight="1">
-      <c r="A50" s="97" t="s">
-        <v>159</v>
-      </c>
-      <c r="B50" s="98"/>
-      <c r="C50" s="101"/>
-      <c r="D50" s="101"/>
-      <c r="E50" s="101"/>
-      <c r="F50" s="101"/>
-      <c r="G50" s="101"/>
-      <c r="H50" s="101"/>
+      <c r="A50" s="94" t="s">
+        <v>149</v>
+      </c>
+      <c r="B50" s="95"/>
+      <c r="C50" s="98"/>
+      <c r="D50" s="98"/>
+      <c r="E50" s="98"/>
+      <c r="F50" s="98"/>
+      <c r="G50" s="98"/>
+      <c r="H50" s="98"/>
       <c r="I50" s="8"/>
       <c r="P50" s="8"/>
     </row>
     <row r="51" spans="1:16" ht="27" customHeight="1">
-      <c r="A51" s="97" t="s">
-        <v>160</v>
-      </c>
-      <c r="B51" s="98"/>
-      <c r="C51" s="101">
+      <c r="A51" s="94" t="s">
+        <v>150</v>
+      </c>
+      <c r="B51" s="95"/>
+      <c r="C51" s="98">
         <f t="shared" ref="C51:H51" si="41">365/C48</f>
         <v>18.380902570233115</v>
       </c>
-      <c r="D51" s="101">
+      <c r="D51" s="98">
         <f t="shared" si="41"/>
         <v>18.543222448517767</v>
       </c>
-      <c r="E51" s="101">
+      <c r="E51" s="98">
         <f t="shared" si="41"/>
         <v>17.59272531804336</v>
       </c>
-      <c r="F51" s="101">
+      <c r="F51" s="98">
         <f t="shared" si="41"/>
         <v>13.788291605301914</v>
       </c>
-      <c r="G51" s="101">
+      <c r="G51" s="98">
         <f t="shared" si="41"/>
         <v>11.133098058986638</v>
       </c>
-      <c r="H51" s="101">
+      <c r="H51" s="98">
         <f t="shared" si="41"/>
         <v>7.9440135724672807</v>
       </c>
@@ -10960,12 +12935,12 @@
     </row>
     <row r="52" spans="1:16" ht="21.75" customHeight="1">
       <c r="A52"/>
-      <c r="C52" s="100"/>
-      <c r="D52" s="100"/>
-      <c r="E52" s="100"/>
-      <c r="F52" s="100"/>
-      <c r="G52" s="100"/>
-      <c r="H52" s="100"/>
+      <c r="C52" s="97"/>
+      <c r="D52" s="97"/>
+      <c r="E52" s="97"/>
+      <c r="F52" s="97"/>
+      <c r="G52" s="97"/>
+      <c r="H52" s="97"/>
     </row>
     <row r="53" spans="1:16">
       <c r="A53" s="10" t="s">
@@ -11917,76 +13892,76 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J11:O11">
-    <cfRule type="top10" dxfId="57" priority="35" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="56" priority="36" rank="1"/>
+    <cfRule type="top10" dxfId="51" priority="35" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="50" priority="36" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17:O17">
-    <cfRule type="top10" dxfId="55" priority="33" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="54" priority="34" rank="1"/>
+    <cfRule type="top10" dxfId="49" priority="33" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="48" priority="34" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26:O26">
-    <cfRule type="top10" dxfId="53" priority="31" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="52" priority="32" rank="1"/>
+    <cfRule type="top10" dxfId="47" priority="31" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="46" priority="32" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N28:O28">
-    <cfRule type="top10" dxfId="51" priority="29" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="50" priority="30" rank="1"/>
+    <cfRule type="top10" dxfId="45" priority="29" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="44" priority="30" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29:O29">
-    <cfRule type="top10" dxfId="49" priority="27" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="48" priority="28" rank="1"/>
+    <cfRule type="top10" dxfId="43" priority="27" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="42" priority="28" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J36:O36">
-    <cfRule type="top10" dxfId="47" priority="25" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="46" priority="26" rank="1"/>
+    <cfRule type="top10" dxfId="41" priority="25" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="40" priority="26" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J40:O40">
-    <cfRule type="top10" dxfId="45" priority="23" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="44" priority="24" rank="1"/>
+    <cfRule type="top10" dxfId="39" priority="23" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="38" priority="24" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J41:O41">
-    <cfRule type="top10" dxfId="43" priority="21" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="42" priority="22" rank="1"/>
+    <cfRule type="top10" dxfId="37" priority="21" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="36" priority="22" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J42:O42">
-    <cfRule type="top10" dxfId="41" priority="19" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="40" priority="20" rank="1"/>
+    <cfRule type="top10" dxfId="35" priority="19" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="34" priority="20" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J44:O44">
-    <cfRule type="top10" dxfId="39" priority="17" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="38" priority="18" rank="1"/>
+    <cfRule type="top10" dxfId="33" priority="17" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="32" priority="18" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34:O34">
-    <cfRule type="top10" dxfId="37" priority="15" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="36" priority="16" rank="1"/>
+    <cfRule type="top10" dxfId="31" priority="15" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="30" priority="16" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J35:O35">
-    <cfRule type="top10" dxfId="35" priority="13" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="34" priority="14" rank="1"/>
+    <cfRule type="top10" dxfId="29" priority="13" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="28" priority="14" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J46:O46">
-    <cfRule type="top10" dxfId="33" priority="11" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="32" priority="12" rank="1"/>
+    <cfRule type="top10" dxfId="27" priority="11" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="26" priority="12" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J48:O48">
-    <cfRule type="top10" dxfId="31" priority="9" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="30" priority="10" rank="1"/>
+    <cfRule type="top10" dxfId="25" priority="9" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="24" priority="10" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J49:O49">
-    <cfRule type="top10" dxfId="9" priority="7" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="8" priority="8" rank="1"/>
+    <cfRule type="top10" dxfId="23" priority="7" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="22" priority="8" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J51:O51">
-    <cfRule type="top10" dxfId="15" priority="5" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="14" priority="6" rank="1"/>
+    <cfRule type="top10" dxfId="21" priority="5" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="20" priority="6" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:O6">
-    <cfRule type="top10" dxfId="7" priority="3" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="6" priority="4" rank="1"/>
+    <cfRule type="top10" dxfId="19" priority="3" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="18" priority="4" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20:O20">
-    <cfRule type="top10" dxfId="5" priority="1" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="4" priority="2" rank="1"/>
+    <cfRule type="top10" dxfId="17" priority="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="16" priority="2" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12370,13 +14345,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P1237"/>
+  <dimension ref="A1:S1236"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M17" sqref="M17"/>
+      <selection pane="bottomRight" activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
@@ -12388,7 +14363,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="33" customHeight="1">
-      <c r="A1" s="60"/>
+      <c r="A1" s="59"/>
       <c r="B1" s="57">
         <v>2015</v>
       </c>
@@ -12436,40 +14411,40 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" ht="23.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
     </row>
     <row r="3" spans="1:16" ht="36" customHeight="1">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="105">
+      <c r="B3" s="103">
         <v>1228</v>
       </c>
-      <c r="C3" s="106">
+      <c r="C3" s="102">
         <v>1401</v>
       </c>
-      <c r="D3" s="106">
+      <c r="D3" s="102">
         <v>1795</v>
       </c>
-      <c r="E3" s="106">
+      <c r="E3" s="102">
         <v>2057</v>
       </c>
-      <c r="F3" s="106">
+      <c r="F3" s="102">
         <v>2459</v>
       </c>
-      <c r="G3" s="106">
+      <c r="G3" s="102">
         <v>4202</v>
       </c>
-      <c r="H3" s="106">
+      <c r="H3" s="102">
         <v>4169</v>
       </c>
       <c r="J3" s="27">
@@ -12498,10 +14473,10 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="23.25">
-      <c r="A4" s="63" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="59"/>
+      <c r="A4" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" s="104"/>
       <c r="C4" s="54"/>
       <c r="D4" s="54"/>
       <c r="E4" s="54"/>
@@ -12510,10 +14485,10 @@
       <c r="H4" s="52"/>
     </row>
     <row r="5" spans="1:16" ht="23.25">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="58">
+      <c r="B5" s="105">
         <v>809</v>
       </c>
       <c r="C5" s="56">
@@ -12536,10 +14511,10 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="23.25">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="58">
+      <c r="B6" s="105">
         <v>608</v>
       </c>
       <c r="C6" s="56">
@@ -12562,10 +14537,10 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="23.25">
-      <c r="A7" s="62" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" s="58">
+      <c r="A7" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="105">
         <v>346</v>
       </c>
       <c r="C7" s="56">
@@ -12588,10 +14563,10 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="23.25">
-      <c r="A8" s="62" t="s">
-        <v>80</v>
-      </c>
-      <c r="B8" s="58">
+      <c r="A8" s="61" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" s="105">
         <v>127</v>
       </c>
       <c r="C8" s="56">
@@ -12614,10 +14589,10 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="23.25">
-      <c r="A9" s="62" t="s">
-        <v>81</v>
-      </c>
-      <c r="B9" s="58">
+      <c r="A9" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="105">
         <v>-26</v>
       </c>
       <c r="C9" s="56">
@@ -12640,10 +14615,10 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="23.25">
-      <c r="A10" s="62" t="s">
-        <v>121</v>
-      </c>
-      <c r="B10" s="58">
+      <c r="A10" s="61" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" s="105">
         <v>-40</v>
       </c>
       <c r="C10" s="56">
@@ -12666,10 +14641,10 @@
       </c>
     </row>
     <row r="11" spans="1:16" ht="23.25">
-      <c r="A11" s="62" t="s">
-        <v>82</v>
-      </c>
-      <c r="B11" s="58">
+      <c r="A11" s="61" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="105">
         <v>0</v>
       </c>
       <c r="C11" s="56">
@@ -12692,10 +14667,10 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="23.25">
-      <c r="A12" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="B12" s="58"/>
+      <c r="A12" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="105"/>
       <c r="C12" s="56"/>
       <c r="D12" s="56"/>
       <c r="E12" s="56"/>
@@ -12704,10 +14679,10 @@
       <c r="H12" s="56"/>
     </row>
     <row r="13" spans="1:16" ht="23.25">
-      <c r="A13" s="62" t="s">
-        <v>84</v>
-      </c>
-      <c r="B13" s="58">
+      <c r="A13" s="61" t="s">
+        <v>152</v>
+      </c>
+      <c r="B13" s="105">
         <v>-22</v>
       </c>
       <c r="C13" s="56">
@@ -12753,11 +14728,11 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="23.25">
-      <c r="A14" s="62" t="s">
-        <v>133</v>
-      </c>
-      <c r="B14" s="58">
+    <row r="14" spans="1:16" ht="25.5">
+      <c r="A14" s="61" t="s">
+        <v>156</v>
+      </c>
+      <c r="B14" s="105">
         <v>14</v>
       </c>
       <c r="C14" s="56">
@@ -12780,10 +14755,10 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="23.25">
-      <c r="A15" s="62" t="s">
-        <v>85</v>
-      </c>
-      <c r="B15" s="58">
+      <c r="A15" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="105">
         <v>-493</v>
       </c>
       <c r="C15" s="56">
@@ -12806,10 +14781,10 @@
       </c>
     </row>
     <row r="16" spans="1:16" ht="23.25">
-      <c r="A16" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="B16" s="58">
+      <c r="A16" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="105">
         <v>-384</v>
       </c>
       <c r="C16" s="56">
@@ -12831,11 +14806,11 @@
         <v>-150</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="23.25">
-      <c r="A17" s="62" t="s">
-        <v>87</v>
-      </c>
-      <c r="B17" s="58">
+    <row r="17" spans="1:19" ht="23.25">
+      <c r="A17" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="105">
         <v>12</v>
       </c>
       <c r="C17" s="56">
@@ -12857,11 +14832,11 @@
         <v>-31</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="23.25">
-      <c r="A18" s="62" t="s">
-        <v>88</v>
-      </c>
-      <c r="B18" s="58">
+    <row r="18" spans="1:19" ht="23.25">
+      <c r="A18" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="105">
         <v>40</v>
       </c>
       <c r="C18" s="56">
@@ -12883,11 +14858,11 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="23.25">
-      <c r="A19" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="B19" s="58">
+    <row r="19" spans="1:19" ht="23.25">
+      <c r="A19" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="105">
         <v>423</v>
       </c>
       <c r="C19" s="56">
@@ -12909,11 +14884,11 @@
         <v>406</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="23.25">
-      <c r="A20" s="62" t="s">
-        <v>122</v>
-      </c>
-      <c r="B20" s="58">
+    <row r="20" spans="1:19" ht="23.25">
+      <c r="A20" s="61" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20" s="105">
         <v>121</v>
       </c>
       <c r="C20" s="56">
@@ -12935,11 +14910,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="23.25">
-      <c r="A21" s="62" t="s">
-        <v>123</v>
-      </c>
-      <c r="B21" s="58">
+    <row r="21" spans="1:19" ht="23.25">
+      <c r="A21" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" s="105">
         <v>-217</v>
       </c>
       <c r="C21" s="56">
@@ -12961,35 +14936,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="42.95" customHeight="1">
-      <c r="A22" s="64" t="s">
-        <v>90</v>
-      </c>
-      <c r="B22" s="66">
+    <row r="22" spans="1:19" ht="42.95" customHeight="1">
+      <c r="A22" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" s="106">
         <f>SUM(B3:B21)</f>
         <v>2546</v>
       </c>
-      <c r="C22" s="66">
+      <c r="C22" s="65">
         <f t="shared" ref="C22:H22" si="2">SUM(C3:C21)</f>
         <v>3158</v>
       </c>
-      <c r="D22" s="66">
+      <c r="D22" s="65">
         <f t="shared" si="2"/>
         <v>2531</v>
       </c>
-      <c r="E22" s="66">
+      <c r="E22" s="65">
         <f t="shared" si="2"/>
         <v>5483</v>
       </c>
-      <c r="F22" s="66">
+      <c r="F22" s="65">
         <f t="shared" si="2"/>
         <v>4071</v>
       </c>
-      <c r="G22" s="66">
+      <c r="G22" s="65">
         <f t="shared" si="2"/>
         <v>5854</v>
       </c>
-      <c r="H22" s="66">
+      <c r="H22" s="65">
         <f t="shared" si="2"/>
         <v>6340</v>
       </c>
@@ -13018,23 +14993,23 @@
         <v>8.302015715749915E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="1" customFormat="1" ht="23.25">
-      <c r="A23" s="61" t="s">
-        <v>91</v>
-      </c>
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
-    </row>
-    <row r="24" spans="1:15" ht="23.25">
-      <c r="A24" s="62" t="s">
-        <v>92</v>
-      </c>
-      <c r="B24" s="58">
+    <row r="23" spans="1:19" s="1" customFormat="1" ht="23.25">
+      <c r="A23" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" s="107"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+    </row>
+    <row r="24" spans="1:19" ht="23.25">
+      <c r="A24" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" s="105">
         <v>-722</v>
       </c>
       <c r="C24" s="56">
@@ -13056,11 +15031,11 @@
         <v>-908</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="23.25">
-      <c r="A25" s="62" t="s">
-        <v>93</v>
-      </c>
-      <c r="B25" s="58">
+    <row r="25" spans="1:19" ht="23.25">
+      <c r="A25" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" s="105">
         <v>26</v>
       </c>
       <c r="C25" s="56">
@@ -13082,11 +15057,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="23.25">
-      <c r="A26" s="62" t="s">
-        <v>94</v>
-      </c>
-      <c r="B26" s="58">
+    <row r="26" spans="1:19" ht="25.5">
+      <c r="A26" s="61" t="s">
+        <v>155</v>
+      </c>
+      <c r="B26" s="105">
         <v>-819</v>
       </c>
       <c r="C26" s="56">
@@ -13108,12 +15083,12 @@
         <v>-1594</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="23.25">
-      <c r="A27" s="62" t="s">
-        <v>95</v>
-      </c>
-      <c r="B27" s="58">
-        <v>-7542</v>
+    <row r="27" spans="1:19" ht="23.25">
+      <c r="A27" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" s="105">
+        <v>-21626</v>
       </c>
       <c r="C27" s="56">
         <v>-21041</v>
@@ -13133,13 +15108,14 @@
       <c r="H27" s="56">
         <v>-40116</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" ht="23.25">
-      <c r="A28" s="62" t="s">
-        <v>96</v>
-      </c>
-      <c r="B28" s="58">
-        <v>3318</v>
+      <c r="S27" s="12"/>
+    </row>
+    <row r="28" spans="1:19" ht="23.25">
+      <c r="A28" s="61" t="s">
+        <v>160</v>
+      </c>
+      <c r="B28" s="105">
+        <v>16148</v>
       </c>
       <c r="C28" s="56">
         <v>18429</v>
@@ -13160,11 +15136,11 @@
         <v>39698</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="23.25">
-      <c r="A29" s="62" t="s">
-        <v>97</v>
-      </c>
-      <c r="B29" s="58">
+    <row r="29" spans="1:19" ht="23.25">
+      <c r="A29" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="105">
         <v>-1225</v>
       </c>
       <c r="C29" s="56">
@@ -13186,12 +15162,12 @@
         <v>-2763</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="23.25">
-      <c r="A30" s="62" t="s">
-        <v>126</v>
-      </c>
-      <c r="B30" s="58">
-        <v>0</v>
+    <row r="30" spans="1:19" ht="23.25">
+      <c r="A30" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="B30" s="105">
+        <v>-395</v>
       </c>
       <c r="C30" s="56">
         <v>-1081</v>
@@ -13212,11 +15188,11 @@
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="23.25">
-      <c r="A31" s="62" t="s">
-        <v>124</v>
-      </c>
-      <c r="B31" s="58">
+    <row r="31" spans="1:19" ht="23.25">
+      <c r="A31" s="61" t="s">
+        <v>115</v>
+      </c>
+      <c r="B31" s="105">
         <v>575</v>
       </c>
       <c r="C31" s="56">
@@ -13238,41 +15214,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="38.1" customHeight="1">
-      <c r="A32" s="64" t="s">
-        <v>98</v>
-      </c>
-      <c r="B32" s="66">
+    <row r="32" spans="1:19" ht="38.1" customHeight="1">
+      <c r="A32" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" s="106">
         <f>SUM(B24:B31)</f>
-        <v>-6389</v>
-      </c>
-      <c r="C32" s="66">
+        <v>-8038</v>
+      </c>
+      <c r="C32" s="65">
         <f t="shared" ref="C32:H32" si="4">SUM(C24:C31)</f>
         <v>-5904</v>
       </c>
-      <c r="D32" s="66">
+      <c r="D32" s="65">
         <f t="shared" si="4"/>
         <v>-4485</v>
       </c>
-      <c r="E32" s="66">
+      <c r="E32" s="65">
         <f t="shared" si="4"/>
         <v>840</v>
       </c>
-      <c r="F32" s="66">
+      <c r="F32" s="65">
         <f t="shared" si="4"/>
         <v>-5742</v>
       </c>
-      <c r="G32" s="66">
+      <c r="G32" s="65">
         <f t="shared" si="4"/>
         <v>-16218</v>
       </c>
-      <c r="H32" s="66">
+      <c r="H32" s="65">
         <f t="shared" si="4"/>
         <v>-5575</v>
       </c>
       <c r="J32" s="27">
         <f>(C32-B32)/ABS(B32)</f>
-        <v>7.591172327437784E-2</v>
+        <v>0.26548892759392884</v>
       </c>
       <c r="K32" s="27">
         <f t="shared" ref="K32:O32" si="5">(D32-C32)/ABS(C32)</f>
@@ -13296,22 +15272,22 @@
       </c>
     </row>
     <row r="33" spans="1:15" s="1" customFormat="1" ht="23.25">
-      <c r="A33" s="61" t="s">
-        <v>99</v>
-      </c>
-      <c r="B33" s="72"/>
-      <c r="C33" s="73"/>
-      <c r="D33" s="73"/>
-      <c r="E33" s="73"/>
-      <c r="F33" s="73"/>
-      <c r="G33" s="73"/>
-      <c r="H33" s="73"/>
+      <c r="A33" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="B33" s="108"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="70"/>
+      <c r="G33" s="70"/>
+      <c r="H33" s="70"/>
     </row>
     <row r="34" spans="1:15" ht="23.25">
-      <c r="A34" s="62" t="s">
-        <v>100</v>
-      </c>
-      <c r="B34" s="58">
+      <c r="A34" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" s="105">
         <v>75</v>
       </c>
       <c r="C34" s="56">
@@ -13335,10 +15311,10 @@
       <c r="J34" s="27"/>
     </row>
     <row r="35" spans="1:15" ht="23.25">
-      <c r="A35" s="62" t="s">
-        <v>101</v>
-      </c>
-      <c r="B35" s="58">
+      <c r="A35" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="B35" s="105">
         <v>0</v>
       </c>
       <c r="C35" s="56">
@@ -13362,10 +15338,10 @@
       <c r="J35" s="27"/>
     </row>
     <row r="36" spans="1:15" ht="23.25">
-      <c r="A36" s="62" t="s">
-        <v>120</v>
-      </c>
-      <c r="B36" s="58">
+      <c r="A36" s="61" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36" s="105">
         <v>26</v>
       </c>
       <c r="C36" s="56">
@@ -13389,10 +15365,10 @@
       <c r="J36" s="27"/>
     </row>
     <row r="37" spans="1:15" ht="23.25">
-      <c r="A37" s="62" t="s">
-        <v>125</v>
-      </c>
-      <c r="B37" s="58">
+      <c r="A37" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="B37" s="105">
         <v>3858</v>
       </c>
       <c r="C37" s="56">
@@ -13416,10 +15392,10 @@
       <c r="J37" s="27"/>
     </row>
     <row r="38" spans="1:15" ht="23.25">
-      <c r="A38" s="62" t="s">
-        <v>102</v>
-      </c>
-      <c r="B38" s="58">
+      <c r="A38" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="B38" s="105">
         <v>-18</v>
       </c>
       <c r="C38" s="56">
@@ -13443,11 +15419,11 @@
       <c r="I38" s="12"/>
       <c r="J38" s="27"/>
     </row>
-    <row r="39" spans="1:15" ht="23.25">
-      <c r="A39" s="62" t="s">
-        <v>103</v>
-      </c>
-      <c r="B39" s="58">
+    <row r="39" spans="1:15" ht="25.5">
+      <c r="A39" s="61" t="s">
+        <v>157</v>
+      </c>
+      <c r="B39" s="105">
         <v>0</v>
       </c>
       <c r="C39" s="56">
@@ -13470,11 +15446,11 @@
       </c>
       <c r="J39" s="27"/>
     </row>
-    <row r="40" spans="1:15" ht="23.25">
-      <c r="A40" s="62" t="s">
-        <v>104</v>
-      </c>
-      <c r="B40" s="58">
+    <row r="40" spans="1:15" ht="25.5">
+      <c r="A40" s="61" t="s">
+        <v>158</v>
+      </c>
+      <c r="B40" s="105">
         <v>-862</v>
       </c>
       <c r="C40" s="56">
@@ -13497,521 +15473,497 @@
       </c>
       <c r="J40" s="27"/>
     </row>
-    <row r="41" spans="1:15" ht="23.25">
-      <c r="A41" s="62" t="s">
+    <row r="41" spans="1:15" ht="25.5">
+      <c r="A41" s="61" t="s">
+        <v>161</v>
+      </c>
+      <c r="B41" s="105">
+        <v>1649</v>
+      </c>
+      <c r="C41" s="56">
+        <v>3023</v>
+      </c>
+      <c r="D41" s="56">
+        <v>4292</v>
+      </c>
+      <c r="E41" s="56">
+        <v>1573</v>
+      </c>
+      <c r="F41" s="56">
+        <v>3009</v>
+      </c>
+      <c r="G41" s="56">
+        <v>10597</v>
+      </c>
+      <c r="H41" s="56">
+        <v>3572</v>
+      </c>
+      <c r="I41" s="12"/>
+      <c r="J41" s="27"/>
+    </row>
+    <row r="42" spans="1:15" ht="23.25">
+      <c r="A42" s="61" t="s">
+        <v>99</v>
+      </c>
+      <c r="B42" s="105">
+        <v>0</v>
+      </c>
+      <c r="C42" s="58">
+        <v>0</v>
+      </c>
+      <c r="D42" s="58">
+        <v>0</v>
+      </c>
+      <c r="E42" s="58">
+        <v>0</v>
+      </c>
+      <c r="F42" s="58">
+        <v>0</v>
+      </c>
+      <c r="G42" s="56">
+        <v>-52</v>
+      </c>
+      <c r="H42" s="56">
+        <v>0</v>
+      </c>
+      <c r="J42" s="27"/>
+    </row>
+    <row r="43" spans="1:15" ht="39.950000000000003" customHeight="1">
+      <c r="A43" s="63" t="s">
+        <v>162</v>
+      </c>
+      <c r="B43" s="106">
+        <f>SUM(B34:B42)</f>
+        <v>4728</v>
+      </c>
+      <c r="C43" s="65">
+        <f>SUM(C34:C42)</f>
+        <v>2038</v>
+      </c>
+      <c r="D43" s="65">
+        <f>SUM(D34:D42)</f>
+        <v>4084</v>
+      </c>
+      <c r="E43" s="65">
+        <f>SUM(E34:E42)</f>
+        <v>-1262</v>
+      </c>
+      <c r="F43" s="65">
+        <f>SUM(F34:F42)</f>
+        <v>4187</v>
+      </c>
+      <c r="G43" s="65">
+        <f>SUM(G34:G42)</f>
+        <v>12492</v>
+      </c>
+      <c r="H43" s="65">
+        <f>SUM(H34:H42)</f>
+        <v>-764</v>
+      </c>
+      <c r="J43" s="27">
+        <f t="shared" ref="J43:J47" si="6">(C43-B43)/ABS(B43)</f>
+        <v>-0.56895093062605751</v>
+      </c>
+      <c r="K43" s="27">
+        <f t="shared" ref="K43" si="7">(D43-C43)/ABS(C43)</f>
+        <v>1.0039254170755643</v>
+      </c>
+      <c r="L43" s="27">
+        <f t="shared" ref="L43" si="8">(E43-D43)/ABS(D43)</f>
+        <v>-1.3090107737512242</v>
+      </c>
+      <c r="M43" s="27">
+        <f t="shared" ref="M43" si="9">(F43-E43)/ABS(E43)</f>
+        <v>4.3177496038034864</v>
+      </c>
+      <c r="N43" s="27">
+        <f t="shared" ref="N43" si="10">(G43-F43)/ABS(F43)</f>
+        <v>1.9835204203486982</v>
+      </c>
+      <c r="O43" s="27">
+        <f t="shared" ref="O43" si="11">(H43-G43)/ABS(G43)</f>
+        <v>-1.0611591418507844</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="23.25">
+      <c r="A44" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="B44" s="105">
+        <v>-44</v>
+      </c>
+      <c r="C44" s="56">
+        <v>0</v>
+      </c>
+      <c r="D44" s="56">
+        <v>36</v>
+      </c>
+      <c r="E44" s="56">
+        <v>-113</v>
+      </c>
+      <c r="F44" s="56">
+        <v>-6</v>
+      </c>
+      <c r="G44" s="56">
+        <v>169</v>
+      </c>
+      <c r="H44" s="56">
+        <v>-102</v>
+      </c>
+      <c r="J44" s="27"/>
+    </row>
+    <row r="45" spans="1:15" ht="41.1" customHeight="1">
+      <c r="A45" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="B45" s="109">
+        <f>B22+B32+B43+B44</f>
+        <v>-808</v>
+      </c>
+      <c r="C45" s="66">
+        <f>C22+C32+C43+C44</f>
+        <v>-708</v>
+      </c>
+      <c r="D45" s="66">
+        <f>D22+D32+D43+D44</f>
+        <v>2166</v>
+      </c>
+      <c r="E45" s="66">
+        <f>E22+E32+E43+E44</f>
+        <v>4948</v>
+      </c>
+      <c r="F45" s="66">
+        <f>F22+F32+F43+F44</f>
+        <v>2510</v>
+      </c>
+      <c r="G45" s="66">
+        <f>G22+G32+G43+G44</f>
+        <v>2297</v>
+      </c>
+      <c r="H45" s="66">
+        <v>-11</v>
+      </c>
+      <c r="J45" s="27">
+        <f t="shared" si="6"/>
+        <v>0.12376237623762376</v>
+      </c>
+      <c r="K45" s="27">
+        <f t="shared" ref="K45" si="12">(D45-C45)/ABS(C45)</f>
+        <v>4.0593220338983054</v>
+      </c>
+      <c r="L45" s="27">
+        <f t="shared" ref="L45" si="13">(E45-D45)/ABS(D45)</f>
+        <v>1.2843951985226223</v>
+      </c>
+      <c r="M45" s="27">
+        <f t="shared" ref="M45" si="14">(F45-E45)/ABS(E45)</f>
+        <v>-0.49272433306386421</v>
+      </c>
+      <c r="N45" s="27">
+        <f t="shared" ref="N45" si="15">(G45-F45)/ABS(F45)</f>
+        <v>-8.4860557768924302E-2</v>
+      </c>
+      <c r="O45" s="27">
+        <f t="shared" ref="O45" si="16">(H45-G45)/ABS(G45)</f>
+        <v>-1.0047888550282977</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="23.25">
+      <c r="A46" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="B46" s="105">
+        <v>2201</v>
+      </c>
+      <c r="C46" s="56">
+        <v>6827</v>
+      </c>
+      <c r="D46" s="56">
+        <v>6119</v>
+      </c>
+      <c r="E46" s="56">
+        <v>8285</v>
+      </c>
+      <c r="F46" s="56">
+        <v>13233</v>
+      </c>
+      <c r="G46" s="56">
+        <v>15743</v>
+      </c>
+      <c r="H46" s="56">
+        <v>18040</v>
+      </c>
+      <c r="J46" s="27"/>
+    </row>
+    <row r="47" spans="1:15" ht="39.950000000000003" customHeight="1">
+      <c r="A47" s="63" t="s">
+        <v>118</v>
+      </c>
+      <c r="B47" s="106">
+        <f>SUM(B45:B46)</f>
+        <v>1393</v>
+      </c>
+      <c r="C47" s="65">
+        <f>SUM(C45:C46)</f>
+        <v>6119</v>
+      </c>
+      <c r="D47" s="65">
+        <f t="shared" ref="D47:G47" si="17">SUM(D45:D46)</f>
+        <v>8285</v>
+      </c>
+      <c r="E47" s="65">
+        <f t="shared" si="17"/>
+        <v>13233</v>
+      </c>
+      <c r="F47" s="65">
+        <f t="shared" si="17"/>
+        <v>15743</v>
+      </c>
+      <c r="G47" s="65">
+        <f t="shared" si="17"/>
+        <v>18040</v>
+      </c>
+      <c r="H47" s="65">
+        <f>SUM(H45:H46)</f>
+        <v>18029</v>
+      </c>
+      <c r="J47" s="27">
+        <f t="shared" si="6"/>
+        <v>3.3926776740847093</v>
+      </c>
+      <c r="K47" s="27">
+        <f t="shared" ref="K47:K55" si="18">(D47-C47)/ABS(C47)</f>
+        <v>0.35397940840006537</v>
+      </c>
+      <c r="L47" s="27">
+        <f t="shared" ref="L47" si="19">(E47-D47)/ABS(D47)</f>
+        <v>0.59722389861194936</v>
+      </c>
+      <c r="M47" s="27">
+        <f t="shared" ref="M47" si="20">(F47-E47)/ABS(E47)</f>
+        <v>0.18967732184689789</v>
+      </c>
+      <c r="N47" s="27">
+        <f t="shared" ref="N47" si="21">(G47-F47)/ABS(F47)</f>
+        <v>0.14590611700438291</v>
+      </c>
+      <c r="O47" s="27">
+        <f t="shared" ref="O47" si="22">(H47-G47)/ABS(G47)</f>
+        <v>-6.0975609756097561E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" s="1" customFormat="1" ht="23.25">
+      <c r="A48" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="B48" s="108"/>
+      <c r="C48" s="70"/>
+      <c r="D48" s="70"/>
+      <c r="E48" s="70"/>
+      <c r="F48" s="70"/>
+      <c r="G48" s="70"/>
+      <c r="H48" s="70"/>
+      <c r="K48" s="71"/>
+    </row>
+    <row r="49" spans="1:15" ht="23.25">
+      <c r="A49" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="B49" s="105">
+        <v>16</v>
+      </c>
+      <c r="C49" s="56">
+        <v>4</v>
+      </c>
+      <c r="D49" s="56">
+        <v>6</v>
+      </c>
+      <c r="E49" s="56">
+        <v>69</v>
+      </c>
+      <c r="F49" s="56">
+        <v>78</v>
+      </c>
+      <c r="G49" s="56">
+        <v>190</v>
+      </c>
+      <c r="H49" s="56">
+        <v>231</v>
+      </c>
+      <c r="K49" s="27"/>
+    </row>
+    <row r="50" spans="1:15" ht="23.25">
+      <c r="A50" s="61" t="s">
+        <v>104</v>
+      </c>
+      <c r="B50" s="105">
+        <v>216</v>
+      </c>
+      <c r="C50" s="56">
+        <v>48</v>
+      </c>
+      <c r="D50" s="56">
+        <v>117</v>
+      </c>
+      <c r="E50" s="56">
+        <v>328</v>
+      </c>
+      <c r="F50" s="56">
+        <v>665</v>
+      </c>
+      <c r="G50" s="56">
+        <v>565</v>
+      </c>
+      <c r="H50" s="56">
+        <v>474</v>
+      </c>
+      <c r="K50" s="27"/>
+    </row>
+    <row r="51" spans="1:15" s="1" customFormat="1" ht="25.5">
+      <c r="A51" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="B41" s="58">
-        <v>-1649</v>
-      </c>
-      <c r="C41" s="56">
+      <c r="B51" s="108"/>
+      <c r="C51" s="70"/>
+      <c r="D51" s="70"/>
+      <c r="E51" s="70"/>
+      <c r="F51" s="70"/>
+      <c r="G51" s="70"/>
+      <c r="H51" s="70"/>
+      <c r="K51" s="71"/>
+    </row>
+    <row r="52" spans="1:15" ht="23.25">
+      <c r="A52" s="61" t="s">
+        <v>105</v>
+      </c>
+      <c r="B52" s="105">
         <v>0</v>
       </c>
-      <c r="D41" s="56">
+      <c r="C52" s="56">
+        <v>1590</v>
+      </c>
+      <c r="D52" s="56">
+        <v>2883</v>
+      </c>
+      <c r="E52" s="56">
+        <v>7575</v>
+      </c>
+      <c r="F52" s="56">
+        <v>7349</v>
+      </c>
+      <c r="G52" s="56">
+        <v>4794</v>
+      </c>
+      <c r="H52" s="56">
+        <v>5197</v>
+      </c>
+      <c r="K52" s="27"/>
+    </row>
+    <row r="53" spans="1:15" ht="23.25">
+      <c r="A53" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="B53" s="105">
         <v>0</v>
       </c>
-      <c r="E41" s="56">
+      <c r="C53" s="56">
+        <v>17</v>
+      </c>
+      <c r="D53" s="56">
+        <v>15</v>
+      </c>
+      <c r="E53" s="56">
+        <v>16</v>
+      </c>
+      <c r="F53" s="56">
+        <v>7</v>
+      </c>
+      <c r="G53" s="56">
+        <v>24</v>
+      </c>
+      <c r="H53" s="56">
+        <v>109</v>
+      </c>
+      <c r="K53" s="27"/>
+    </row>
+    <row r="54" spans="1:15" ht="23.25">
+      <c r="A54" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="B54" s="105">
         <v>0</v>
       </c>
-      <c r="F41" s="56">
+      <c r="C54" s="56">
+        <v>4512</v>
+      </c>
+      <c r="D54" s="56">
+        <v>5387</v>
+      </c>
+      <c r="E54" s="56">
+        <v>5642</v>
+      </c>
+      <c r="F54" s="56">
+        <v>8387</v>
+      </c>
+      <c r="G54" s="56">
+        <v>13222</v>
+      </c>
+      <c r="H54" s="56">
+        <v>12723</v>
+      </c>
+      <c r="K54" s="27"/>
+    </row>
+    <row r="55" spans="1:15" ht="35.1" customHeight="1">
+      <c r="A55" s="63" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" s="106">
         <v>0</v>
       </c>
-      <c r="G41" s="56">
-        <v>0</v>
-      </c>
-      <c r="H41" s="56">
-        <v>0</v>
-      </c>
-      <c r="J41" s="27"/>
-    </row>
-    <row r="42" spans="1:15" ht="23.25">
-      <c r="A42" s="62" t="s">
-        <v>105</v>
-      </c>
-      <c r="B42" s="58">
-        <v>1649</v>
-      </c>
-      <c r="C42" s="56">
-        <v>3023</v>
-      </c>
-      <c r="D42" s="56">
-        <v>4292</v>
-      </c>
-      <c r="E42" s="56">
-        <v>1573</v>
-      </c>
-      <c r="F42" s="56">
-        <v>3009</v>
-      </c>
-      <c r="G42" s="56">
-        <v>10597</v>
-      </c>
-      <c r="H42" s="56">
-        <v>3572</v>
-      </c>
-      <c r="I42" s="12"/>
-      <c r="J42" s="27"/>
-    </row>
-    <row r="43" spans="1:15" ht="23.25">
-      <c r="A43" s="62" t="s">
-        <v>106</v>
-      </c>
-      <c r="B43" s="58">
-        <v>0</v>
-      </c>
-      <c r="C43" s="58">
-        <v>0</v>
-      </c>
-      <c r="D43" s="58">
-        <v>0</v>
-      </c>
-      <c r="E43" s="58">
-        <v>0</v>
-      </c>
-      <c r="F43" s="58">
-        <v>0</v>
-      </c>
-      <c r="G43" s="56">
-        <v>-52</v>
-      </c>
-      <c r="H43" s="56">
-        <v>0</v>
-      </c>
-      <c r="J43" s="27"/>
-    </row>
-    <row r="44" spans="1:15" ht="39.950000000000003" customHeight="1">
-      <c r="A44" s="64" t="s">
-        <v>107</v>
-      </c>
-      <c r="B44" s="66">
-        <f>SUM(B34:B43)</f>
-        <v>3079</v>
-      </c>
-      <c r="C44" s="66">
-        <f t="shared" ref="C44:H44" si="6">SUM(C34:C43)</f>
-        <v>2038</v>
-      </c>
-      <c r="D44" s="66">
-        <f t="shared" si="6"/>
-        <v>4084</v>
-      </c>
-      <c r="E44" s="66">
-        <f t="shared" si="6"/>
-        <v>-1262</v>
-      </c>
-      <c r="F44" s="66">
-        <f t="shared" si="6"/>
-        <v>4187</v>
-      </c>
-      <c r="G44" s="66">
-        <f t="shared" si="6"/>
-        <v>12492</v>
-      </c>
-      <c r="H44" s="66">
-        <f t="shared" si="6"/>
-        <v>-764</v>
-      </c>
-      <c r="J44" s="27">
-        <f t="shared" ref="J44:J48" si="7">(C44-B44)/ABS(B44)</f>
-        <v>-0.33809678467034754</v>
-      </c>
-      <c r="K44" s="27">
-        <f t="shared" ref="K44" si="8">(D44-C44)/ABS(C44)</f>
-        <v>1.0039254170755643</v>
-      </c>
-      <c r="L44" s="27">
-        <f t="shared" ref="L44" si="9">(E44-D44)/ABS(D44)</f>
-        <v>-1.3090107737512242</v>
-      </c>
-      <c r="M44" s="27">
-        <f t="shared" ref="M44" si="10">(F44-E44)/ABS(E44)</f>
-        <v>4.3177496038034864</v>
-      </c>
-      <c r="N44" s="27">
-        <f t="shared" ref="N44" si="11">(G44-F44)/ABS(F44)</f>
-        <v>1.9835204203486982</v>
-      </c>
-      <c r="O44" s="27">
-        <f t="shared" ref="O44" si="12">(H44-G44)/ABS(G44)</f>
-        <v>-1.0611591418507844</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" ht="23.25">
-      <c r="A45" s="62" t="s">
-        <v>108</v>
-      </c>
-      <c r="B45" s="58">
-        <v>-44</v>
-      </c>
-      <c r="C45" s="56">
-        <v>0</v>
-      </c>
-      <c r="D45" s="56">
-        <v>36</v>
-      </c>
-      <c r="E45" s="56">
-        <v>-113</v>
-      </c>
-      <c r="F45" s="56">
-        <v>-6</v>
-      </c>
-      <c r="G45" s="56">
-        <v>169</v>
-      </c>
-      <c r="H45" s="56">
-        <v>-102</v>
-      </c>
-      <c r="J45" s="27"/>
-    </row>
-    <row r="46" spans="1:15" ht="41.1" customHeight="1">
-      <c r="A46" s="64" t="s">
-        <v>161</v>
-      </c>
-      <c r="B46" s="67">
-        <f>B22+B32+B44+B45</f>
-        <v>-808</v>
-      </c>
-      <c r="C46" s="67">
-        <f t="shared" ref="B46:H46" si="13">C22+C32+C44+C45</f>
-        <v>-708</v>
-      </c>
-      <c r="D46" s="67">
-        <f t="shared" si="13"/>
-        <v>2166</v>
-      </c>
-      <c r="E46" s="67">
-        <f t="shared" si="13"/>
-        <v>4948</v>
-      </c>
-      <c r="F46" s="67">
-        <f t="shared" si="13"/>
-        <v>2510</v>
-      </c>
-      <c r="G46" s="67">
-        <f t="shared" si="13"/>
-        <v>2297</v>
-      </c>
-      <c r="H46" s="67">
-        <v>-11</v>
-      </c>
-      <c r="J46" s="27">
-        <f t="shared" si="7"/>
-        <v>0.12376237623762376</v>
-      </c>
-      <c r="K46" s="27">
-        <f t="shared" ref="K46" si="14">(D46-C46)/ABS(C46)</f>
-        <v>4.0593220338983054</v>
-      </c>
-      <c r="L46" s="27">
-        <f t="shared" ref="L46" si="15">(E46-D46)/ABS(D46)</f>
-        <v>1.2843951985226223</v>
-      </c>
-      <c r="M46" s="27">
-        <f t="shared" ref="M46" si="16">(F46-E46)/ABS(E46)</f>
-        <v>-0.49272433306386421</v>
-      </c>
-      <c r="N46" s="27">
-        <f t="shared" ref="N46" si="17">(G46-F46)/ABS(F46)</f>
-        <v>-8.4860557768924302E-2</v>
-      </c>
-      <c r="O46" s="27">
-        <f t="shared" ref="O46" si="18">(H46-G46)/ABS(G46)</f>
-        <v>-1.0047888550282977</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" ht="23.25">
-      <c r="A47" s="62" t="s">
-        <v>118</v>
-      </c>
-      <c r="B47" s="58">
-        <v>2201</v>
-      </c>
-      <c r="C47" s="56">
-        <v>6827</v>
-      </c>
-      <c r="D47" s="56">
+      <c r="C55" s="66">
         <v>6119</v>
       </c>
-      <c r="E47" s="56">
-        <v>8285</v>
-      </c>
-      <c r="F47" s="56">
+      <c r="D55" s="66">
+        <v>8252</v>
+      </c>
+      <c r="E55" s="66">
         <v>13233</v>
       </c>
-      <c r="G47" s="56">
+      <c r="F55" s="66">
         <v>15743</v>
       </c>
-      <c r="H47" s="56">
+      <c r="G55" s="66">
         <v>18040</v>
       </c>
-      <c r="J47" s="27"/>
-    </row>
-    <row r="48" spans="1:15" ht="39.950000000000003" customHeight="1">
-      <c r="A48" s="64" t="s">
-        <v>127</v>
-      </c>
-      <c r="B48" s="66">
-        <f>SUM(B46:B47)</f>
-        <v>1393</v>
-      </c>
-      <c r="C48" s="66">
-        <f t="shared" ref="C48:H48" si="19">SUM(C46:C47)</f>
-        <v>6119</v>
-      </c>
-      <c r="D48" s="66">
-        <f t="shared" si="19"/>
-        <v>8285</v>
-      </c>
-      <c r="E48" s="66">
-        <f t="shared" si="19"/>
-        <v>13233</v>
-      </c>
-      <c r="F48" s="66">
-        <f t="shared" si="19"/>
-        <v>15743</v>
-      </c>
-      <c r="G48" s="66">
-        <f t="shared" si="19"/>
-        <v>18040</v>
-      </c>
-      <c r="H48" s="66">
-        <f>SUM(H46:H47)</f>
+      <c r="H55" s="66">
         <v>18029</v>
       </c>
-      <c r="J48" s="27">
-        <f t="shared" si="7"/>
-        <v>3.3926776740847093</v>
-      </c>
-      <c r="K48" s="27">
-        <f t="shared" ref="K48:K56" si="20">(D48-C48)/ABS(C48)</f>
-        <v>0.35397940840006537</v>
-      </c>
-      <c r="L48" s="27">
-        <f t="shared" ref="L48" si="21">(E48-D48)/ABS(D48)</f>
-        <v>0.59722389861194936</v>
-      </c>
-      <c r="M48" s="27">
-        <f t="shared" ref="M48" si="22">(F48-E48)/ABS(E48)</f>
+      <c r="J55" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="K55" s="27">
+        <f t="shared" si="18"/>
+        <v>0.34858637032194806</v>
+      </c>
+      <c r="L55" s="27">
+        <f t="shared" ref="L55" si="23">(E55-D55)/ABS(D55)</f>
+        <v>0.60361124575860392</v>
+      </c>
+      <c r="M55" s="27">
+        <f t="shared" ref="M55" si="24">(F55-E55)/ABS(E55)</f>
         <v>0.18967732184689789</v>
       </c>
-      <c r="N48" s="27">
-        <f t="shared" ref="N48" si="23">(G48-F48)/ABS(F48)</f>
+      <c r="N55" s="27">
+        <f t="shared" ref="N55" si="25">(G55-F55)/ABS(F55)</f>
         <v>0.14590611700438291</v>
       </c>
-      <c r="O48" s="27">
-        <f t="shared" ref="O48" si="24">(H48-G48)/ABS(G48)</f>
+      <c r="O55" s="27">
+        <f t="shared" ref="O55" si="26">(H55-G55)/ABS(G55)</f>
         <v>-6.0975609756097561E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:15" s="1" customFormat="1" ht="23.25">
-      <c r="A49" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="B49" s="72"/>
-      <c r="C49" s="73"/>
-      <c r="D49" s="73"/>
-      <c r="E49" s="73"/>
-      <c r="F49" s="73"/>
-      <c r="G49" s="73"/>
-      <c r="H49" s="73"/>
-      <c r="K49" s="74"/>
-    </row>
-    <row r="50" spans="1:15" ht="23.25">
-      <c r="A50" s="62" t="s">
-        <v>112</v>
-      </c>
-      <c r="B50" s="58">
-        <v>16</v>
-      </c>
-      <c r="C50" s="56">
-        <v>4</v>
-      </c>
-      <c r="D50" s="56">
-        <v>6</v>
-      </c>
-      <c r="E50" s="56">
-        <v>69</v>
-      </c>
-      <c r="F50" s="56">
-        <v>78</v>
-      </c>
-      <c r="G50" s="56">
-        <v>190</v>
-      </c>
-      <c r="H50" s="56">
-        <v>231</v>
-      </c>
-      <c r="K50" s="27"/>
-    </row>
-    <row r="51" spans="1:15" ht="23.25">
-      <c r="A51" s="62" t="s">
-        <v>113</v>
-      </c>
-      <c r="B51" s="58">
-        <v>216</v>
-      </c>
-      <c r="C51" s="56">
-        <v>48</v>
-      </c>
-      <c r="D51" s="56">
-        <v>117</v>
-      </c>
-      <c r="E51" s="56">
-        <v>328</v>
-      </c>
-      <c r="F51" s="56">
-        <v>665</v>
-      </c>
-      <c r="G51" s="56">
-        <v>565</v>
-      </c>
-      <c r="H51" s="56">
-        <v>474</v>
-      </c>
-      <c r="K51" s="27"/>
-    </row>
-    <row r="52" spans="1:15" s="1" customFormat="1" ht="25.5">
-      <c r="A52" s="65" t="s">
-        <v>119</v>
-      </c>
-      <c r="B52" s="72"/>
-      <c r="C52" s="73"/>
-      <c r="D52" s="73"/>
-      <c r="E52" s="73"/>
-      <c r="F52" s="73"/>
-      <c r="G52" s="73"/>
-      <c r="H52" s="73"/>
-      <c r="K52" s="74"/>
-    </row>
-    <row r="53" spans="1:15" ht="23.25">
-      <c r="A53" s="62" t="s">
-        <v>114</v>
-      </c>
-      <c r="B53" s="58">
-        <v>0</v>
-      </c>
-      <c r="C53" s="56">
-        <v>1590</v>
-      </c>
-      <c r="D53" s="56">
-        <v>2883</v>
-      </c>
-      <c r="E53" s="56">
-        <v>7575</v>
-      </c>
-      <c r="F53" s="56">
-        <v>7349</v>
-      </c>
-      <c r="G53" s="56">
-        <v>4794</v>
-      </c>
-      <c r="H53" s="56">
-        <v>5197</v>
-      </c>
-      <c r="K53" s="27"/>
-    </row>
-    <row r="54" spans="1:15" ht="23.25">
-      <c r="A54" s="62" t="s">
-        <v>115</v>
-      </c>
-      <c r="B54" s="58">
-        <v>0</v>
-      </c>
-      <c r="C54" s="56">
-        <v>17</v>
-      </c>
-      <c r="D54" s="56">
-        <v>15</v>
-      </c>
-      <c r="E54" s="56">
-        <v>16</v>
-      </c>
-      <c r="F54" s="56">
-        <v>7</v>
-      </c>
-      <c r="G54" s="56">
-        <v>24</v>
-      </c>
-      <c r="H54" s="56">
-        <v>109</v>
-      </c>
-      <c r="K54" s="27"/>
-    </row>
-    <row r="55" spans="1:15" ht="23.25">
-      <c r="A55" s="62" t="s">
-        <v>116</v>
-      </c>
-      <c r="B55" s="58">
-        <v>0</v>
-      </c>
-      <c r="C55" s="56">
-        <v>4512</v>
-      </c>
-      <c r="D55" s="56">
-        <v>5387</v>
-      </c>
-      <c r="E55" s="56">
-        <v>5642</v>
-      </c>
-      <c r="F55" s="56">
-        <v>8387</v>
-      </c>
-      <c r="G55" s="56">
-        <v>13222</v>
-      </c>
-      <c r="H55" s="56">
-        <v>12723</v>
-      </c>
-      <c r="K55" s="27"/>
-    </row>
-    <row r="56" spans="1:15" ht="35.1" customHeight="1">
-      <c r="A56" s="64" t="s">
-        <v>117</v>
-      </c>
-      <c r="B56" s="66">
-        <v>0</v>
-      </c>
-      <c r="C56" s="67">
-        <v>6119</v>
-      </c>
-      <c r="D56" s="67">
-        <v>8252</v>
-      </c>
-      <c r="E56" s="67">
-        <v>13233</v>
-      </c>
-      <c r="F56" s="67">
-        <v>15743</v>
-      </c>
-      <c r="G56" s="67">
-        <v>18040</v>
-      </c>
-      <c r="H56" s="67">
-        <v>18029</v>
-      </c>
-      <c r="J56" s="75" t="s">
-        <v>55</v>
-      </c>
-      <c r="K56" s="27">
-        <f t="shared" si="20"/>
-        <v>0.34858637032194806</v>
-      </c>
-      <c r="L56" s="27">
-        <f t="shared" ref="L56" si="25">(E56-D56)/ABS(D56)</f>
-        <v>0.60361124575860392</v>
-      </c>
-      <c r="M56" s="27">
-        <f t="shared" ref="M56" si="26">(F56-E56)/ABS(E56)</f>
-        <v>0.18967732184689789</v>
-      </c>
-      <c r="N56" s="27">
-        <f t="shared" ref="N56" si="27">(G56-F56)/ABS(F56)</f>
-        <v>0.14590611700438291</v>
-      </c>
-      <c r="O56" s="27">
-        <f t="shared" ref="O56" si="28">(H56-G56)/ABS(G56)</f>
-        <v>-6.0975609756097561E-4</v>
-      </c>
+    <row r="56" spans="1:15">
+      <c r="A56"/>
     </row>
     <row r="57" spans="1:15">
       <c r="A57"/>
@@ -17552,39 +19504,36 @@
     </row>
     <row r="1236" spans="1:1">
       <c r="A1236"/>
-    </row>
-    <row r="1237" spans="1:1">
-      <c r="A1237"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J22:O22">
-    <cfRule type="top10" dxfId="29" priority="15" rank="1"/>
-    <cfRule type="top10" dxfId="28" priority="16" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="15" priority="15" rank="1"/>
+    <cfRule type="top10" dxfId="14" priority="16" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:O3">
-    <cfRule type="top10" dxfId="27" priority="13" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="26" priority="14" rank="1"/>
+    <cfRule type="top10" dxfId="13" priority="13" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="12" priority="14" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J48:O48">
-    <cfRule type="top10" dxfId="25" priority="11" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="24" priority="12" rank="1"/>
+  <conditionalFormatting sqref="J47:O47">
+    <cfRule type="top10" dxfId="11" priority="11" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="10" priority="12" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J46:O46">
-    <cfRule type="top10" dxfId="23" priority="9" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="22" priority="10" rank="1"/>
+  <conditionalFormatting sqref="J45:O45">
+    <cfRule type="top10" dxfId="9" priority="9" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="8" priority="10" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K56:O56">
-    <cfRule type="top10" dxfId="21" priority="7" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="20" priority="8" rank="1"/>
+  <conditionalFormatting sqref="K55:O55">
+    <cfRule type="top10" dxfId="7" priority="7" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="6" priority="8" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J44:O44">
-    <cfRule type="top10" dxfId="19" priority="5" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="18" priority="6" rank="1"/>
+  <conditionalFormatting sqref="J43:O43">
+    <cfRule type="top10" dxfId="5" priority="5" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="4" priority="6" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32:O32">
-    <cfRule type="top10" dxfId="17" priority="3" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="16" priority="4" rank="1"/>
+    <cfRule type="top10" dxfId="3" priority="3" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="2" priority="4" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13:O13">
     <cfRule type="top10" dxfId="1" priority="1" bottom="1" rank="1"/>
@@ -17606,6 +19555,10 @@
           <x14:colorHigh rgb="FF00B050"/>
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J45:O45</xm:f>
+              <xm:sqref>P45</xm:sqref>
+            </x14:sparkline>
             <x14:sparkline>
               <xm:f>'CASH FLOWS'!J46:O46</xm:f>
               <xm:sqref>P46</xm:sqref>
@@ -17646,10 +19599,6 @@
               <xm:f>'CASH FLOWS'!J55:O55</xm:f>
               <xm:sqref>P55</xm:sqref>
             </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J56:O56</xm:f>
-              <xm:sqref>P56</xm:sqref>
-            </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" high="1">
@@ -17663,8 +19612,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J44:O44</xm:f>
-              <xm:sqref>P44</xm:sqref>
+              <xm:f>'CASH FLOWS'!J43:O43</xm:f>
+              <xm:sqref>P43</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -17803,24 +19752,24 @@
               <xm:sqref>I33</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B44:H44</xm:f>
-              <xm:sqref>I44</xm:sqref>
+              <xm:f>'CASH FLOWS'!B43:H43</xm:f>
+              <xm:sqref>I43</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B46:H46</xm:f>
-              <xm:sqref>I46</xm:sqref>
+              <xm:f>'CASH FLOWS'!B45:H45</xm:f>
+              <xm:sqref>I45</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!B47:H47</xm:f>
+              <xm:sqref>I47</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
               <xm:f>'CASH FLOWS'!B48:H48</xm:f>
               <xm:sqref>I48</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B49:H49</xm:f>
-              <xm:sqref>I49</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B56:H56</xm:f>
-              <xm:sqref>I56</xm:sqref>
+              <xm:f>'CASH FLOWS'!B55:H55</xm:f>
+              <xm:sqref>I55</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
               <xm:f>'CASH FLOWS'!B3:H3</xm:f>
